--- a/template-equivalent-tables.xlsx
+++ b/template-equivalent-tables.xlsx
@@ -160,7 +160,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="81">
   <si>
     <t>range_1</t>
   </si>
@@ -397,13 +397,19 @@
   </si>
   <si>
     <t>G9</t>
+  </si>
+  <si>
+    <t>F12</t>
+  </si>
+  <si>
+    <t>J12</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="10">
+  <fonts count="11">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -444,13 +450,6 @@
       <family val="2"/>
     </font>
     <font>
-      <b/>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Aptos Narrow"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="8"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
@@ -468,6 +467,21 @@
       <sz val="8"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -706,44 +720,34 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="58">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="49" fontId="8" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="7" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="7" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="7" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="7" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="7" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="7" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="7" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="7" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="7" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="6" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="6" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="6" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="6" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="6" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="6" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="6" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="6" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="6" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="9" fillId="12" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="8" fillId="12" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="12" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="12" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="12" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="12" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -766,26 +770,8 @@
     <xf numFmtId="0" fontId="0" fillId="12" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="9" fillId="12" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="8" fillId="12" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="12" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="12" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="12" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="9" fillId="12" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="9" fillId="12" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="9" fillId="12" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -796,12 +782,6 @@
     <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="9" fillId="12" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="9" fillId="12" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="12" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -814,7 +794,7 @@
     <xf numFmtId="0" fontId="0" fillId="12" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="9" fillId="12" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="8" fillId="12" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -823,6 +803,54 @@
     <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="12" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="12" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="12" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="12" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="8" fillId="12" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="8" fillId="12" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="8" fillId="12" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="12" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="12" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="12" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="8" fillId="12" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -832,21 +860,8 @@
     <xf numFmtId="0" fontId="2" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1193,239 +1208,245 @@
   <dimension ref="A1:P17"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9:I9"/>
+      <selection activeCell="V13" sqref="V13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.88671875" defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="3" width="3.88671875" style="5"/>
+    <col min="2" max="3" width="3.88671875" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16">
-      <c r="A1" t="s">
+      <c r="A1" s="57" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:16" ht="15.75">
-      <c r="A3" s="4" t="s">
+    <row r="2" spans="1:16">
+      <c r="A2" s="57"/>
+    </row>
+    <row r="3" spans="1:16">
+      <c r="A3" s="58" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:16">
-      <c r="A5" s="49" t="s">
+      <c r="A5" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="57" t="s">
+      <c r="B5" s="39" t="s">
         <v>60</v>
       </c>
-      <c r="C5" s="57"/>
-      <c r="D5" s="57"/>
-      <c r="E5" s="57"/>
-      <c r="F5" s="57" t="s">
+      <c r="C5" s="39"/>
+      <c r="D5" s="39"/>
+      <c r="E5" s="39"/>
+      <c r="F5" s="39" t="s">
         <v>61</v>
       </c>
-      <c r="G5" s="57"/>
-      <c r="H5" s="57"/>
-      <c r="I5" s="57"/>
-      <c r="J5" s="57"/>
-      <c r="K5" s="57" t="s">
+      <c r="G5" s="39"/>
+      <c r="H5" s="39"/>
+      <c r="I5" s="39"/>
+      <c r="J5" s="39"/>
+      <c r="K5" s="39" t="s">
         <v>62</v>
       </c>
-      <c r="L5" s="57"/>
-      <c r="M5" s="57"/>
-      <c r="N5" s="57"/>
-      <c r="O5" s="57"/>
-      <c r="P5" s="57"/>
+      <c r="L5" s="39"/>
+      <c r="M5" s="39"/>
+      <c r="N5" s="39"/>
+      <c r="O5" s="39"/>
+      <c r="P5" s="39"/>
     </row>
     <row r="6" spans="1:16">
-      <c r="A6" s="20" t="s">
+      <c r="A6" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="21" t="s">
+      <c r="B6" s="40" t="s">
         <v>74</v>
       </c>
-      <c r="C6" s="22"/>
-      <c r="D6" s="22"/>
-      <c r="E6" s="23"/>
-      <c r="F6" s="21" t="s">
+      <c r="C6" s="41"/>
+      <c r="D6" s="41"/>
+      <c r="E6" s="42"/>
+      <c r="F6" s="40" t="s">
         <v>75</v>
       </c>
-      <c r="G6" s="22"/>
-      <c r="H6" s="22"/>
-      <c r="I6" s="22"/>
-      <c r="J6" s="23"/>
-      <c r="K6" s="21" t="s">
+      <c r="G6" s="41"/>
+      <c r="H6" s="41"/>
+      <c r="I6" s="41"/>
+      <c r="J6" s="42"/>
+      <c r="K6" s="40" t="s">
         <v>76</v>
       </c>
-      <c r="L6" s="22"/>
-      <c r="M6" s="22"/>
-      <c r="N6" s="22"/>
-      <c r="O6" s="22"/>
-      <c r="P6" s="23"/>
+      <c r="L6" s="41"/>
+      <c r="M6" s="41"/>
+      <c r="N6" s="41"/>
+      <c r="O6" s="41"/>
+      <c r="P6" s="42"/>
     </row>
     <row r="7" spans="1:16">
-      <c r="A7" s="24"/>
-      <c r="B7" s="25"/>
-      <c r="C7" s="25"/>
-      <c r="D7" s="25"/>
-      <c r="E7" s="26"/>
-      <c r="F7" s="26"/>
-      <c r="G7" s="26"/>
-      <c r="H7" s="26"/>
-      <c r="I7" s="26"/>
-      <c r="J7" s="26"/>
-      <c r="K7" s="27"/>
-      <c r="L7" s="27"/>
-      <c r="M7" s="27"/>
-      <c r="N7" s="27"/>
-      <c r="O7" s="27"/>
-      <c r="P7" s="28"/>
+      <c r="A7" s="20"/>
+      <c r="B7" s="21"/>
+      <c r="C7" s="21"/>
+      <c r="D7" s="21"/>
+      <c r="E7" s="22"/>
+      <c r="F7" s="22"/>
+      <c r="G7" s="22"/>
+      <c r="H7" s="22"/>
+      <c r="I7" s="22"/>
+      <c r="J7" s="22"/>
+      <c r="K7" s="23"/>
+      <c r="L7" s="23"/>
+      <c r="M7" s="23"/>
+      <c r="N7" s="23"/>
+      <c r="O7" s="23"/>
+      <c r="P7" s="24"/>
     </row>
     <row r="8" spans="1:16">
-      <c r="A8" s="29"/>
-      <c r="B8" s="25"/>
-      <c r="C8" s="49" t="s">
+      <c r="A8" s="25"/>
+      <c r="B8" s="21"/>
+      <c r="C8" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="D8" s="50" t="s">
+      <c r="D8" s="54" t="s">
         <v>63</v>
       </c>
-      <c r="E8" s="51"/>
-      <c r="F8" s="52"/>
-      <c r="G8" s="50" t="s">
+      <c r="E8" s="55"/>
+      <c r="F8" s="56"/>
+      <c r="G8" s="54" t="s">
         <v>64</v>
       </c>
-      <c r="H8" s="51"/>
-      <c r="I8" s="52"/>
-      <c r="J8" s="25"/>
-      <c r="K8" s="27"/>
-      <c r="L8" s="27"/>
-      <c r="M8" s="27"/>
-      <c r="N8" s="27"/>
-      <c r="O8" s="27"/>
-      <c r="P8" s="30"/>
+      <c r="H8" s="55"/>
+      <c r="I8" s="56"/>
+      <c r="J8" s="21"/>
+      <c r="K8" s="23"/>
+      <c r="L8" s="23"/>
+      <c r="M8" s="23"/>
+      <c r="N8" s="23"/>
+      <c r="O8" s="23"/>
+      <c r="P8" s="26"/>
     </row>
     <row r="9" spans="1:16">
-      <c r="A9" s="29"/>
-      <c r="B9" s="25"/>
-      <c r="C9" s="31" t="s">
+      <c r="A9" s="25"/>
+      <c r="B9" s="21"/>
+      <c r="C9" s="27" t="s">
         <v>67</v>
       </c>
-      <c r="D9" s="32" t="s">
+      <c r="D9" s="47" t="s">
         <v>69</v>
       </c>
-      <c r="E9" s="33"/>
-      <c r="F9" s="34"/>
-      <c r="G9" s="35" t="s">
+      <c r="E9" s="48"/>
+      <c r="F9" s="49"/>
+      <c r="G9" s="44" t="s">
         <v>70</v>
       </c>
-      <c r="H9" s="36"/>
-      <c r="I9" s="37"/>
-      <c r="J9" s="26"/>
-      <c r="K9" s="27"/>
-      <c r="L9" s="27"/>
-      <c r="M9" s="27"/>
-      <c r="N9" s="27"/>
-      <c r="O9" s="27"/>
-      <c r="P9" s="30"/>
+      <c r="H9" s="45"/>
+      <c r="I9" s="46"/>
+      <c r="J9" s="22"/>
+      <c r="K9" s="23"/>
+      <c r="L9" s="23"/>
+      <c r="M9" s="23"/>
+      <c r="N9" s="23"/>
+      <c r="O9" s="23"/>
+      <c r="P9" s="26"/>
     </row>
     <row r="10" spans="1:16">
-      <c r="A10" s="29"/>
-      <c r="B10" s="25"/>
-      <c r="C10" s="25"/>
-      <c r="D10" s="38"/>
-      <c r="E10" s="26"/>
-      <c r="F10" s="26"/>
-      <c r="G10" s="26"/>
-      <c r="H10" s="26"/>
-      <c r="I10" s="26"/>
-      <c r="J10" s="26"/>
-      <c r="K10" s="27"/>
-      <c r="L10" s="27"/>
-      <c r="M10" s="27"/>
-      <c r="N10" s="27"/>
-      <c r="O10" s="27"/>
-      <c r="P10" s="30"/>
+      <c r="A10" s="25"/>
+      <c r="B10" s="21"/>
+      <c r="C10" s="21"/>
+      <c r="D10" s="28"/>
+      <c r="E10" s="22"/>
+      <c r="F10" s="22"/>
+      <c r="G10" s="22"/>
+      <c r="H10" s="22"/>
+      <c r="I10" s="22"/>
+      <c r="J10" s="22"/>
+      <c r="K10" s="23"/>
+      <c r="L10" s="23"/>
+      <c r="M10" s="23"/>
+      <c r="N10" s="23"/>
+      <c r="O10" s="23"/>
+      <c r="P10" s="26"/>
     </row>
     <row r="11" spans="1:16">
-      <c r="A11" s="29"/>
-      <c r="B11" s="25"/>
-      <c r="C11" s="39"/>
-      <c r="D11" s="27"/>
-      <c r="E11" s="27"/>
-      <c r="F11" s="53" t="s">
+      <c r="A11" s="25"/>
+      <c r="B11" s="21"/>
+      <c r="C11" s="29"/>
+      <c r="D11" s="23"/>
+      <c r="E11" s="23"/>
+      <c r="F11" s="38" t="s">
         <v>9</v>
       </c>
-      <c r="G11" s="54" t="s">
+      <c r="G11" s="51" t="s">
         <v>65</v>
       </c>
-      <c r="H11" s="55"/>
-      <c r="I11" s="56"/>
-      <c r="J11" s="54" t="s">
+      <c r="H11" s="52"/>
+      <c r="I11" s="53"/>
+      <c r="J11" s="51" t="s">
         <v>66</v>
       </c>
-      <c r="K11" s="55"/>
-      <c r="L11" s="56"/>
-      <c r="M11" s="27"/>
-      <c r="N11" s="27"/>
-      <c r="O11" s="27"/>
-      <c r="P11" s="30"/>
+      <c r="K11" s="52"/>
+      <c r="L11" s="53"/>
+      <c r="M11" s="23"/>
+      <c r="N11" s="23"/>
+      <c r="O11" s="23"/>
+      <c r="P11" s="26"/>
     </row>
     <row r="12" spans="1:16">
-      <c r="A12" s="29"/>
-      <c r="B12" s="25"/>
-      <c r="C12" s="40"/>
-      <c r="D12" s="26"/>
-      <c r="E12" s="26"/>
-      <c r="F12" s="31" t="s">
+      <c r="A12" s="25"/>
+      <c r="B12" s="21"/>
+      <c r="C12" s="30"/>
+      <c r="D12" s="22"/>
+      <c r="E12" s="22"/>
+      <c r="F12" s="27" t="s">
         <v>68</v>
       </c>
-      <c r="G12" s="41" t="s">
+      <c r="G12" s="43" t="s">
         <v>71</v>
       </c>
-      <c r="H12" s="41"/>
-      <c r="I12" s="41"/>
-      <c r="J12" s="42" t="s">
+      <c r="H12" s="43"/>
+      <c r="I12" s="43"/>
+      <c r="J12" s="50" t="s">
         <v>72</v>
       </c>
-      <c r="K12" s="42"/>
-      <c r="L12" s="42"/>
-      <c r="M12" s="26"/>
-      <c r="N12" s="26"/>
-      <c r="O12" s="26"/>
-      <c r="P12" s="30"/>
+      <c r="K12" s="50"/>
+      <c r="L12" s="50"/>
+      <c r="M12" s="22"/>
+      <c r="N12" s="22"/>
+      <c r="O12" s="22"/>
+      <c r="P12" s="26"/>
     </row>
     <row r="13" spans="1:16">
-      <c r="A13" s="43"/>
-      <c r="B13" s="44"/>
-      <c r="C13" s="45"/>
-      <c r="D13" s="46"/>
-      <c r="E13" s="46"/>
-      <c r="F13" s="47"/>
-      <c r="G13" s="47"/>
-      <c r="H13" s="47"/>
-      <c r="I13" s="47"/>
-      <c r="J13" s="47"/>
-      <c r="K13" s="47"/>
-      <c r="L13" s="47"/>
-      <c r="M13" s="46"/>
-      <c r="N13" s="46"/>
-      <c r="O13" s="46"/>
-      <c r="P13" s="48"/>
+      <c r="A13" s="31"/>
+      <c r="B13" s="32"/>
+      <c r="C13" s="33"/>
+      <c r="D13" s="34"/>
+      <c r="E13" s="34"/>
+      <c r="F13" s="35"/>
+      <c r="G13" s="35"/>
+      <c r="H13" s="35"/>
+      <c r="I13" s="35"/>
+      <c r="J13" s="35"/>
+      <c r="K13" s="35"/>
+      <c r="L13" s="35"/>
+      <c r="M13" s="34"/>
+      <c r="N13" s="34"/>
+      <c r="O13" s="34"/>
+      <c r="P13" s="36"/>
     </row>
     <row r="14" spans="1:16">
-      <c r="A14" s="18"/>
-      <c r="B14" s="19"/>
-      <c r="C14" s="19"/>
-      <c r="D14" s="18"/>
+      <c r="A14" s="17"/>
+      <c r="B14" s="18"/>
+      <c r="C14" s="18"/>
+      <c r="D14" s="17"/>
     </row>
     <row r="15" spans="1:16">
-      <c r="A15" t="s">
+      <c r="A15" s="57" t="s">
         <v>13</v>
       </c>
     </row>
+    <row r="16" spans="1:16">
+      <c r="A16" s="57"/>
+    </row>
     <row r="17" spans="1:1">
-      <c r="A17" t="s">
+      <c r="A17" s="57" t="s">
         <v>8</v>
       </c>
     </row>
@@ -1456,7 +1477,7 @@
   <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="15.75"/>
@@ -1478,7 +1499,7 @@
         <v>5</v>
       </c>
       <c r="B1" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -1486,7 +1507,7 @@
         <v>4</v>
       </c>
       <c r="B2" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -1529,14 +1550,24 @@
         <v>78</v>
       </c>
       <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
+      <c r="E6" s="1" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="7" spans="1:5">
-      <c r="A7" s="3"/>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
+      <c r="A7" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>80</v>
+      </c>
       <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
+      <c r="E7" s="1" t="s">
+        <v>56</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -1551,492 +1582,492 @@
   <dimension ref="A1:K16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K5" sqref="K5"/>
+      <selection activeCell="M7" sqref="M7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="6.88671875" style="7" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.33203125" style="7" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.5546875" style="7" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.77734375" style="7" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.44140625" style="7" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.5546875" style="7" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.44140625" style="7" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.88671875" style="7" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.5546875" style="7" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.44140625" style="7" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.21875" style="7" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="8.88671875" style="7"/>
+    <col min="1" max="1" width="6.88671875" style="6" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.33203125" style="6" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.5546875" style="6" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.77734375" style="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.44140625" style="6" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.5546875" style="6" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.44140625" style="6" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.88671875" style="6" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.5546875" style="6" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.44140625" style="6" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.21875" style="6" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="8.88671875" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="6" customFormat="1" ht="18" customHeight="1">
-      <c r="A1" s="8" t="s">
+    <row r="1" spans="1:11" s="5" customFormat="1" ht="18" customHeight="1">
+      <c r="A1" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="D1" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="E1" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="F1" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="G1" s="8" t="s">
+      <c r="G1" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="H1" s="8" t="s">
+      <c r="H1" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="I1" s="8" t="s">
+      <c r="I1" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="J1" s="8" t="s">
+      <c r="J1" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="K1" s="8" t="s">
+      <c r="K1" s="7" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="18" customHeight="1">
-      <c r="A2" s="9">
+      <c r="A2" s="8">
         <v>1</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="C2" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="D2" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="E2" s="15" t="s">
+      <c r="E2" s="14" t="s">
         <v>58</v>
       </c>
-      <c r="F2" s="15" t="s">
+      <c r="F2" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="G2" s="15" t="s">
+      <c r="G2" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="H2" s="9"/>
-      <c r="I2" s="9"/>
-      <c r="J2" s="9"/>
-      <c r="K2" s="15" t="s">
+      <c r="H2" s="8"/>
+      <c r="I2" s="8"/>
+      <c r="J2" s="8"/>
+      <c r="K2" s="14" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="18" customHeight="1">
-      <c r="A3" s="9">
+      <c r="A3" s="8">
         <v>1</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="C3" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="D3" s="9" t="s">
+      <c r="D3" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="E3" s="15" t="s">
+      <c r="E3" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="F3" s="15" t="s">
+      <c r="F3" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="G3" s="15" t="s">
+      <c r="G3" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="H3" s="9"/>
-      <c r="I3" s="9"/>
-      <c r="J3" s="9"/>
-      <c r="K3" s="15" t="s">
+      <c r="H3" s="8"/>
+      <c r="I3" s="8"/>
+      <c r="J3" s="8"/>
+      <c r="K3" s="14" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="18" customHeight="1">
-      <c r="A4" s="9">
+      <c r="A4" s="8">
         <v>1</v>
       </c>
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="C4" s="9" t="s">
+      <c r="C4" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="D4" s="9" t="s">
+      <c r="D4" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="E4" s="15" t="s">
+      <c r="E4" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="F4" s="15" t="s">
+      <c r="F4" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="G4" s="15" t="s">
+      <c r="G4" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="H4" s="9"/>
-      <c r="I4" s="9"/>
-      <c r="J4" s="9"/>
-      <c r="K4" s="15" t="s">
+      <c r="H4" s="8"/>
+      <c r="I4" s="8"/>
+      <c r="J4" s="8"/>
+      <c r="K4" s="14" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="18" customHeight="1">
-      <c r="A5" s="9">
+      <c r="A5" s="8">
         <v>1</v>
       </c>
-      <c r="B5" s="9" t="s">
+      <c r="B5" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="C5" s="9" t="s">
+      <c r="C5" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="D5" s="9" t="s">
+      <c r="D5" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="E5" s="9"/>
-      <c r="F5" s="9"/>
-      <c r="G5" s="9"/>
-      <c r="H5" s="16" t="s">
+      <c r="E5" s="8"/>
+      <c r="F5" s="8"/>
+      <c r="G5" s="8"/>
+      <c r="H5" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="I5" s="16" t="s">
+      <c r="I5" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="J5" s="16" t="s">
+      <c r="J5" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="K5" s="16" t="s">
+      <c r="K5" s="15" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="18" customHeight="1">
-      <c r="A6" s="9">
+      <c r="A6" s="8">
         <v>1</v>
       </c>
-      <c r="B6" s="9" t="s">
+      <c r="B6" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="C6" s="9" t="s">
+      <c r="C6" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="D6" s="9" t="s">
+      <c r="D6" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="E6" s="9"/>
-      <c r="F6" s="9"/>
-      <c r="G6" s="9"/>
-      <c r="H6" s="16" t="s">
+      <c r="E6" s="8"/>
+      <c r="F6" s="8"/>
+      <c r="G6" s="8"/>
+      <c r="H6" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="I6" s="16" t="s">
+      <c r="I6" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="J6" s="16" t="s">
+      <c r="J6" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="K6" s="16" t="s">
+      <c r="K6" s="15" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="18" customHeight="1">
-      <c r="A7" s="12" t="s">
+      <c r="A7" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="B7" s="12" t="s">
+      <c r="B7" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="C7" s="12" t="s">
+      <c r="C7" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="D7" s="12" t="s">
+      <c r="D7" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="E7" s="11" t="s">
+      <c r="E7" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="F7" s="11" t="s">
+      <c r="F7" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="G7" s="11" t="s">
+      <c r="G7" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="H7" s="12"/>
-      <c r="I7" s="12"/>
-      <c r="J7" s="12"/>
-      <c r="K7" s="11" t="s">
+      <c r="H7" s="11"/>
+      <c r="I7" s="11"/>
+      <c r="J7" s="11"/>
+      <c r="K7" s="10" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="18" customHeight="1">
-      <c r="A8" s="12" t="s">
+      <c r="A8" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="B8" s="12" t="s">
+      <c r="B8" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="C8" s="12" t="s">
+      <c r="C8" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="D8" s="12" t="s">
+      <c r="D8" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="E8" s="11" t="s">
+      <c r="E8" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="F8" s="11" t="s">
+      <c r="F8" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="G8" s="11" t="s">
+      <c r="G8" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="H8" s="12"/>
-      <c r="I8" s="12"/>
-      <c r="J8" s="12"/>
-      <c r="K8" s="11" t="s">
+      <c r="H8" s="11"/>
+      <c r="I8" s="11"/>
+      <c r="J8" s="11"/>
+      <c r="K8" s="10" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="18" customHeight="1">
-      <c r="A9" s="12" t="s">
+      <c r="A9" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="B9" s="12" t="s">
+      <c r="B9" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="C9" s="12" t="s">
+      <c r="C9" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="D9" s="12" t="s">
+      <c r="D9" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="E9" s="11" t="s">
+      <c r="E9" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="F9" s="11" t="s">
+      <c r="F9" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="G9" s="11" t="s">
+      <c r="G9" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="H9" s="12"/>
-      <c r="I9" s="12"/>
-      <c r="J9" s="12"/>
-      <c r="K9" s="11" t="s">
+      <c r="H9" s="11"/>
+      <c r="I9" s="11"/>
+      <c r="J9" s="11"/>
+      <c r="K9" s="10" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="18" customHeight="1">
-      <c r="A10" s="12" t="s">
+      <c r="A10" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="B10" s="12" t="s">
+      <c r="B10" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="C10" s="12" t="s">
+      <c r="C10" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="D10" s="12" t="s">
+      <c r="D10" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="E10" s="12"/>
-      <c r="F10" s="12"/>
-      <c r="G10" s="12"/>
-      <c r="H10" s="13" t="s">
+      <c r="E10" s="11"/>
+      <c r="F10" s="11"/>
+      <c r="G10" s="11"/>
+      <c r="H10" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="I10" s="13" t="s">
+      <c r="I10" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="J10" s="13" t="s">
+      <c r="J10" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="K10" s="13" t="s">
+      <c r="K10" s="12" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="18" customHeight="1">
-      <c r="A11" s="12" t="s">
+      <c r="A11" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="B11" s="12" t="s">
+      <c r="B11" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="C11" s="12" t="s">
+      <c r="C11" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="D11" s="12" t="s">
+      <c r="D11" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="E11" s="12"/>
-      <c r="F11" s="12"/>
-      <c r="G11" s="12"/>
-      <c r="H11" s="13" t="s">
+      <c r="E11" s="11"/>
+      <c r="F11" s="11"/>
+      <c r="G11" s="11"/>
+      <c r="H11" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="I11" s="13" t="s">
+      <c r="I11" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="J11" s="13" t="s">
+      <c r="J11" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="K11" s="13" t="s">
+      <c r="K11" s="12" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="18" customHeight="1">
-      <c r="A12" s="14" t="s">
+      <c r="A12" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="B12" s="14" t="s">
+      <c r="B12" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="C12" s="14" t="s">
+      <c r="C12" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="D12" s="14" t="s">
+      <c r="D12" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="E12" s="10" t="s">
+      <c r="E12" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="F12" s="10" t="s">
+      <c r="F12" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="G12" s="10" t="s">
+      <c r="G12" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="H12" s="14"/>
-      <c r="I12" s="14"/>
-      <c r="J12" s="14"/>
-      <c r="K12" s="10" t="s">
+      <c r="H12" s="13"/>
+      <c r="I12" s="13"/>
+      <c r="J12" s="13"/>
+      <c r="K12" s="9" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="18" customHeight="1">
-      <c r="A13" s="14" t="s">
+      <c r="A13" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="B13" s="14" t="s">
+      <c r="B13" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="C13" s="14" t="s">
+      <c r="C13" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="D13" s="14" t="s">
+      <c r="D13" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="E13" s="10" t="s">
+      <c r="E13" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="F13" s="10" t="s">
+      <c r="F13" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="G13" s="10" t="s">
+      <c r="G13" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="H13" s="14"/>
-      <c r="I13" s="14"/>
-      <c r="J13" s="14"/>
-      <c r="K13" s="10" t="s">
+      <c r="H13" s="13"/>
+      <c r="I13" s="13"/>
+      <c r="J13" s="13"/>
+      <c r="K13" s="9" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="14" spans="1:11" ht="18" customHeight="1">
-      <c r="A14" s="14" t="s">
+      <c r="A14" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="B14" s="14" t="s">
+      <c r="B14" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="C14" s="14" t="s">
+      <c r="C14" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="D14" s="14" t="s">
+      <c r="D14" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="E14" s="10" t="s">
+      <c r="E14" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="F14" s="10" t="s">
+      <c r="F14" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="G14" s="10" t="s">
+      <c r="G14" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="H14" s="14"/>
-      <c r="I14" s="14"/>
-      <c r="J14" s="14"/>
-      <c r="K14" s="10" t="s">
+      <c r="H14" s="13"/>
+      <c r="I14" s="13"/>
+      <c r="J14" s="13"/>
+      <c r="K14" s="9" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="15" spans="1:11" ht="18" customHeight="1">
-      <c r="A15" s="14" t="s">
+      <c r="A15" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="B15" s="14" t="s">
+      <c r="B15" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="C15" s="14" t="s">
+      <c r="C15" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="D15" s="14" t="s">
+      <c r="D15" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="E15" s="14"/>
-      <c r="F15" s="14"/>
-      <c r="G15" s="14"/>
-      <c r="H15" s="17" t="s">
+      <c r="E15" s="13"/>
+      <c r="F15" s="13"/>
+      <c r="G15" s="13"/>
+      <c r="H15" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="I15" s="17" t="s">
+      <c r="I15" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="J15" s="17" t="s">
+      <c r="J15" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="K15" s="17" t="s">
+      <c r="K15" s="16" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="16" spans="1:11" ht="18" customHeight="1">
-      <c r="A16" s="14" t="s">
+      <c r="A16" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="B16" s="14" t="s">
+      <c r="B16" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="C16" s="14" t="s">
+      <c r="C16" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="D16" s="14" t="s">
+      <c r="D16" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="E16" s="14"/>
-      <c r="F16" s="14"/>
-      <c r="G16" s="14"/>
-      <c r="H16" s="17" t="s">
+      <c r="E16" s="13"/>
+      <c r="F16" s="13"/>
+      <c r="G16" s="13"/>
+      <c r="H16" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="I16" s="17" t="s">
+      <c r="I16" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="J16" s="17" t="s">
+      <c r="J16" s="16" t="s">
         <v>53</v>
       </c>
-      <c r="K16" s="17" t="s">
+      <c r="K16" s="16" t="s">
         <v>56</v>
       </c>
     </row>

--- a/template-equivalent-tables.xlsx
+++ b/template-equivalent-tables.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="5175" yWindow="1800" windowWidth="28035" windowHeight="17445" activeTab="1"/>
+    <workbookView xWindow="5175" yWindow="1800" windowWidth="28035" windowHeight="17445"/>
   </bookViews>
   <sheets>
     <sheet name="Report" sheetId="1" r:id="rId1"/>
@@ -160,7 +160,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1188" uniqueCount="176">
   <si>
     <t>range_1</t>
   </si>
@@ -402,7 +402,292 @@
     <t>F12</t>
   </si>
   <si>
-    <t>J12</t>
+    <t>SHARE_STATUS</t>
+  </si>
+  <si>
+    <t>48</t>
+  </si>
+  <si>
+    <t>300</t>
+  </si>
+  <si>
+    <t>400</t>
+  </si>
+  <si>
+    <t>SHARE_STATUS_VOLUME</t>
+  </si>
+  <si>
+    <t>SHARE_FREE</t>
+  </si>
+  <si>
+    <t>SHARE_BLOCK</t>
+  </si>
+  <si>
+    <t>FREE</t>
+  </si>
+  <si>
+    <t>BLOCK</t>
+  </si>
+  <si>
+    <t>250</t>
+  </si>
+  <si>
+    <t>750</t>
+  </si>
+  <si>
+    <t>INDEX_TABLE_EXCEL_SUB</t>
+  </si>
+  <si>
+    <t>SUB_01</t>
+  </si>
+  <si>
+    <t>SUB_02</t>
+  </si>
+  <si>
+    <t>INDEX_TABLE_EXCEL|TABLE_01</t>
+  </si>
+  <si>
+    <t>INDEX_TABLE_EXCEL|TABLE_02</t>
+  </si>
+  <si>
+    <t>range_2</t>
+  </si>
+  <si>
+    <t>Trạng thái</t>
+  </si>
+  <si>
+    <t>&lt;#table.SHARE_STATUS&gt;</t>
+  </si>
+  <si>
+    <t>&lt;#table.SHARE_STATUS_VOLUME&gt;</t>
+  </si>
+  <si>
+    <t>H12</t>
+  </si>
+  <si>
+    <t>F15</t>
+  </si>
+  <si>
+    <t>H15</t>
+  </si>
+  <si>
+    <t>INDEX_TABLE_EXCEL_SUB|SUB_01</t>
+  </si>
+  <si>
+    <t>INDEX_TABLE_EXCEL_SUB|SUB_02</t>
+  </si>
+  <si>
+    <t>A02</t>
+  </si>
+  <si>
+    <t>A48</t>
+  </si>
+  <si>
+    <t>STT</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>17</t>
+  </si>
+  <si>
+    <t>18</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>21</t>
+  </si>
+  <si>
+    <t>22</t>
+  </si>
+  <si>
+    <t>23</t>
+  </si>
+  <si>
+    <t>24</t>
+  </si>
+  <si>
+    <t>25</t>
+  </si>
+  <si>
+    <t>26</t>
+  </si>
+  <si>
+    <t>27</t>
+  </si>
+  <si>
+    <t>28</t>
+  </si>
+  <si>
+    <t>29</t>
+  </si>
+  <si>
+    <t>30</t>
+  </si>
+  <si>
+    <t>31</t>
+  </si>
+  <si>
+    <t>32</t>
+  </si>
+  <si>
+    <t>33</t>
+  </si>
+  <si>
+    <t>34</t>
+  </si>
+  <si>
+    <t>35</t>
+  </si>
+  <si>
+    <t>36</t>
+  </si>
+  <si>
+    <t>37</t>
+  </si>
+  <si>
+    <t>38</t>
+  </si>
+  <si>
+    <t>39</t>
+  </si>
+  <si>
+    <t>40</t>
+  </si>
+  <si>
+    <t>41</t>
+  </si>
+  <si>
+    <t>42</t>
+  </si>
+  <si>
+    <t>DAY</t>
+  </si>
+  <si>
+    <t>BALANCE</t>
+  </si>
+  <si>
+    <t>11/12/2022</t>
+  </si>
+  <si>
+    <t>11/12/2023</t>
+  </si>
+  <si>
+    <t>11/12/2024</t>
+  </si>
+  <si>
+    <t>120041</t>
+  </si>
+  <si>
+    <t>265410</t>
+  </si>
+  <si>
+    <t>6584</t>
+  </si>
+  <si>
+    <t>987984</t>
+  </si>
+  <si>
+    <t>8784</t>
+  </si>
+  <si>
+    <t>9879861</t>
+  </si>
+  <si>
+    <t>43</t>
+  </si>
+  <si>
+    <t>44</t>
+  </si>
+  <si>
+    <t>45</t>
+  </si>
+  <si>
+    <t>46</t>
+  </si>
+  <si>
+    <t>47</t>
+  </si>
+  <si>
+    <t>49</t>
+  </si>
+  <si>
+    <t>50</t>
+  </si>
+  <si>
+    <t>51</t>
+  </si>
+  <si>
+    <t>52</t>
+  </si>
+  <si>
+    <t>53</t>
+  </si>
+  <si>
+    <t>54</t>
+  </si>
+  <si>
+    <t>F19</t>
+  </si>
+  <si>
+    <t>J19</t>
+  </si>
+  <si>
+    <t>Ngày</t>
+  </si>
+  <si>
+    <t>&lt;#table.BALANCE&gt;</t>
+  </si>
+  <si>
+    <t>J21</t>
+  </si>
+  <si>
+    <t>&lt;#table.DAY&gt;</t>
+  </si>
+  <si>
+    <t>H21</t>
   </si>
 </sst>
 </file>
@@ -559,7 +844,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="14">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -705,22 +990,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="59">
+  <cellXfs count="73">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -803,9 +1077,11 @@
     <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="49" fontId="8" fillId="12" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -842,15 +1118,6 @@
     <xf numFmtId="3" fontId="8" fillId="12" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -860,8 +1127,55 @@
     <xf numFmtId="0" fontId="2" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="8" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="8" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="8" fillId="12" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="12" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="8" fillId="12" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="12" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="8" fillId="12" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="8" fillId="12" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="8" fillId="12" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="7" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="8" fillId="12" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1205,10 +1519,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P17"/>
+  <dimension ref="A1:P26"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="V13" sqref="V13"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="W12" sqref="W12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.88671875" defaultRowHeight="15"/>
@@ -1217,15 +1531,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16">
-      <c r="A1" s="57" t="s">
+      <c r="A1" s="39" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:16">
-      <c r="A2" s="57"/>
+      <c r="A2" s="39"/>
     </row>
     <row r="3" spans="1:16">
-      <c r="A3" s="58" t="s">
+      <c r="A3" s="40" t="s">
         <v>12</v>
       </c>
     </row>
@@ -1233,53 +1547,53 @@
       <c r="A5" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="39" t="s">
+      <c r="B5" s="41" t="s">
         <v>60</v>
       </c>
-      <c r="C5" s="39"/>
-      <c r="D5" s="39"/>
-      <c r="E5" s="39"/>
-      <c r="F5" s="39" t="s">
+      <c r="C5" s="41"/>
+      <c r="D5" s="41"/>
+      <c r="E5" s="41"/>
+      <c r="F5" s="41" t="s">
         <v>61</v>
       </c>
-      <c r="G5" s="39"/>
-      <c r="H5" s="39"/>
-      <c r="I5" s="39"/>
-      <c r="J5" s="39"/>
-      <c r="K5" s="39" t="s">
+      <c r="G5" s="41"/>
+      <c r="H5" s="41"/>
+      <c r="I5" s="41"/>
+      <c r="J5" s="41"/>
+      <c r="K5" s="41" t="s">
         <v>62</v>
       </c>
-      <c r="L5" s="39"/>
-      <c r="M5" s="39"/>
-      <c r="N5" s="39"/>
-      <c r="O5" s="39"/>
-      <c r="P5" s="39"/>
+      <c r="L5" s="41"/>
+      <c r="M5" s="41"/>
+      <c r="N5" s="41"/>
+      <c r="O5" s="41"/>
+      <c r="P5" s="41"/>
     </row>
     <row r="6" spans="1:16">
       <c r="A6" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="40" t="s">
+      <c r="B6" s="42" t="s">
         <v>74</v>
       </c>
-      <c r="C6" s="41"/>
-      <c r="D6" s="41"/>
-      <c r="E6" s="42"/>
-      <c r="F6" s="40" t="s">
+      <c r="C6" s="43"/>
+      <c r="D6" s="43"/>
+      <c r="E6" s="44"/>
+      <c r="F6" s="42" t="s">
         <v>75</v>
       </c>
-      <c r="G6" s="41"/>
-      <c r="H6" s="41"/>
-      <c r="I6" s="41"/>
-      <c r="J6" s="42"/>
-      <c r="K6" s="40" t="s">
+      <c r="G6" s="43"/>
+      <c r="H6" s="43"/>
+      <c r="I6" s="43"/>
+      <c r="J6" s="44"/>
+      <c r="K6" s="42" t="s">
         <v>76</v>
       </c>
-      <c r="L6" s="41"/>
-      <c r="M6" s="41"/>
-      <c r="N6" s="41"/>
-      <c r="O6" s="41"/>
-      <c r="P6" s="42"/>
+      <c r="L6" s="43"/>
+      <c r="M6" s="43"/>
+      <c r="N6" s="43"/>
+      <c r="O6" s="43"/>
+      <c r="P6" s="44"/>
     </row>
     <row r="7" spans="1:16">
       <c r="A7" s="20"/>
@@ -1305,18 +1619,18 @@
       <c r="C8" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="D8" s="54" t="s">
+      <c r="D8" s="53" t="s">
         <v>63</v>
       </c>
-      <c r="E8" s="55"/>
-      <c r="F8" s="56"/>
-      <c r="G8" s="54" t="s">
+      <c r="E8" s="54"/>
+      <c r="F8" s="55"/>
+      <c r="G8" s="41" t="s">
         <v>64</v>
       </c>
-      <c r="H8" s="55"/>
-      <c r="I8" s="56"/>
-      <c r="J8" s="21"/>
-      <c r="K8" s="23"/>
+      <c r="H8" s="41"/>
+      <c r="I8" s="41"/>
+      <c r="J8" s="41"/>
+      <c r="K8" s="41"/>
       <c r="L8" s="23"/>
       <c r="M8" s="23"/>
       <c r="N8" s="23"/>
@@ -1329,18 +1643,18 @@
       <c r="C9" s="27" t="s">
         <v>67</v>
       </c>
-      <c r="D9" s="47" t="s">
+      <c r="D9" s="49" t="s">
         <v>69</v>
       </c>
-      <c r="E9" s="48"/>
-      <c r="F9" s="49"/>
-      <c r="G9" s="44" t="s">
+      <c r="E9" s="50"/>
+      <c r="F9" s="51"/>
+      <c r="G9" s="52" t="s">
         <v>70</v>
       </c>
-      <c r="H9" s="45"/>
-      <c r="I9" s="46"/>
-      <c r="J9" s="22"/>
-      <c r="K9" s="23"/>
+      <c r="H9" s="52"/>
+      <c r="I9" s="52"/>
+      <c r="J9" s="52"/>
+      <c r="K9" s="52"/>
       <c r="L9" s="23"/>
       <c r="M9" s="23"/>
       <c r="N9" s="23"/>
@@ -1350,15 +1664,15 @@
     <row r="10" spans="1:16">
       <c r="A10" s="25"/>
       <c r="B10" s="21"/>
-      <c r="C10" s="21"/>
-      <c r="D10" s="28"/>
-      <c r="E10" s="22"/>
-      <c r="F10" s="22"/>
-      <c r="G10" s="22"/>
-      <c r="H10" s="22"/>
-      <c r="I10" s="22"/>
-      <c r="J10" s="22"/>
-      <c r="K10" s="23"/>
+      <c r="C10" s="19"/>
+      <c r="D10" s="59"/>
+      <c r="E10" s="59"/>
+      <c r="F10" s="59"/>
+      <c r="G10" s="60"/>
+      <c r="H10" s="60"/>
+      <c r="I10" s="60"/>
+      <c r="J10" s="61"/>
+      <c r="K10" s="24"/>
       <c r="L10" s="23"/>
       <c r="M10" s="23"/>
       <c r="N10" s="23"/>
@@ -1368,22 +1682,22 @@
     <row r="11" spans="1:16">
       <c r="A11" s="25"/>
       <c r="B11" s="21"/>
-      <c r="C11" s="29"/>
-      <c r="D11" s="23"/>
-      <c r="E11" s="23"/>
-      <c r="F11" s="38" t="s">
+      <c r="C11" s="64"/>
+      <c r="D11" s="56"/>
+      <c r="E11" s="66" t="s">
         <v>9</v>
       </c>
-      <c r="G11" s="51" t="s">
-        <v>65</v>
-      </c>
-      <c r="H11" s="52"/>
-      <c r="I11" s="53"/>
-      <c r="J11" s="51" t="s">
-        <v>66</v>
-      </c>
-      <c r="K11" s="52"/>
-      <c r="L11" s="53"/>
+      <c r="F11" s="67" t="s">
+        <v>97</v>
+      </c>
+      <c r="G11" s="67"/>
+      <c r="H11" s="68" t="s">
+        <v>64</v>
+      </c>
+      <c r="I11" s="68"/>
+      <c r="J11" s="68"/>
+      <c r="K11" s="26"/>
+      <c r="L11" s="23"/>
       <c r="M11" s="23"/>
       <c r="N11" s="23"/>
       <c r="O11" s="23"/>
@@ -1392,80 +1706,282 @@
     <row r="12" spans="1:16">
       <c r="A12" s="25"/>
       <c r="B12" s="21"/>
-      <c r="C12" s="30"/>
-      <c r="D12" s="22"/>
-      <c r="E12" s="22"/>
-      <c r="F12" s="27" t="s">
+      <c r="C12" s="64"/>
+      <c r="D12" s="56"/>
+      <c r="E12" s="38"/>
+      <c r="F12" s="49" t="s">
+        <v>98</v>
+      </c>
+      <c r="G12" s="51"/>
+      <c r="H12" s="46" t="s">
+        <v>99</v>
+      </c>
+      <c r="I12" s="47"/>
+      <c r="J12" s="48"/>
+      <c r="K12" s="26"/>
+      <c r="L12" s="23"/>
+      <c r="M12" s="23"/>
+      <c r="N12" s="23"/>
+      <c r="O12" s="23"/>
+      <c r="P12" s="26"/>
+    </row>
+    <row r="13" spans="1:16">
+      <c r="A13" s="25"/>
+      <c r="B13" s="21"/>
+      <c r="C13" s="64"/>
+      <c r="D13" s="56"/>
+      <c r="E13" s="56"/>
+      <c r="F13" s="56"/>
+      <c r="G13" s="57"/>
+      <c r="H13" s="57"/>
+      <c r="I13" s="57"/>
+      <c r="J13" s="22"/>
+      <c r="K13" s="26"/>
+      <c r="L13" s="23"/>
+      <c r="M13" s="23"/>
+      <c r="N13" s="23"/>
+      <c r="O13" s="23"/>
+      <c r="P13" s="26"/>
+    </row>
+    <row r="14" spans="1:16">
+      <c r="A14" s="25"/>
+      <c r="B14" s="21"/>
+      <c r="C14" s="64"/>
+      <c r="D14" s="56"/>
+      <c r="E14" s="66" t="s">
+        <v>9</v>
+      </c>
+      <c r="F14" s="67" t="s">
+        <v>97</v>
+      </c>
+      <c r="G14" s="67"/>
+      <c r="H14" s="68" t="s">
+        <v>64</v>
+      </c>
+      <c r="I14" s="68"/>
+      <c r="J14" s="68"/>
+      <c r="K14" s="26"/>
+      <c r="L14" s="23"/>
+      <c r="M14" s="23"/>
+      <c r="N14" s="23"/>
+      <c r="O14" s="23"/>
+      <c r="P14" s="26"/>
+    </row>
+    <row r="15" spans="1:16">
+      <c r="A15" s="25"/>
+      <c r="B15" s="21"/>
+      <c r="C15" s="64"/>
+      <c r="D15" s="56"/>
+      <c r="E15" s="38"/>
+      <c r="F15" s="49" t="s">
+        <v>98</v>
+      </c>
+      <c r="G15" s="51"/>
+      <c r="H15" s="46" t="s">
+        <v>99</v>
+      </c>
+      <c r="I15" s="47"/>
+      <c r="J15" s="48"/>
+      <c r="K15" s="26"/>
+      <c r="L15" s="23"/>
+      <c r="M15" s="23"/>
+      <c r="N15" s="23"/>
+      <c r="O15" s="23"/>
+      <c r="P15" s="26"/>
+    </row>
+    <row r="16" spans="1:16">
+      <c r="A16" s="25"/>
+      <c r="B16" s="21"/>
+      <c r="C16" s="65"/>
+      <c r="D16" s="62"/>
+      <c r="E16" s="62"/>
+      <c r="F16" s="62"/>
+      <c r="G16" s="63"/>
+      <c r="H16" s="63"/>
+      <c r="I16" s="63"/>
+      <c r="J16" s="34"/>
+      <c r="K16" s="36"/>
+      <c r="L16" s="23"/>
+      <c r="M16" s="23"/>
+      <c r="N16" s="23"/>
+      <c r="O16" s="23"/>
+      <c r="P16" s="26"/>
+    </row>
+    <row r="17" spans="1:16">
+      <c r="A17" s="25"/>
+      <c r="B17" s="21"/>
+      <c r="C17" s="21"/>
+      <c r="D17" s="28"/>
+      <c r="E17" s="22"/>
+      <c r="F17" s="22"/>
+      <c r="G17" s="22"/>
+      <c r="H17" s="22"/>
+      <c r="I17" s="22"/>
+      <c r="J17" s="22"/>
+      <c r="K17" s="23"/>
+      <c r="L17" s="23"/>
+      <c r="M17" s="23"/>
+      <c r="N17" s="23"/>
+      <c r="O17" s="23"/>
+      <c r="P17" s="26"/>
+    </row>
+    <row r="18" spans="1:16">
+      <c r="A18" s="25"/>
+      <c r="B18" s="21"/>
+      <c r="C18" s="29"/>
+      <c r="D18" s="23"/>
+      <c r="E18" s="23"/>
+      <c r="F18" s="37" t="s">
+        <v>9</v>
+      </c>
+      <c r="G18" s="41" t="s">
+        <v>65</v>
+      </c>
+      <c r="H18" s="41"/>
+      <c r="I18" s="41"/>
+      <c r="J18" s="41" t="s">
+        <v>66</v>
+      </c>
+      <c r="K18" s="41"/>
+      <c r="L18" s="41"/>
+      <c r="M18" s="23"/>
+      <c r="N18" s="23"/>
+      <c r="O18" s="23"/>
+      <c r="P18" s="26"/>
+    </row>
+    <row r="19" spans="1:16">
+      <c r="A19" s="25"/>
+      <c r="B19" s="21"/>
+      <c r="C19" s="30"/>
+      <c r="D19" s="22"/>
+      <c r="E19" s="22"/>
+      <c r="F19" s="27" t="s">
         <v>68</v>
       </c>
-      <c r="G12" s="43" t="s">
+      <c r="G19" s="45" t="s">
         <v>71</v>
       </c>
-      <c r="H12" s="43"/>
-      <c r="I12" s="43"/>
-      <c r="J12" s="50" t="s">
+      <c r="H19" s="45"/>
+      <c r="I19" s="45"/>
+      <c r="J19" s="52" t="s">
         <v>72</v>
       </c>
-      <c r="K12" s="50"/>
-      <c r="L12" s="50"/>
-      <c r="M12" s="22"/>
-      <c r="N12" s="22"/>
-      <c r="O12" s="22"/>
-      <c r="P12" s="26"/>
-    </row>
-    <row r="13" spans="1:16">
-      <c r="A13" s="31"/>
-      <c r="B13" s="32"/>
-      <c r="C13" s="33"/>
-      <c r="D13" s="34"/>
-      <c r="E13" s="34"/>
-      <c r="F13" s="35"/>
-      <c r="G13" s="35"/>
-      <c r="H13" s="35"/>
-      <c r="I13" s="35"/>
-      <c r="J13" s="35"/>
-      <c r="K13" s="35"/>
-      <c r="L13" s="35"/>
-      <c r="M13" s="34"/>
-      <c r="N13" s="34"/>
-      <c r="O13" s="34"/>
-      <c r="P13" s="36"/>
-    </row>
-    <row r="14" spans="1:16">
-      <c r="A14" s="17"/>
-      <c r="B14" s="18"/>
-      <c r="C14" s="18"/>
-      <c r="D14" s="17"/>
-    </row>
-    <row r="15" spans="1:16">
-      <c r="A15" s="57" t="s">
+      <c r="K19" s="52"/>
+      <c r="L19" s="52"/>
+      <c r="M19" s="22"/>
+      <c r="N19" s="22"/>
+      <c r="O19" s="22"/>
+      <c r="P19" s="26"/>
+    </row>
+    <row r="20" spans="1:16">
+      <c r="A20" s="25"/>
+      <c r="B20" s="21"/>
+      <c r="C20" s="30"/>
+      <c r="D20" s="22"/>
+      <c r="E20" s="22"/>
+      <c r="F20" s="71"/>
+      <c r="G20" s="70"/>
+      <c r="H20" s="41" t="s">
+        <v>171</v>
+      </c>
+      <c r="I20" s="41"/>
+      <c r="J20" s="41" t="s">
+        <v>66</v>
+      </c>
+      <c r="K20" s="41"/>
+      <c r="L20" s="41"/>
+      <c r="M20" s="22"/>
+      <c r="N20" s="22"/>
+      <c r="O20" s="22"/>
+      <c r="P20" s="26"/>
+    </row>
+    <row r="21" spans="1:16">
+      <c r="A21" s="25"/>
+      <c r="B21" s="21"/>
+      <c r="C21" s="30"/>
+      <c r="D21" s="22"/>
+      <c r="E21" s="22"/>
+      <c r="F21" s="72"/>
+      <c r="G21" s="34"/>
+      <c r="H21" s="58" t="s">
+        <v>174</v>
+      </c>
+      <c r="I21" s="69"/>
+      <c r="J21" s="52" t="s">
+        <v>172</v>
+      </c>
+      <c r="K21" s="52"/>
+      <c r="L21" s="52"/>
+      <c r="M21" s="22"/>
+      <c r="N21" s="22"/>
+      <c r="O21" s="22"/>
+      <c r="P21" s="26"/>
+    </row>
+    <row r="22" spans="1:16">
+      <c r="A22" s="31"/>
+      <c r="B22" s="32"/>
+      <c r="C22" s="33"/>
+      <c r="D22" s="34"/>
+      <c r="E22" s="34"/>
+      <c r="F22" s="35"/>
+      <c r="G22" s="35"/>
+      <c r="H22" s="35"/>
+      <c r="I22" s="35"/>
+      <c r="J22" s="35"/>
+      <c r="K22" s="35"/>
+      <c r="L22" s="35"/>
+      <c r="M22" s="34"/>
+      <c r="N22" s="34"/>
+      <c r="O22" s="34"/>
+      <c r="P22" s="36"/>
+    </row>
+    <row r="23" spans="1:16">
+      <c r="A23" s="17"/>
+      <c r="B23" s="18"/>
+      <c r="C23" s="18"/>
+      <c r="D23" s="17"/>
+    </row>
+    <row r="24" spans="1:16">
+      <c r="A24" s="39" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:16">
-      <c r="A16" s="57"/>
-    </row>
-    <row r="17" spans="1:1">
-      <c r="A17" s="57" t="s">
+    <row r="25" spans="1:16">
+      <c r="A25" s="39"/>
+    </row>
+    <row r="26" spans="1:16">
+      <c r="A26" s="39" t="s">
         <v>8</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="14">
+  <mergeCells count="26">
+    <mergeCell ref="J21:L21"/>
+    <mergeCell ref="H21:I21"/>
+    <mergeCell ref="F15:G15"/>
+    <mergeCell ref="H15:J15"/>
+    <mergeCell ref="H20:I20"/>
+    <mergeCell ref="J20:L20"/>
+    <mergeCell ref="F11:G11"/>
+    <mergeCell ref="H11:J11"/>
+    <mergeCell ref="H12:J12"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="F14:G14"/>
+    <mergeCell ref="H14:J14"/>
     <mergeCell ref="K5:P5"/>
     <mergeCell ref="K6:P6"/>
     <mergeCell ref="F6:J6"/>
     <mergeCell ref="B6:E6"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="G19:I19"/>
     <mergeCell ref="D9:F9"/>
-    <mergeCell ref="J12:L12"/>
-    <mergeCell ref="J11:L11"/>
-    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="J19:L19"/>
+    <mergeCell ref="J18:L18"/>
+    <mergeCell ref="G18:I18"/>
     <mergeCell ref="B5:E5"/>
     <mergeCell ref="F5:J5"/>
     <mergeCell ref="D8:F8"/>
-    <mergeCell ref="G8:I8"/>
+    <mergeCell ref="G9:K9"/>
+    <mergeCell ref="G8:K8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
@@ -1474,10 +1990,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:E10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="15.75"/>
@@ -1549,25 +2065,72 @@
       <c r="C6" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="D6" s="1"/>
+      <c r="D6" s="1" t="s">
+        <v>20</v>
+      </c>
       <c r="E6" s="1" t="s">
-        <v>55</v>
+        <v>94</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="3" t="s">
-        <v>0</v>
+        <v>96</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>79</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="D7" s="1"/>
       <c r="E7" s="1" t="s">
-        <v>56</v>
-      </c>
+        <v>103</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -1579,497 +2142,4394 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K16"/>
+  <dimension ref="A1:S99"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M7" sqref="M7"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A14" sqref="A14:XFD14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="6.88671875" style="6" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.33203125" style="6" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.5546875" style="6" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.77734375" style="6" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.44140625" style="6" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.5546875" style="6" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.44140625" style="6" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.88671875" style="6" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.5546875" style="6" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.44140625" style="6" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.21875" style="6" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="8.88671875" style="6"/>
+    <col min="1" max="2" width="6.88671875" style="6" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.33203125" style="6" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.5546875" style="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.77734375" style="6" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.44140625" style="6" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.5546875" style="6" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.44140625" style="6" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.44140625" style="6" customWidth="1"/>
+    <col min="10" max="10" width="16" style="6" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="10.44140625" style="6" customWidth="1"/>
+    <col min="13" max="13" width="10.88671875" style="6" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.5546875" style="6" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10.44140625" style="6" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="10.44140625" style="6" customWidth="1"/>
+    <col min="18" max="18" width="13.21875" style="6" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="16.21875" style="6" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="8.88671875" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="5" customFormat="1" ht="18" customHeight="1">
+    <row r="1" spans="1:19" s="5" customFormat="1" ht="18" customHeight="1">
       <c r="A1" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="B1" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="C1" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="D1" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="E1" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="F1" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="G1" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="G1" s="7" t="s">
+      <c r="H1" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="H1" s="7" t="s">
+      <c r="I1" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="J1" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="K1" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="L1" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="M1" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="I1" s="7" t="s">
+      <c r="N1" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="J1" s="7" t="s">
+      <c r="O1" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="K1" s="7" t="s">
+      <c r="P1" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="Q1" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="R1" s="7" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" ht="18" customHeight="1">
-      <c r="A2" s="8">
+      <c r="S1" s="7" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" ht="18" customHeight="1">
+      <c r="A2" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="B2" s="8">
         <v>1</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="C2" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="D2" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="E2" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="E2" s="14" t="s">
+      <c r="F2" s="14" t="s">
         <v>58</v>
       </c>
-      <c r="F2" s="14" t="s">
+      <c r="G2" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="G2" s="14" t="s">
+      <c r="H2" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="H2" s="8"/>
-      <c r="I2" s="8"/>
-      <c r="J2" s="8"/>
-      <c r="K2" s="14" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" ht="18" customHeight="1">
-      <c r="A3" s="8">
+      <c r="I2" s="14" t="s">
+        <v>105</v>
+      </c>
+      <c r="J2" s="14" t="s">
+        <v>82</v>
+      </c>
+      <c r="K2" s="8"/>
+      <c r="L2" s="8"/>
+      <c r="M2" s="8"/>
+      <c r="N2" s="8"/>
+      <c r="O2" s="8"/>
+      <c r="P2" s="8"/>
+      <c r="Q2" s="8"/>
+      <c r="R2" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="S2" s="14" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" ht="18" customHeight="1">
+      <c r="A3" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="B3" s="8">
         <v>1</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="C3" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="D3" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="D3" s="8" t="s">
+      <c r="E3" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="E3" s="14" t="s">
-        <v>36</v>
-      </c>
       <c r="F3" s="14" t="s">
-        <v>28</v>
+        <v>58</v>
       </c>
       <c r="G3" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="H3" s="8"/>
-      <c r="I3" s="8"/>
-      <c r="J3" s="8"/>
-      <c r="K3" s="14" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" ht="18" customHeight="1">
-      <c r="A4" s="8">
+        <v>26</v>
+      </c>
+      <c r="H3" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="I3" s="14" t="s">
+        <v>106</v>
+      </c>
+      <c r="J3" s="14" t="s">
+        <v>83</v>
+      </c>
+      <c r="K3" s="8"/>
+      <c r="L3" s="8"/>
+      <c r="M3" s="8"/>
+      <c r="N3" s="8"/>
+      <c r="O3" s="8"/>
+      <c r="P3" s="8"/>
+      <c r="Q3" s="8"/>
+      <c r="R3" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="S3" s="14" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" ht="18" customHeight="1">
+      <c r="A4" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="B4" s="8">
         <v>1</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="C4" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="C4" s="8" t="s">
+      <c r="D4" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="D4" s="8" t="s">
+      <c r="E4" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="E4" s="14" t="s">
-        <v>45</v>
-      </c>
       <c r="F4" s="14" t="s">
-        <v>30</v>
+        <v>58</v>
       </c>
       <c r="G4" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="H4" s="8"/>
+        <v>26</v>
+      </c>
+      <c r="H4" s="14" t="s">
+        <v>27</v>
+      </c>
       <c r="I4" s="8"/>
       <c r="J4" s="8"/>
       <c r="K4" s="14" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" ht="18" customHeight="1">
-      <c r="A5" s="8">
+        <v>87</v>
+      </c>
+      <c r="L4" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="M4" s="8"/>
+      <c r="N4" s="8"/>
+      <c r="O4" s="8"/>
+      <c r="P4" s="8"/>
+      <c r="Q4" s="8"/>
+      <c r="R4" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="S4" s="14" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" ht="18" customHeight="1">
+      <c r="A5" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="B5" s="8">
         <v>1</v>
       </c>
-      <c r="B5" s="8" t="s">
+      <c r="C5" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="C5" s="8" t="s">
+      <c r="D5" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="D5" s="8" t="s">
+      <c r="E5" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="E5" s="8"/>
-      <c r="F5" s="8"/>
-      <c r="G5" s="8"/>
-      <c r="H5" s="15" t="s">
+      <c r="F5" s="14" t="s">
         <v>58</v>
       </c>
-      <c r="I5" s="15" t="s">
+      <c r="G5" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="H5" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="I5" s="8"/>
+      <c r="J5" s="8"/>
+      <c r="K5" s="14" t="s">
+        <v>88</v>
+      </c>
+      <c r="L5" s="14" t="s">
+        <v>90</v>
+      </c>
+      <c r="M5" s="8"/>
+      <c r="N5" s="8"/>
+      <c r="O5" s="8"/>
+      <c r="P5" s="8"/>
+      <c r="Q5" s="8"/>
+      <c r="R5" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="S5" s="14" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" ht="18" customHeight="1">
+      <c r="A6" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="B6" s="8">
+        <v>1</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="F6" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="G6" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="H6" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="I6" s="14" t="s">
+        <v>105</v>
+      </c>
+      <c r="J6" s="14" t="s">
+        <v>82</v>
+      </c>
+      <c r="K6" s="8"/>
+      <c r="L6" s="8"/>
+      <c r="M6" s="8"/>
+      <c r="N6" s="8"/>
+      <c r="O6" s="8"/>
+      <c r="P6" s="8"/>
+      <c r="Q6" s="8"/>
+      <c r="R6" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="S6" s="14" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" ht="18" customHeight="1">
+      <c r="A7" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="B7" s="8">
+        <v>1</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="E7" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="F7" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="G7" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="H7" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="I7" s="14" t="s">
+        <v>106</v>
+      </c>
+      <c r="J7" s="14" t="s">
+        <v>83</v>
+      </c>
+      <c r="K7" s="8"/>
+      <c r="L7" s="8"/>
+      <c r="M7" s="8"/>
+      <c r="N7" s="8"/>
+      <c r="O7" s="8"/>
+      <c r="P7" s="8"/>
+      <c r="Q7" s="8"/>
+      <c r="R7" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="S7" s="14" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" ht="18" customHeight="1">
+      <c r="A8" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="B8" s="8">
+        <v>1</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="E8" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="F8" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="G8" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="H8" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="I8" s="8"/>
+      <c r="J8" s="8"/>
+      <c r="K8" s="14" t="s">
+        <v>87</v>
+      </c>
+      <c r="L8" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="M8" s="8"/>
+      <c r="N8" s="8"/>
+      <c r="O8" s="8"/>
+      <c r="P8" s="8"/>
+      <c r="Q8" s="8"/>
+      <c r="R8" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="S8" s="14" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" ht="18" customHeight="1">
+      <c r="A9" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="B9" s="8">
+        <v>1</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="E9" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="F9" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="G9" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="H9" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="I9" s="8"/>
+      <c r="J9" s="8"/>
+      <c r="K9" s="14" t="s">
+        <v>88</v>
+      </c>
+      <c r="L9" s="14" t="s">
+        <v>90</v>
+      </c>
+      <c r="M9" s="8"/>
+      <c r="N9" s="8"/>
+      <c r="O9" s="8"/>
+      <c r="P9" s="8"/>
+      <c r="Q9" s="8"/>
+      <c r="R9" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="S9" s="14" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" ht="18" customHeight="1">
+      <c r="A10" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="B10" s="8">
+        <v>1</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="E10" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="F10" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="G10" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="H10" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="I10" s="14" t="s">
+        <v>105</v>
+      </c>
+      <c r="J10" s="14" t="s">
+        <v>82</v>
+      </c>
+      <c r="K10" s="8"/>
+      <c r="L10" s="8"/>
+      <c r="M10" s="8"/>
+      <c r="N10" s="8"/>
+      <c r="O10" s="8"/>
+      <c r="P10" s="8"/>
+      <c r="Q10" s="8"/>
+      <c r="R10" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="S10" s="14" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" ht="18" customHeight="1">
+      <c r="A11" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="B11" s="8">
+        <v>1</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="E11" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="F11" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="G11" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="H11" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="I11" s="14" t="s">
+        <v>106</v>
+      </c>
+      <c r="J11" s="14" t="s">
+        <v>83</v>
+      </c>
+      <c r="K11" s="8"/>
+      <c r="L11" s="8"/>
+      <c r="M11" s="8"/>
+      <c r="N11" s="8"/>
+      <c r="O11" s="8"/>
+      <c r="P11" s="8"/>
+      <c r="Q11" s="8"/>
+      <c r="R11" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="S11" s="14" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" ht="18" customHeight="1">
+      <c r="A12" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="B12" s="8">
+        <v>1</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="E12" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="F12" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="G12" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="H12" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="I12" s="8"/>
+      <c r="J12" s="8"/>
+      <c r="K12" s="14" t="s">
+        <v>87</v>
+      </c>
+      <c r="L12" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="M12" s="8"/>
+      <c r="N12" s="8"/>
+      <c r="O12" s="8"/>
+      <c r="P12" s="8"/>
+      <c r="Q12" s="8"/>
+      <c r="R12" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="S12" s="14" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" ht="18" customHeight="1">
+      <c r="A13" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="B13" s="8">
+        <v>1</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="E13" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="F13" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="G13" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="H13" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="I13" s="8"/>
+      <c r="J13" s="8"/>
+      <c r="K13" s="14" t="s">
+        <v>88</v>
+      </c>
+      <c r="L13" s="14" t="s">
+        <v>90</v>
+      </c>
+      <c r="M13" s="8"/>
+      <c r="N13" s="8"/>
+      <c r="O13" s="8"/>
+      <c r="P13" s="8"/>
+      <c r="Q13" s="8"/>
+      <c r="R13" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="S13" s="14" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" ht="18" customHeight="1">
+      <c r="A14" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="B14" s="8">
+        <v>1</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="E14" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="F14" s="8"/>
+      <c r="G14" s="8"/>
+      <c r="H14" s="8"/>
+      <c r="I14" s="8"/>
+      <c r="J14" s="8"/>
+      <c r="K14" s="8"/>
+      <c r="L14" s="8"/>
+      <c r="M14" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="N14" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="J5" s="15" t="s">
+      <c r="O14" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="K5" s="15" t="s">
+      <c r="P14" s="15" t="s">
+        <v>149</v>
+      </c>
+      <c r="Q14" s="15" t="s">
+        <v>152</v>
+      </c>
+      <c r="R14" s="15" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="6" spans="1:11" ht="18" customHeight="1">
-      <c r="A6" s="8">
+      <c r="S14" s="15"/>
+    </row>
+    <row r="15" spans="1:19" ht="18" customHeight="1">
+      <c r="A15" s="8" t="s">
+        <v>118</v>
+      </c>
+      <c r="B15" s="8">
         <v>1</v>
       </c>
-      <c r="B6" s="8" t="s">
+      <c r="C15" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="C6" s="8" t="s">
+      <c r="D15" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="D6" s="8" t="s">
+      <c r="E15" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="E6" s="8"/>
-      <c r="F6" s="8"/>
-      <c r="G6" s="8"/>
-      <c r="H6" s="15" t="s">
-        <v>36</v>
-      </c>
-      <c r="I6" s="15" t="s">
+      <c r="F15" s="8"/>
+      <c r="G15" s="8"/>
+      <c r="H15" s="8"/>
+      <c r="I15" s="8"/>
+      <c r="J15" s="8"/>
+      <c r="K15" s="8"/>
+      <c r="L15" s="8"/>
+      <c r="M15" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="N15" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="O15" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="P15" s="15" t="s">
+        <v>150</v>
+      </c>
+      <c r="Q15" s="15" t="s">
+        <v>153</v>
+      </c>
+      <c r="R15" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="S15" s="15"/>
+    </row>
+    <row r="16" spans="1:19" ht="18" customHeight="1">
+      <c r="A16" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="B16" s="8">
+        <v>1</v>
+      </c>
+      <c r="C16" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D16" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="E16" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="F16" s="8"/>
+      <c r="G16" s="8"/>
+      <c r="H16" s="8"/>
+      <c r="I16" s="8"/>
+      <c r="J16" s="8"/>
+      <c r="K16" s="8"/>
+      <c r="L16" s="8"/>
+      <c r="M16" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="N16" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="O16" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="P16" s="15" t="s">
+        <v>151</v>
+      </c>
+      <c r="Q16" s="15" t="s">
+        <v>154</v>
+      </c>
+      <c r="R16" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="S16" s="15"/>
+    </row>
+    <row r="17" spans="1:19" ht="18" customHeight="1">
+      <c r="A17" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="B17" s="8">
+        <v>1</v>
+      </c>
+      <c r="C17" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D17" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="E17" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="F17" s="8"/>
+      <c r="G17" s="8"/>
+      <c r="H17" s="8"/>
+      <c r="I17" s="8"/>
+      <c r="J17" s="8"/>
+      <c r="K17" s="8"/>
+      <c r="L17" s="8"/>
+      <c r="M17" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="N17" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="J6" s="15" t="s">
+      <c r="O17" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="K6" s="15" t="s">
+      <c r="P17" s="15" t="s">
+        <v>149</v>
+      </c>
+      <c r="Q17" s="15" t="s">
+        <v>155</v>
+      </c>
+      <c r="R17" s="15" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="7" spans="1:11" ht="18" customHeight="1">
-      <c r="A7" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="B7" s="11" t="s">
+      <c r="S17" s="15"/>
+    </row>
+    <row r="18" spans="1:19" ht="18" customHeight="1">
+      <c r="A18" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="B18" s="8">
+        <v>1</v>
+      </c>
+      <c r="C18" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D18" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="E18" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="F18" s="8"/>
+      <c r="G18" s="8"/>
+      <c r="H18" s="8"/>
+      <c r="I18" s="8"/>
+      <c r="J18" s="8"/>
+      <c r="K18" s="8"/>
+      <c r="L18" s="8"/>
+      <c r="M18" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="N18" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="O18" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="P18" s="15" t="s">
+        <v>150</v>
+      </c>
+      <c r="Q18" s="15" t="s">
+        <v>156</v>
+      </c>
+      <c r="R18" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="S18" s="15"/>
+    </row>
+    <row r="19" spans="1:19" ht="18" customHeight="1">
+      <c r="A19" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="B19" s="8">
+        <v>1</v>
+      </c>
+      <c r="C19" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D19" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="E19" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="F19" s="8"/>
+      <c r="G19" s="8"/>
+      <c r="H19" s="8"/>
+      <c r="I19" s="8"/>
+      <c r="J19" s="8"/>
+      <c r="K19" s="8"/>
+      <c r="L19" s="8"/>
+      <c r="M19" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="N19" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="O19" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="P19" s="15" t="s">
+        <v>151</v>
+      </c>
+      <c r="Q19" s="15" t="s">
+        <v>157</v>
+      </c>
+      <c r="R19" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="S19" s="15"/>
+    </row>
+    <row r="20" spans="1:19" ht="18" customHeight="1">
+      <c r="A20" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="B20" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="C20" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="C7" s="11" t="s">
+      <c r="D20" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="D7" s="11" t="s">
+      <c r="E20" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="E7" s="10" t="s">
+      <c r="F20" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="F7" s="10" t="s">
+      <c r="G20" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="G7" s="10" t="s">
+      <c r="H20" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="H7" s="11"/>
-      <c r="I7" s="11"/>
-      <c r="J7" s="11"/>
-      <c r="K7" s="10" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" ht="18" customHeight="1">
-      <c r="A8" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="B8" s="11" t="s">
+      <c r="I20" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="J20" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="K20" s="11"/>
+      <c r="L20" s="11"/>
+      <c r="M20" s="11"/>
+      <c r="N20" s="11"/>
+      <c r="O20" s="11"/>
+      <c r="P20" s="11"/>
+      <c r="Q20" s="11"/>
+      <c r="R20" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="S20" s="10" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19" ht="18" customHeight="1">
+      <c r="A21" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="B21" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="C21" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="C8" s="11" t="s">
+      <c r="D21" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="D8" s="11" t="s">
+      <c r="E21" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="E8" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="F8" s="10" t="s">
+      <c r="F21" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="G21" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="H21" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="I21" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="J21" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="K21" s="11"/>
+      <c r="L21" s="11"/>
+      <c r="M21" s="11"/>
+      <c r="N21" s="11"/>
+      <c r="O21" s="11"/>
+      <c r="P21" s="11"/>
+      <c r="Q21" s="11"/>
+      <c r="R21" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="S21" s="10" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19" ht="18" customHeight="1">
+      <c r="A22" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="B22" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="C22" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="D22" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="E22" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="F22" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="G22" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="H22" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="I22" s="11"/>
+      <c r="J22" s="11"/>
+      <c r="K22" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="L22" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="M22" s="11"/>
+      <c r="N22" s="11"/>
+      <c r="O22" s="11"/>
+      <c r="P22" s="11"/>
+      <c r="Q22" s="11"/>
+      <c r="R22" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="S22" s="10" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19" ht="18" customHeight="1">
+      <c r="A23" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="B23" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="C23" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="D23" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="E23" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="F23" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="G23" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="H23" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="I23" s="11"/>
+      <c r="J23" s="11"/>
+      <c r="K23" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="L23" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="M23" s="11"/>
+      <c r="N23" s="11"/>
+      <c r="O23" s="11"/>
+      <c r="P23" s="11"/>
+      <c r="Q23" s="11"/>
+      <c r="R23" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="S23" s="10" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19" ht="18" customHeight="1">
+      <c r="A24" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="B24" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="C24" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="D24" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="E24" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="F24" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="G24" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="G8" s="10" t="s">
+      <c r="H24" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="H8" s="11"/>
-      <c r="I8" s="11"/>
-      <c r="J8" s="11"/>
-      <c r="K8" s="10" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" ht="18" customHeight="1">
-      <c r="A9" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="B9" s="11" t="s">
+      <c r="I24" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="J24" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="K24" s="11"/>
+      <c r="L24" s="11"/>
+      <c r="M24" s="11"/>
+      <c r="N24" s="11"/>
+      <c r="O24" s="11"/>
+      <c r="P24" s="11"/>
+      <c r="Q24" s="11"/>
+      <c r="R24" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="S24" s="10" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19" ht="18" customHeight="1">
+      <c r="A25" s="8" t="s">
+        <v>128</v>
+      </c>
+      <c r="B25" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="C25" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="C9" s="11" t="s">
+      <c r="D25" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="D9" s="11" t="s">
+      <c r="E25" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="E9" s="10" t="s">
+      <c r="F25" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="G25" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="H25" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="I25" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="J25" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="K25" s="11"/>
+      <c r="L25" s="11"/>
+      <c r="M25" s="11"/>
+      <c r="N25" s="11"/>
+      <c r="O25" s="11"/>
+      <c r="P25" s="11"/>
+      <c r="Q25" s="11"/>
+      <c r="R25" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="S25" s="10" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="26" spans="1:19" ht="18" customHeight="1">
+      <c r="A26" s="8" t="s">
+        <v>129</v>
+      </c>
+      <c r="B26" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="C26" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="D26" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="E26" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="F26" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="G26" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="H26" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="I26" s="11"/>
+      <c r="J26" s="11"/>
+      <c r="K26" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="L26" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="M26" s="11"/>
+      <c r="N26" s="11"/>
+      <c r="O26" s="11"/>
+      <c r="P26" s="11"/>
+      <c r="Q26" s="11"/>
+      <c r="R26" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="S26" s="10" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="27" spans="1:19" ht="18" customHeight="1">
+      <c r="A27" s="8" t="s">
+        <v>130</v>
+      </c>
+      <c r="B27" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="C27" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="D27" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="E27" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="F27" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="G27" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="H27" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="I27" s="11"/>
+      <c r="J27" s="11"/>
+      <c r="K27" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="L27" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="M27" s="11"/>
+      <c r="N27" s="11"/>
+      <c r="O27" s="11"/>
+      <c r="P27" s="11"/>
+      <c r="Q27" s="11"/>
+      <c r="R27" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="S27" s="10" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="28" spans="1:19" ht="18" customHeight="1">
+      <c r="A28" s="8" t="s">
+        <v>131</v>
+      </c>
+      <c r="B28" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="C28" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="D28" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="E28" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="F28" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="F9" s="10" t="s">
+      <c r="G28" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="G9" s="10" t="s">
+      <c r="H28" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="H9" s="11"/>
-      <c r="I9" s="11"/>
-      <c r="J9" s="11"/>
-      <c r="K9" s="10" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" ht="18" customHeight="1">
-      <c r="A10" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="B10" s="11" t="s">
+      <c r="I28" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="J28" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="K28" s="11"/>
+      <c r="L28" s="11"/>
+      <c r="M28" s="11"/>
+      <c r="N28" s="11"/>
+      <c r="O28" s="11"/>
+      <c r="P28" s="11"/>
+      <c r="Q28" s="11"/>
+      <c r="R28" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="S28" s="10" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="29" spans="1:19" ht="18" customHeight="1">
+      <c r="A29" s="8" t="s">
+        <v>132</v>
+      </c>
+      <c r="B29" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="C29" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="C10" s="11" t="s">
+      <c r="D29" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="D10" s="11" t="s">
+      <c r="E29" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="E10" s="11"/>
-      <c r="F10" s="11"/>
-      <c r="G10" s="11"/>
-      <c r="H10" s="12" t="s">
+      <c r="F29" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="G29" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="H29" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="I29" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="J29" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="K29" s="11"/>
+      <c r="L29" s="11"/>
+      <c r="M29" s="11"/>
+      <c r="N29" s="11"/>
+      <c r="O29" s="11"/>
+      <c r="P29" s="11"/>
+      <c r="Q29" s="11"/>
+      <c r="R29" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="S29" s="10" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="30" spans="1:19" ht="18" customHeight="1">
+      <c r="A30" s="8" t="s">
+        <v>133</v>
+      </c>
+      <c r="B30" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="C30" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="D30" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="E30" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="F30" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="G30" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="H30" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="I30" s="11"/>
+      <c r="J30" s="11"/>
+      <c r="K30" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="L30" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="M30" s="11"/>
+      <c r="N30" s="11"/>
+      <c r="O30" s="11"/>
+      <c r="P30" s="11"/>
+      <c r="Q30" s="11"/>
+      <c r="R30" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="S30" s="10" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="31" spans="1:19" ht="18" customHeight="1">
+      <c r="A31" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="B31" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="C31" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="D31" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="E31" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="F31" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="G31" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="H31" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="I31" s="11"/>
+      <c r="J31" s="11"/>
+      <c r="K31" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="L31" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="M31" s="11"/>
+      <c r="N31" s="11"/>
+      <c r="O31" s="11"/>
+      <c r="P31" s="11"/>
+      <c r="Q31" s="11"/>
+      <c r="R31" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="S31" s="10" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="32" spans="1:19" ht="18" customHeight="1">
+      <c r="A32" s="8" t="s">
+        <v>135</v>
+      </c>
+      <c r="B32" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="C32" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="D32" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="E32" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="F32" s="11"/>
+      <c r="G32" s="11"/>
+      <c r="H32" s="11"/>
+      <c r="I32" s="11"/>
+      <c r="J32" s="11"/>
+      <c r="K32" s="11"/>
+      <c r="L32" s="11"/>
+      <c r="M32" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="I10" s="12" t="s">
+      <c r="N32" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="J10" s="12" t="s">
+      <c r="O32" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="P32" s="12" t="s">
+        <v>149</v>
+      </c>
+      <c r="Q32" s="12" t="s">
+        <v>152</v>
+      </c>
+      <c r="R32" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="S32" s="12"/>
+    </row>
+    <row r="33" spans="1:19" ht="18" customHeight="1">
+      <c r="A33" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="B33" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="C33" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="D33" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="E33" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="F33" s="11"/>
+      <c r="G33" s="11"/>
+      <c r="H33" s="11"/>
+      <c r="I33" s="11"/>
+      <c r="J33" s="11"/>
+      <c r="K33" s="11"/>
+      <c r="L33" s="11"/>
+      <c r="M33" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="N33" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="O33" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="P33" s="12" t="s">
+        <v>150</v>
+      </c>
+      <c r="Q33" s="12" t="s">
+        <v>153</v>
+      </c>
+      <c r="R33" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="S33" s="12"/>
+    </row>
+    <row r="34" spans="1:19" ht="18" customHeight="1">
+      <c r="A34" s="8" t="s">
+        <v>137</v>
+      </c>
+      <c r="B34" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="C34" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="D34" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="E34" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="F34" s="11"/>
+      <c r="G34" s="11"/>
+      <c r="H34" s="11"/>
+      <c r="I34" s="11"/>
+      <c r="J34" s="11"/>
+      <c r="K34" s="11"/>
+      <c r="L34" s="11"/>
+      <c r="M34" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="N34" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="O34" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="P34" s="12" t="s">
+        <v>151</v>
+      </c>
+      <c r="Q34" s="12" t="s">
+        <v>154</v>
+      </c>
+      <c r="R34" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="S34" s="12"/>
+    </row>
+    <row r="35" spans="1:19" ht="18" customHeight="1">
+      <c r="A35" s="8" t="s">
+        <v>138</v>
+      </c>
+      <c r="B35" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="C35" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="D35" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="E35" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="F35" s="11"/>
+      <c r="G35" s="11"/>
+      <c r="H35" s="11"/>
+      <c r="I35" s="11"/>
+      <c r="J35" s="11"/>
+      <c r="K35" s="11"/>
+      <c r="L35" s="11"/>
+      <c r="M35" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="N35" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="O35" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="P35" s="12" t="s">
+        <v>149</v>
+      </c>
+      <c r="Q35" s="12" t="s">
+        <v>155</v>
+      </c>
+      <c r="R35" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="S35" s="12"/>
+    </row>
+    <row r="36" spans="1:19" ht="18" customHeight="1">
+      <c r="A36" s="8" t="s">
+        <v>139</v>
+      </c>
+      <c r="B36" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="C36" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="D36" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="E36" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="F36" s="11"/>
+      <c r="G36" s="11"/>
+      <c r="H36" s="11"/>
+      <c r="I36" s="11"/>
+      <c r="J36" s="11"/>
+      <c r="K36" s="11"/>
+      <c r="L36" s="11"/>
+      <c r="M36" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="N36" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="O36" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="P36" s="12" t="s">
+        <v>150</v>
+      </c>
+      <c r="Q36" s="12" t="s">
+        <v>156</v>
+      </c>
+      <c r="R36" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="S36" s="12"/>
+    </row>
+    <row r="37" spans="1:19" ht="18" customHeight="1">
+      <c r="A37" s="8" t="s">
+        <v>140</v>
+      </c>
+      <c r="B37" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="C37" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="D37" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="E37" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="F37" s="11"/>
+      <c r="G37" s="11"/>
+      <c r="H37" s="11"/>
+      <c r="I37" s="11"/>
+      <c r="J37" s="11"/>
+      <c r="K37" s="11"/>
+      <c r="L37" s="11"/>
+      <c r="M37" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="N37" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="O37" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="P37" s="12" t="s">
+        <v>151</v>
+      </c>
+      <c r="Q37" s="12" t="s">
+        <v>157</v>
+      </c>
+      <c r="R37" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="S37" s="12"/>
+    </row>
+    <row r="38" spans="1:19" ht="18" customHeight="1">
+      <c r="A38" s="8" t="s">
+        <v>141</v>
+      </c>
+      <c r="B38" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="C38" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="D38" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="E38" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="F38" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="G38" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="H38" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="I38" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="J38" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="K38" s="13"/>
+      <c r="L38" s="13"/>
+      <c r="M38" s="13"/>
+      <c r="N38" s="13"/>
+      <c r="O38" s="13"/>
+      <c r="P38" s="13"/>
+      <c r="Q38" s="13"/>
+      <c r="R38" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="S38" s="9" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="39" spans="1:19" ht="18" customHeight="1">
+      <c r="A39" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="B39" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="C39" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="D39" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="E39" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="F39" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="G39" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="H39" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="I39" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="J39" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="K39" s="13"/>
+      <c r="L39" s="13"/>
+      <c r="M39" s="13"/>
+      <c r="N39" s="13"/>
+      <c r="O39" s="13"/>
+      <c r="P39" s="13"/>
+      <c r="Q39" s="13"/>
+      <c r="R39" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="S39" s="9" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="40" spans="1:19" ht="18" customHeight="1">
+      <c r="A40" s="8" t="s">
+        <v>143</v>
+      </c>
+      <c r="B40" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="C40" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="D40" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="E40" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="F40" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="G40" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="H40" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="I40" s="13"/>
+      <c r="J40" s="13"/>
+      <c r="K40" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="L40" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="M40" s="13"/>
+      <c r="N40" s="13"/>
+      <c r="O40" s="13"/>
+      <c r="P40" s="13"/>
+      <c r="Q40" s="13"/>
+      <c r="R40" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="S40" s="9" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="41" spans="1:19" ht="18" customHeight="1">
+      <c r="A41" s="8" t="s">
+        <v>144</v>
+      </c>
+      <c r="B41" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="C41" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="D41" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="E41" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="F41" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="G41" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="H41" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="I41" s="13"/>
+      <c r="J41" s="13"/>
+      <c r="K41" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="L41" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="M41" s="13"/>
+      <c r="N41" s="13"/>
+      <c r="O41" s="13"/>
+      <c r="P41" s="13"/>
+      <c r="Q41" s="13"/>
+      <c r="R41" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="S41" s="9" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="42" spans="1:19" ht="18" customHeight="1">
+      <c r="A42" s="8" t="s">
+        <v>145</v>
+      </c>
+      <c r="B42" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="C42" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="D42" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="E42" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="F42" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="G42" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="H42" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="I42" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="J42" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="K42" s="13"/>
+      <c r="L42" s="13"/>
+      <c r="M42" s="13"/>
+      <c r="N42" s="13"/>
+      <c r="O42" s="13"/>
+      <c r="P42" s="13"/>
+      <c r="Q42" s="13"/>
+      <c r="R42" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="S42" s="9" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="43" spans="1:19" ht="18" customHeight="1">
+      <c r="A43" s="8" t="s">
+        <v>146</v>
+      </c>
+      <c r="B43" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="C43" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="D43" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="E43" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="F43" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="G43" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="H43" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="I43" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="J43" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="K43" s="13"/>
+      <c r="L43" s="13"/>
+      <c r="M43" s="13"/>
+      <c r="N43" s="13"/>
+      <c r="O43" s="13"/>
+      <c r="P43" s="13"/>
+      <c r="Q43" s="13"/>
+      <c r="R43" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="S43" s="9" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="44" spans="1:19" ht="18" customHeight="1">
+      <c r="A44" s="8" t="s">
+        <v>158</v>
+      </c>
+      <c r="B44" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="C44" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="D44" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="E44" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="F44" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="G44" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="H44" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="I44" s="13"/>
+      <c r="J44" s="13"/>
+      <c r="K44" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="L44" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="M44" s="13"/>
+      <c r="N44" s="13"/>
+      <c r="O44" s="13"/>
+      <c r="P44" s="13"/>
+      <c r="Q44" s="13"/>
+      <c r="R44" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="S44" s="9" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="45" spans="1:19" ht="18" customHeight="1">
+      <c r="A45" s="8" t="s">
+        <v>159</v>
+      </c>
+      <c r="B45" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="C45" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="D45" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="E45" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="F45" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="G45" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="H45" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="I45" s="13"/>
+      <c r="J45" s="13"/>
+      <c r="K45" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="L45" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="M45" s="13"/>
+      <c r="N45" s="13"/>
+      <c r="O45" s="13"/>
+      <c r="P45" s="13"/>
+      <c r="Q45" s="13"/>
+      <c r="R45" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="S45" s="9" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="46" spans="1:19" ht="18" customHeight="1">
+      <c r="A46" s="8" t="s">
+        <v>160</v>
+      </c>
+      <c r="B46" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="C46" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="D46" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="E46" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="F46" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="G46" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="H46" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="I46" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="J46" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="K46" s="13"/>
+      <c r="L46" s="13"/>
+      <c r="M46" s="13"/>
+      <c r="N46" s="13"/>
+      <c r="O46" s="13"/>
+      <c r="P46" s="13"/>
+      <c r="Q46" s="13"/>
+      <c r="R46" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="S46" s="9" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="47" spans="1:19" ht="18" customHeight="1">
+      <c r="A47" s="8" t="s">
+        <v>161</v>
+      </c>
+      <c r="B47" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="C47" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="D47" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="E47" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="F47" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="G47" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="H47" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="I47" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="J47" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="K47" s="13"/>
+      <c r="L47" s="13"/>
+      <c r="M47" s="13"/>
+      <c r="N47" s="13"/>
+      <c r="O47" s="13"/>
+      <c r="P47" s="13"/>
+      <c r="Q47" s="13"/>
+      <c r="R47" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="S47" s="9" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="48" spans="1:19" ht="18" customHeight="1">
+      <c r="A48" s="8" t="s">
+        <v>162</v>
+      </c>
+      <c r="B48" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="C48" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="D48" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="E48" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="F48" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="G48" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="H48" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="I48" s="13"/>
+      <c r="J48" s="13"/>
+      <c r="K48" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="L48" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="M48" s="13"/>
+      <c r="N48" s="13"/>
+      <c r="O48" s="13"/>
+      <c r="P48" s="13"/>
+      <c r="Q48" s="13"/>
+      <c r="R48" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="S48" s="9" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="49" spans="1:19" ht="18" customHeight="1">
+      <c r="A49" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="B49" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="C49" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="D49" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="E49" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="F49" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="G49" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="H49" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="I49" s="13"/>
+      <c r="J49" s="13"/>
+      <c r="K49" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="L49" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="M49" s="13"/>
+      <c r="N49" s="13"/>
+      <c r="O49" s="13"/>
+      <c r="P49" s="13"/>
+      <c r="Q49" s="13"/>
+      <c r="R49" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="S49" s="9" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="50" spans="1:19" ht="18" customHeight="1">
+      <c r="A50" s="8" t="s">
+        <v>163</v>
+      </c>
+      <c r="B50" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="C50" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="D50" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="E50" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="F50" s="13"/>
+      <c r="G50" s="13"/>
+      <c r="H50" s="13"/>
+      <c r="I50" s="13"/>
+      <c r="J50" s="13"/>
+      <c r="K50" s="13"/>
+      <c r="L50" s="13"/>
+      <c r="M50" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="N50" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="O50" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="P50" s="16" t="s">
+        <v>149</v>
+      </c>
+      <c r="Q50" s="16" t="s">
+        <v>152</v>
+      </c>
+      <c r="R50" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="S50" s="16"/>
+    </row>
+    <row r="51" spans="1:19" ht="18" customHeight="1">
+      <c r="A51" s="8" t="s">
+        <v>164</v>
+      </c>
+      <c r="B51" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="C51" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="D51" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="E51" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="F51" s="13"/>
+      <c r="G51" s="13"/>
+      <c r="H51" s="13"/>
+      <c r="I51" s="13"/>
+      <c r="J51" s="13"/>
+      <c r="K51" s="13"/>
+      <c r="L51" s="13"/>
+      <c r="M51" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="N51" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="O51" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="P51" s="16" t="s">
+        <v>150</v>
+      </c>
+      <c r="Q51" s="16" t="s">
+        <v>153</v>
+      </c>
+      <c r="R51" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="S51" s="16"/>
+    </row>
+    <row r="52" spans="1:19" ht="18" customHeight="1">
+      <c r="A52" s="8" t="s">
+        <v>165</v>
+      </c>
+      <c r="B52" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="C52" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="D52" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="E52" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="F52" s="13"/>
+      <c r="G52" s="13"/>
+      <c r="H52" s="13"/>
+      <c r="I52" s="13"/>
+      <c r="J52" s="13"/>
+      <c r="K52" s="13"/>
+      <c r="L52" s="13"/>
+      <c r="M52" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="N52" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="O52" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="P52" s="16" t="s">
+        <v>151</v>
+      </c>
+      <c r="Q52" s="16" t="s">
+        <v>154</v>
+      </c>
+      <c r="R52" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="S52" s="16"/>
+    </row>
+    <row r="53" spans="1:19" ht="18" customHeight="1">
+      <c r="A53" s="8" t="s">
+        <v>166</v>
+      </c>
+      <c r="B53" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="C53" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="D53" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="E53" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="F53" s="13"/>
+      <c r="G53" s="13"/>
+      <c r="H53" s="13"/>
+      <c r="I53" s="13"/>
+      <c r="J53" s="13"/>
+      <c r="K53" s="13"/>
+      <c r="L53" s="13"/>
+      <c r="M53" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="N53" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="O53" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="P53" s="16" t="s">
+        <v>149</v>
+      </c>
+      <c r="Q53" s="16" t="s">
+        <v>155</v>
+      </c>
+      <c r="R53" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="S53" s="16"/>
+    </row>
+    <row r="54" spans="1:19" ht="18" customHeight="1">
+      <c r="A54" s="8" t="s">
+        <v>167</v>
+      </c>
+      <c r="B54" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="C54" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="D54" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="E54" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="F54" s="13"/>
+      <c r="G54" s="13"/>
+      <c r="H54" s="13"/>
+      <c r="I54" s="13"/>
+      <c r="J54" s="13"/>
+      <c r="K54" s="13"/>
+      <c r="L54" s="13"/>
+      <c r="M54" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="N54" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="O54" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="P54" s="16" t="s">
+        <v>150</v>
+      </c>
+      <c r="Q54" s="16" t="s">
+        <v>156</v>
+      </c>
+      <c r="R54" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="S54" s="16"/>
+    </row>
+    <row r="55" spans="1:19" ht="18" customHeight="1">
+      <c r="A55" s="8" t="s">
+        <v>168</v>
+      </c>
+      <c r="B55" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="C55" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="D55" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="E55" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="F55" s="13"/>
+      <c r="G55" s="13"/>
+      <c r="H55" s="13"/>
+      <c r="I55" s="13"/>
+      <c r="J55" s="13"/>
+      <c r="K55" s="13"/>
+      <c r="L55" s="13"/>
+      <c r="M55" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="N55" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="O55" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="P55" s="16" t="s">
+        <v>151</v>
+      </c>
+      <c r="Q55" s="16" t="s">
+        <v>157</v>
+      </c>
+      <c r="R55" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="S55" s="16"/>
+    </row>
+    <row r="57" spans="1:19" ht="18" customHeight="1">
+      <c r="A57" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="B57" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C57" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D57" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="E57" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F57" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="G57" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="H57" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="I57" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="J57" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="K57" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="L57" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="M57" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="N57" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="O57" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="P57" s="7"/>
+      <c r="Q57" s="7"/>
+      <c r="R57" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="S57" s="7" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="58" spans="1:19" ht="18" customHeight="1">
+      <c r="A58" s="8">
+        <v>1</v>
+      </c>
+      <c r="B58" s="8">
+        <v>1</v>
+      </c>
+      <c r="C58" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D58" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="E58" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="F58" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="G58" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="H58" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="I58" s="14" t="s">
+        <v>105</v>
+      </c>
+      <c r="J58" s="14" t="s">
+        <v>82</v>
+      </c>
+      <c r="K58" s="8"/>
+      <c r="L58" s="8"/>
+      <c r="M58" s="8"/>
+      <c r="N58" s="8"/>
+      <c r="O58" s="8"/>
+      <c r="P58" s="8"/>
+      <c r="Q58" s="8"/>
+      <c r="R58" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="S58" s="14" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="59" spans="1:19" ht="18" customHeight="1">
+      <c r="A59" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="B59" s="8">
+        <v>1</v>
+      </c>
+      <c r="C59" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D59" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="E59" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="F59" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="G59" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="H59" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="I59" s="14" t="s">
+        <v>106</v>
+      </c>
+      <c r="J59" s="14" t="s">
+        <v>83</v>
+      </c>
+      <c r="K59" s="8"/>
+      <c r="L59" s="8"/>
+      <c r="M59" s="8"/>
+      <c r="N59" s="8"/>
+      <c r="O59" s="8"/>
+      <c r="P59" s="8"/>
+      <c r="Q59" s="8"/>
+      <c r="R59" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="S59" s="14" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="60" spans="1:19" ht="18" customHeight="1">
+      <c r="A60" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="B60" s="8">
+        <v>1</v>
+      </c>
+      <c r="C60" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D60" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="E60" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="F60" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="G60" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="H60" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="I60" s="8"/>
+      <c r="J60" s="8"/>
+      <c r="K60" s="14" t="s">
+        <v>87</v>
+      </c>
+      <c r="L60" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="M60" s="8"/>
+      <c r="N60" s="8"/>
+      <c r="O60" s="8"/>
+      <c r="P60" s="8"/>
+      <c r="Q60" s="8"/>
+      <c r="R60" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="S60" s="14" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="61" spans="1:19" ht="18" customHeight="1">
+      <c r="A61" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="B61" s="8">
+        <v>1</v>
+      </c>
+      <c r="C61" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D61" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="E61" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="F61" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="G61" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="H61" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="I61" s="8"/>
+      <c r="J61" s="8"/>
+      <c r="K61" s="14" t="s">
+        <v>88</v>
+      </c>
+      <c r="L61" s="14" t="s">
+        <v>90</v>
+      </c>
+      <c r="M61" s="8"/>
+      <c r="N61" s="8"/>
+      <c r="O61" s="8"/>
+      <c r="P61" s="8"/>
+      <c r="Q61" s="8"/>
+      <c r="R61" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="S61" s="14" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="62" spans="1:19" ht="18" customHeight="1">
+      <c r="A62" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="B62" s="8">
+        <v>1</v>
+      </c>
+      <c r="C62" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D62" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="E62" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="F62" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="G62" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="H62" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="I62" s="14" t="s">
+        <v>105</v>
+      </c>
+      <c r="J62" s="14" t="s">
+        <v>82</v>
+      </c>
+      <c r="K62" s="8"/>
+      <c r="L62" s="8"/>
+      <c r="M62" s="8"/>
+      <c r="N62" s="8"/>
+      <c r="O62" s="8"/>
+      <c r="P62" s="8"/>
+      <c r="Q62" s="8"/>
+      <c r="R62" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="S62" s="14" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="63" spans="1:19" ht="18" customHeight="1">
+      <c r="A63" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="B63" s="8">
+        <v>1</v>
+      </c>
+      <c r="C63" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D63" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="E63" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="F63" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="G63" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="H63" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="I63" s="14" t="s">
+        <v>106</v>
+      </c>
+      <c r="J63" s="14" t="s">
+        <v>83</v>
+      </c>
+      <c r="K63" s="8"/>
+      <c r="L63" s="8"/>
+      <c r="M63" s="8"/>
+      <c r="N63" s="8"/>
+      <c r="O63" s="8"/>
+      <c r="P63" s="8"/>
+      <c r="Q63" s="8"/>
+      <c r="R63" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="S63" s="14" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="64" spans="1:19" ht="18" customHeight="1">
+      <c r="A64" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="B64" s="8">
+        <v>1</v>
+      </c>
+      <c r="C64" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D64" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="E64" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="F64" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="G64" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="H64" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="I64" s="8"/>
+      <c r="J64" s="8"/>
+      <c r="K64" s="14" t="s">
+        <v>87</v>
+      </c>
+      <c r="L64" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="M64" s="8"/>
+      <c r="N64" s="8"/>
+      <c r="O64" s="8"/>
+      <c r="P64" s="8"/>
+      <c r="Q64" s="8"/>
+      <c r="R64" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="S64" s="14" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="65" spans="1:19" ht="18" customHeight="1">
+      <c r="A65" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="B65" s="8">
+        <v>1</v>
+      </c>
+      <c r="C65" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D65" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="E65" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="F65" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="G65" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="H65" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="I65" s="8"/>
+      <c r="J65" s="8"/>
+      <c r="K65" s="14" t="s">
+        <v>88</v>
+      </c>
+      <c r="L65" s="14" t="s">
+        <v>90</v>
+      </c>
+      <c r="M65" s="8"/>
+      <c r="N65" s="8"/>
+      <c r="O65" s="8"/>
+      <c r="P65" s="8"/>
+      <c r="Q65" s="8"/>
+      <c r="R65" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="S65" s="14" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="66" spans="1:19" ht="18" customHeight="1">
+      <c r="A66" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="B66" s="8">
+        <v>1</v>
+      </c>
+      <c r="C66" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D66" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="E66" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="F66" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="G66" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="H66" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="I66" s="14" t="s">
+        <v>105</v>
+      </c>
+      <c r="J66" s="14" t="s">
+        <v>82</v>
+      </c>
+      <c r="K66" s="8"/>
+      <c r="L66" s="8"/>
+      <c r="M66" s="8"/>
+      <c r="N66" s="8"/>
+      <c r="O66" s="8"/>
+      <c r="P66" s="8"/>
+      <c r="Q66" s="8"/>
+      <c r="R66" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="S66" s="14" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="67" spans="1:19" ht="18" customHeight="1">
+      <c r="A67" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="B67" s="8">
+        <v>1</v>
+      </c>
+      <c r="C67" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D67" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="E67" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="F67" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="G67" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="H67" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="I67" s="14" t="s">
+        <v>106</v>
+      </c>
+      <c r="J67" s="14" t="s">
+        <v>83</v>
+      </c>
+      <c r="K67" s="8"/>
+      <c r="L67" s="8"/>
+      <c r="M67" s="8"/>
+      <c r="N67" s="8"/>
+      <c r="O67" s="8"/>
+      <c r="P67" s="8"/>
+      <c r="Q67" s="8"/>
+      <c r="R67" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="S67" s="14" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="68" spans="1:19" ht="18" customHeight="1">
+      <c r="A68" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="B68" s="8">
+        <v>1</v>
+      </c>
+      <c r="C68" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D68" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="E68" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="F68" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="G68" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="H68" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="I68" s="8"/>
+      <c r="J68" s="8"/>
+      <c r="K68" s="14" t="s">
+        <v>87</v>
+      </c>
+      <c r="L68" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="M68" s="8"/>
+      <c r="N68" s="8"/>
+      <c r="O68" s="8"/>
+      <c r="P68" s="8"/>
+      <c r="Q68" s="8"/>
+      <c r="R68" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="S68" s="14" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="69" spans="1:19" ht="18" customHeight="1">
+      <c r="A69" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="B69" s="8">
+        <v>1</v>
+      </c>
+      <c r="C69" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D69" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="E69" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="F69" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="G69" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="H69" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="I69" s="8"/>
+      <c r="J69" s="8"/>
+      <c r="K69" s="14" t="s">
+        <v>88</v>
+      </c>
+      <c r="L69" s="14" t="s">
+        <v>90</v>
+      </c>
+      <c r="M69" s="8"/>
+      <c r="N69" s="8"/>
+      <c r="O69" s="8"/>
+      <c r="P69" s="8"/>
+      <c r="Q69" s="8"/>
+      <c r="R69" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="S69" s="14" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="70" spans="1:19" ht="18" customHeight="1">
+      <c r="A70" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="B70" s="8">
+        <v>1</v>
+      </c>
+      <c r="C70" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D70" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="E70" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="F70" s="8"/>
+      <c r="G70" s="8"/>
+      <c r="H70" s="8"/>
+      <c r="I70" s="8"/>
+      <c r="J70" s="8"/>
+      <c r="K70" s="8"/>
+      <c r="L70" s="8"/>
+      <c r="M70" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="N70" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="O70" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="P70" s="15"/>
+      <c r="Q70" s="15"/>
+      <c r="R70" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="S70" s="15"/>
+    </row>
+    <row r="71" spans="1:19" ht="18" customHeight="1">
+      <c r="A71" s="8" t="s">
+        <v>118</v>
+      </c>
+      <c r="B71" s="8">
+        <v>1</v>
+      </c>
+      <c r="C71" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D71" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="E71" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="F71" s="8"/>
+      <c r="G71" s="8"/>
+      <c r="H71" s="8"/>
+      <c r="I71" s="8"/>
+      <c r="J71" s="8"/>
+      <c r="K71" s="8"/>
+      <c r="L71" s="8"/>
+      <c r="M71" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="N71" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="O71" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="P71" s="15"/>
+      <c r="Q71" s="15"/>
+      <c r="R71" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="S71" s="15"/>
+    </row>
+    <row r="72" spans="1:19" ht="18" customHeight="1">
+      <c r="A72" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="B72" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="C72" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="D72" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="E72" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="F72" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="G72" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="H72" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="I72" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="J72" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="K72" s="11"/>
+      <c r="L72" s="11"/>
+      <c r="M72" s="11"/>
+      <c r="N72" s="11"/>
+      <c r="O72" s="11"/>
+      <c r="P72" s="11"/>
+      <c r="Q72" s="11"/>
+      <c r="R72" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="S72" s="10" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="73" spans="1:19" ht="18" customHeight="1">
+      <c r="A73" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="B73" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="C73" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="D73" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="E73" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="F73" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="G73" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="H73" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="I73" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="J73" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="K73" s="11"/>
+      <c r="L73" s="11"/>
+      <c r="M73" s="11"/>
+      <c r="N73" s="11"/>
+      <c r="O73" s="11"/>
+      <c r="P73" s="11"/>
+      <c r="Q73" s="11"/>
+      <c r="R73" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="S73" s="10" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="74" spans="1:19" ht="18" customHeight="1">
+      <c r="A74" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="B74" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="C74" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="D74" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="E74" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="F74" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="G74" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="H74" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="I74" s="11"/>
+      <c r="J74" s="11"/>
+      <c r="K74" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="L74" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="M74" s="11"/>
+      <c r="N74" s="11"/>
+      <c r="O74" s="11"/>
+      <c r="P74" s="11"/>
+      <c r="Q74" s="11"/>
+      <c r="R74" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="S74" s="10" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="75" spans="1:19" ht="18" customHeight="1">
+      <c r="A75" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="B75" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="C75" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="D75" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="E75" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="F75" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="G75" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="H75" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="I75" s="11"/>
+      <c r="J75" s="11"/>
+      <c r="K75" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="L75" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="M75" s="11"/>
+      <c r="N75" s="11"/>
+      <c r="O75" s="11"/>
+      <c r="P75" s="11"/>
+      <c r="Q75" s="11"/>
+      <c r="R75" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="S75" s="10" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="76" spans="1:19" ht="18" customHeight="1">
+      <c r="A76" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="B76" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="C76" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="D76" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="E76" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="F76" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="G76" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="H76" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="I76" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="J76" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="K76" s="11"/>
+      <c r="L76" s="11"/>
+      <c r="M76" s="11"/>
+      <c r="N76" s="11"/>
+      <c r="O76" s="11"/>
+      <c r="P76" s="11"/>
+      <c r="Q76" s="11"/>
+      <c r="R76" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="S76" s="10" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="77" spans="1:19" ht="18" customHeight="1">
+      <c r="A77" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="B77" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="C77" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="D77" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="E77" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="F77" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="G77" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="H77" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="I77" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="J77" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="K77" s="11"/>
+      <c r="L77" s="11"/>
+      <c r="M77" s="11"/>
+      <c r="N77" s="11"/>
+      <c r="O77" s="11"/>
+      <c r="P77" s="11"/>
+      <c r="Q77" s="11"/>
+      <c r="R77" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="S77" s="10" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="78" spans="1:19" ht="18" customHeight="1">
+      <c r="A78" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="B78" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="C78" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="D78" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="E78" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="F78" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="G78" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="H78" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="I78" s="11"/>
+      <c r="J78" s="11"/>
+      <c r="K78" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="L78" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="M78" s="11"/>
+      <c r="N78" s="11"/>
+      <c r="O78" s="11"/>
+      <c r="P78" s="11"/>
+      <c r="Q78" s="11"/>
+      <c r="R78" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="S78" s="10" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="79" spans="1:19" ht="18" customHeight="1">
+      <c r="A79" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="B79" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="C79" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="D79" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="E79" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="F79" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="G79" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="H79" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="I79" s="11"/>
+      <c r="J79" s="11"/>
+      <c r="K79" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="L79" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="M79" s="11"/>
+      <c r="N79" s="11"/>
+      <c r="O79" s="11"/>
+      <c r="P79" s="11"/>
+      <c r="Q79" s="11"/>
+      <c r="R79" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="S79" s="10" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="80" spans="1:19" ht="18" customHeight="1">
+      <c r="A80" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="B80" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="C80" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="D80" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="E80" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="F80" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="G80" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="H80" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="I80" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="J80" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="K80" s="11"/>
+      <c r="L80" s="11"/>
+      <c r="M80" s="11"/>
+      <c r="N80" s="11"/>
+      <c r="O80" s="11"/>
+      <c r="P80" s="11"/>
+      <c r="Q80" s="11"/>
+      <c r="R80" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="S80" s="10" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="81" spans="1:19" ht="18" customHeight="1">
+      <c r="A81" s="8" t="s">
+        <v>128</v>
+      </c>
+      <c r="B81" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="C81" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="D81" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="E81" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="F81" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="G81" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="H81" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="I81" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="J81" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="K81" s="11"/>
+      <c r="L81" s="11"/>
+      <c r="M81" s="11"/>
+      <c r="N81" s="11"/>
+      <c r="O81" s="11"/>
+      <c r="P81" s="11"/>
+      <c r="Q81" s="11"/>
+      <c r="R81" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="S81" s="10" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="82" spans="1:19" ht="18" customHeight="1">
+      <c r="A82" s="8" t="s">
+        <v>129</v>
+      </c>
+      <c r="B82" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="C82" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="D82" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="E82" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="F82" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="G82" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="H82" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="I82" s="11"/>
+      <c r="J82" s="11"/>
+      <c r="K82" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="L82" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="M82" s="11"/>
+      <c r="N82" s="11"/>
+      <c r="O82" s="11"/>
+      <c r="P82" s="11"/>
+      <c r="Q82" s="11"/>
+      <c r="R82" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="S82" s="10" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="83" spans="1:19" ht="18" customHeight="1">
+      <c r="A83" s="8" t="s">
+        <v>130</v>
+      </c>
+      <c r="B83" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="C83" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="D83" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="E83" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="F83" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="G83" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="H83" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="I83" s="11"/>
+      <c r="J83" s="11"/>
+      <c r="K83" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="L83" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="M83" s="11"/>
+      <c r="N83" s="11"/>
+      <c r="O83" s="11"/>
+      <c r="P83" s="11"/>
+      <c r="Q83" s="11"/>
+      <c r="R83" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="S83" s="10" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="84" spans="1:19" ht="18" customHeight="1">
+      <c r="A84" s="8" t="s">
+        <v>131</v>
+      </c>
+      <c r="B84" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="C84" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="D84" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="E84" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="F84" s="11"/>
+      <c r="G84" s="11"/>
+      <c r="H84" s="11"/>
+      <c r="I84" s="11"/>
+      <c r="J84" s="11"/>
+      <c r="K84" s="11"/>
+      <c r="L84" s="11"/>
+      <c r="M84" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="N84" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="O84" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="K10" s="12" t="s">
+      <c r="P84" s="12"/>
+      <c r="Q84" s="12"/>
+      <c r="R84" s="12" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" ht="18" customHeight="1">
-      <c r="A11" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="B11" s="11" t="s">
+      <c r="S84" s="12"/>
+    </row>
+    <row r="85" spans="1:19" ht="18" customHeight="1">
+      <c r="A85" s="8" t="s">
+        <v>132</v>
+      </c>
+      <c r="B85" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="C85" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="C11" s="11" t="s">
+      <c r="D85" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="D11" s="11" t="s">
+      <c r="E85" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="E11" s="11"/>
-      <c r="F11" s="11"/>
-      <c r="G11" s="11"/>
-      <c r="H11" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="I11" s="12" t="s">
+      <c r="F85" s="11"/>
+      <c r="G85" s="11"/>
+      <c r="H85" s="11"/>
+      <c r="I85" s="11"/>
+      <c r="J85" s="11"/>
+      <c r="K85" s="11"/>
+      <c r="L85" s="11"/>
+      <c r="M85" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="N85" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="J11" s="12" t="s">
+      <c r="O85" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="K11" s="12" t="s">
+      <c r="P85" s="12"/>
+      <c r="Q85" s="12"/>
+      <c r="R85" s="12" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="12" spans="1:11" ht="18" customHeight="1">
-      <c r="A12" s="13" t="s">
+      <c r="S85" s="12"/>
+    </row>
+    <row r="86" spans="1:19" ht="18" customHeight="1">
+      <c r="A86" s="8" t="s">
+        <v>133</v>
+      </c>
+      <c r="B86" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="B12" s="13" t="s">
+      <c r="C86" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="C12" s="13" t="s">
+      <c r="D86" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="D12" s="13" t="s">
+      <c r="E86" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="E12" s="9" t="s">
+      <c r="F86" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="F12" s="9" t="s">
+      <c r="G86" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="G12" s="9" t="s">
+      <c r="H86" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="H12" s="13"/>
-      <c r="I12" s="13"/>
-      <c r="J12" s="13"/>
-      <c r="K12" s="9" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" ht="18" customHeight="1">
-      <c r="A13" s="13" t="s">
+      <c r="I86" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="J86" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="K86" s="13"/>
+      <c r="L86" s="13"/>
+      <c r="M86" s="13"/>
+      <c r="N86" s="13"/>
+      <c r="O86" s="13"/>
+      <c r="P86" s="13"/>
+      <c r="Q86" s="13"/>
+      <c r="R86" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="S86" s="9" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="87" spans="1:19" ht="18" customHeight="1">
+      <c r="A87" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="B87" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="B13" s="13" t="s">
+      <c r="C87" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="C13" s="13" t="s">
+      <c r="D87" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="D13" s="13" t="s">
+      <c r="E87" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="E13" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="F13" s="9" t="s">
+      <c r="F87" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="G87" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="H87" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="I87" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="J87" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="K87" s="13"/>
+      <c r="L87" s="13"/>
+      <c r="M87" s="13"/>
+      <c r="N87" s="13"/>
+      <c r="O87" s="13"/>
+      <c r="P87" s="13"/>
+      <c r="Q87" s="13"/>
+      <c r="R87" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="S87" s="9" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="88" spans="1:19" ht="18" customHeight="1">
+      <c r="A88" s="8" t="s">
+        <v>135</v>
+      </c>
+      <c r="B88" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="C88" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="D88" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="E88" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="F88" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="G88" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="H88" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="I88" s="13"/>
+      <c r="J88" s="13"/>
+      <c r="K88" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="L88" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="M88" s="13"/>
+      <c r="N88" s="13"/>
+      <c r="O88" s="13"/>
+      <c r="P88" s="13"/>
+      <c r="Q88" s="13"/>
+      <c r="R88" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="S88" s="9" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="89" spans="1:19" ht="18" customHeight="1">
+      <c r="A89" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="B89" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="C89" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="D89" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="E89" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="F89" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="G89" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="H89" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="I89" s="13"/>
+      <c r="J89" s="13"/>
+      <c r="K89" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="L89" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="M89" s="13"/>
+      <c r="N89" s="13"/>
+      <c r="O89" s="13"/>
+      <c r="P89" s="13"/>
+      <c r="Q89" s="13"/>
+      <c r="R89" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="S89" s="9" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="90" spans="1:19" ht="18" customHeight="1">
+      <c r="A90" s="8" t="s">
+        <v>137</v>
+      </c>
+      <c r="B90" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="C90" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="D90" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="E90" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="F90" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="G90" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="G13" s="9" t="s">
+      <c r="H90" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="H13" s="13"/>
-      <c r="I13" s="13"/>
-      <c r="J13" s="13"/>
-      <c r="K13" s="9" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" ht="18" customHeight="1">
-      <c r="A14" s="13" t="s">
+      <c r="I90" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="J90" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="K90" s="13"/>
+      <c r="L90" s="13"/>
+      <c r="M90" s="13"/>
+      <c r="N90" s="13"/>
+      <c r="O90" s="13"/>
+      <c r="P90" s="13"/>
+      <c r="Q90" s="13"/>
+      <c r="R90" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="S90" s="9" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="91" spans="1:19" ht="18" customHeight="1">
+      <c r="A91" s="8" t="s">
+        <v>138</v>
+      </c>
+      <c r="B91" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="B14" s="13" t="s">
+      <c r="C91" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="C14" s="13" t="s">
+      <c r="D91" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="D14" s="13" t="s">
+      <c r="E91" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="E14" s="9" t="s">
+      <c r="F91" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="G91" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="H91" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="I91" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="J91" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="K91" s="13"/>
+      <c r="L91" s="13"/>
+      <c r="M91" s="13"/>
+      <c r="N91" s="13"/>
+      <c r="O91" s="13"/>
+      <c r="P91" s="13"/>
+      <c r="Q91" s="13"/>
+      <c r="R91" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="S91" s="9" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="92" spans="1:19" ht="18" customHeight="1">
+      <c r="A92" s="8" t="s">
+        <v>139</v>
+      </c>
+      <c r="B92" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="F14" s="9" t="s">
+      <c r="C92" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="D92" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="E92" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="F92" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="G92" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="H92" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="I92" s="13"/>
+      <c r="J92" s="13"/>
+      <c r="K92" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="L92" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="M92" s="13"/>
+      <c r="N92" s="13"/>
+      <c r="O92" s="13"/>
+      <c r="P92" s="13"/>
+      <c r="Q92" s="13"/>
+      <c r="R92" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="S92" s="9" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="93" spans="1:19" ht="18" customHeight="1">
+      <c r="A93" s="8" t="s">
+        <v>140</v>
+      </c>
+      <c r="B93" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="C93" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="D93" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="E93" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="F93" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="G93" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="H93" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="I93" s="13"/>
+      <c r="J93" s="13"/>
+      <c r="K93" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="L93" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="M93" s="13"/>
+      <c r="N93" s="13"/>
+      <c r="O93" s="13"/>
+      <c r="P93" s="13"/>
+      <c r="Q93" s="13"/>
+      <c r="R93" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="S93" s="9" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="94" spans="1:19" ht="18" customHeight="1">
+      <c r="A94" s="8" t="s">
+        <v>141</v>
+      </c>
+      <c r="B94" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="C94" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="D94" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="E94" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="F94" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="G94" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="G14" s="9" t="s">
+      <c r="H94" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="H14" s="13"/>
-      <c r="I14" s="13"/>
-      <c r="J14" s="13"/>
-      <c r="K14" s="9" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" ht="18" customHeight="1">
-      <c r="A15" s="13" t="s">
+      <c r="I94" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="J94" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="K94" s="13"/>
+      <c r="L94" s="13"/>
+      <c r="M94" s="13"/>
+      <c r="N94" s="13"/>
+      <c r="O94" s="13"/>
+      <c r="P94" s="13"/>
+      <c r="Q94" s="13"/>
+      <c r="R94" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="S94" s="9" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="95" spans="1:19" ht="18" customHeight="1">
+      <c r="A95" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="B95" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="B15" s="13" t="s">
+      <c r="C95" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="C15" s="13" t="s">
+      <c r="D95" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="D15" s="13" t="s">
+      <c r="E95" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="E15" s="13"/>
-      <c r="F15" s="13"/>
-      <c r="G15" s="13"/>
-      <c r="H15" s="16" t="s">
+      <c r="F95" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="G95" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="H95" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="I95" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="J95" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="K95" s="13"/>
+      <c r="L95" s="13"/>
+      <c r="M95" s="13"/>
+      <c r="N95" s="13"/>
+      <c r="O95" s="13"/>
+      <c r="P95" s="13"/>
+      <c r="Q95" s="13"/>
+      <c r="R95" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="S95" s="9" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="96" spans="1:19" ht="18" customHeight="1">
+      <c r="A96" s="8" t="s">
+        <v>143</v>
+      </c>
+      <c r="B96" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="C96" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="D96" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="E96" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="F96" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="G96" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="H96" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="I96" s="13"/>
+      <c r="J96" s="13"/>
+      <c r="K96" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="L96" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="M96" s="13"/>
+      <c r="N96" s="13"/>
+      <c r="O96" s="13"/>
+      <c r="P96" s="13"/>
+      <c r="Q96" s="13"/>
+      <c r="R96" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="S96" s="9" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="97" spans="1:19" ht="18" customHeight="1">
+      <c r="A97" s="8" t="s">
+        <v>144</v>
+      </c>
+      <c r="B97" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="C97" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="D97" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="E97" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="F97" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="G97" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="H97" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="I97" s="13"/>
+      <c r="J97" s="13"/>
+      <c r="K97" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="L97" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="M97" s="13"/>
+      <c r="N97" s="13"/>
+      <c r="O97" s="13"/>
+      <c r="P97" s="13"/>
+      <c r="Q97" s="13"/>
+      <c r="R97" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="S97" s="9" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="98" spans="1:19" ht="18" customHeight="1">
+      <c r="A98" s="8" t="s">
+        <v>145</v>
+      </c>
+      <c r="B98" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="C98" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="D98" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="E98" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="F98" s="13"/>
+      <c r="G98" s="13"/>
+      <c r="H98" s="13"/>
+      <c r="I98" s="13"/>
+      <c r="J98" s="13"/>
+      <c r="K98" s="13"/>
+      <c r="L98" s="13"/>
+      <c r="M98" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="I15" s="16" t="s">
+      <c r="N98" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="J15" s="16" t="s">
+      <c r="O98" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="K15" s="16" t="s">
+      <c r="P98" s="16"/>
+      <c r="Q98" s="16"/>
+      <c r="R98" s="16" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" ht="18" customHeight="1">
-      <c r="A16" s="13" t="s">
+      <c r="S98" s="16"/>
+    </row>
+    <row r="99" spans="1:19" ht="18" customHeight="1">
+      <c r="A99" s="8" t="s">
+        <v>146</v>
+      </c>
+      <c r="B99" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="B16" s="13" t="s">
+      <c r="C99" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="C16" s="13" t="s">
+      <c r="D99" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="D16" s="13" t="s">
+      <c r="E99" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="E16" s="13"/>
-      <c r="F16" s="13"/>
-      <c r="G16" s="13"/>
-      <c r="H16" s="16" t="s">
-        <v>36</v>
-      </c>
-      <c r="I16" s="16" t="s">
+      <c r="F99" s="13"/>
+      <c r="G99" s="13"/>
+      <c r="H99" s="13"/>
+      <c r="I99" s="13"/>
+      <c r="J99" s="13"/>
+      <c r="K99" s="13"/>
+      <c r="L99" s="13"/>
+      <c r="M99" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="N99" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="J16" s="16" t="s">
+      <c r="O99" s="16" t="s">
         <v>53</v>
       </c>
-      <c r="K16" s="16" t="s">
+      <c r="P99" s="16"/>
+      <c r="Q99" s="16"/>
+      <c r="R99" s="16" t="s">
         <v>56</v>
       </c>
+      <c r="S99" s="16"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/template-equivalent-tables.xlsx
+++ b/template-equivalent-tables.xlsx
@@ -15,6 +15,7 @@
     <sheet name="Report" sheetId="1" r:id="rId1"/>
     <sheet name="config" sheetId="2" r:id="rId2"/>
     <sheet name="data" sheetId="3" r:id="rId3"/>
+    <sheet name="Report (2)" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913" iterate="1"/>
   <extLst>
@@ -160,7 +161,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1188" uniqueCount="176">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1897" uniqueCount="175">
   <si>
     <t>range_1</t>
   </si>
@@ -381,9 +382,6 @@
     <t>&lt;#table.CASH_BALANCE&gt;</t>
   </si>
   <si>
-    <t>P13</t>
-  </si>
-  <si>
     <t>&lt;#table.CUSTOMER_CODE&gt;</t>
   </si>
   <si>
@@ -396,9 +394,6 @@
     <t>C9</t>
   </si>
   <si>
-    <t>G9</t>
-  </si>
-  <si>
     <t>F12</t>
   </si>
   <si>
@@ -672,9 +667,6 @@
     <t>F19</t>
   </si>
   <si>
-    <t>J19</t>
-  </si>
-  <si>
     <t>Ngày</t>
   </si>
   <si>
@@ -688,6 +680,12 @@
   </si>
   <si>
     <t>H21</t>
+  </si>
+  <si>
+    <t>P22</t>
+  </si>
+  <si>
+    <t>K16</t>
   </si>
 </sst>
 </file>
@@ -770,7 +768,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="13">
+  <fills count="15">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -840,6 +838,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -994,7 +1004,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="73">
+  <cellXfs count="88">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1082,49 +1092,7 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="12" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="12" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="12" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="8" fillId="12" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="8" fillId="12" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="8" fillId="12" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="8" fillId="12" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="12" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="12" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="12" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="8" fillId="12" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="8" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1132,9 +1100,6 @@
     </xf>
     <xf numFmtId="3" fontId="8" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="8" fillId="12" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="8" fillId="12" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1163,18 +1128,102 @@
     <xf numFmtId="49" fontId="7" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="7" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="8" fillId="12" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="8" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="12" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="12" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="12" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="12" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="12" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="12" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="12" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="8" fillId="12" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="7" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="8" fillId="12" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="8" fillId="12" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="8" fillId="12" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="8" fillId="12" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="8" fillId="12" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1519,10 +1568,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P26"/>
+  <dimension ref="A1:S29"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="W12" sqref="W12"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AC17" sqref="AC17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.88671875" defaultRowHeight="15"/>
@@ -1530,72 +1579,75 @@
     <col min="2" max="3" width="3.88671875" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16">
+    <row r="1" spans="1:19">
       <c r="A1" s="39" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:16">
+    <row r="2" spans="1:19">
       <c r="A2" s="39"/>
     </row>
-    <row r="3" spans="1:16">
+    <row r="3" spans="1:19">
       <c r="A3" s="40" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:16">
+    <row r="5" spans="1:19">
       <c r="A5" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="41" t="s">
+      <c r="B5" s="64" t="s">
         <v>60</v>
       </c>
-      <c r="C5" s="41"/>
-      <c r="D5" s="41"/>
-      <c r="E5" s="41"/>
-      <c r="F5" s="41" t="s">
+      <c r="C5" s="64"/>
+      <c r="D5" s="64"/>
+      <c r="E5" s="64"/>
+      <c r="F5" s="64" t="s">
         <v>61</v>
       </c>
-      <c r="G5" s="41"/>
-      <c r="H5" s="41"/>
-      <c r="I5" s="41"/>
-      <c r="J5" s="41"/>
-      <c r="K5" s="41" t="s">
+      <c r="G5" s="64"/>
+      <c r="H5" s="64"/>
+      <c r="I5" s="64"/>
+      <c r="J5" s="64"/>
+      <c r="K5" s="64" t="s">
         <v>62</v>
       </c>
-      <c r="L5" s="41"/>
-      <c r="M5" s="41"/>
-      <c r="N5" s="41"/>
-      <c r="O5" s="41"/>
-      <c r="P5" s="41"/>
-    </row>
-    <row r="6" spans="1:16">
+      <c r="L5" s="64"/>
+      <c r="M5" s="64"/>
+      <c r="N5" s="64"/>
+      <c r="O5" s="64"/>
+      <c r="P5" s="64"/>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="42" t="s">
+      <c r="B6" s="67" t="s">
+        <v>73</v>
+      </c>
+      <c r="C6" s="68"/>
+      <c r="D6" s="68"/>
+      <c r="E6" s="69"/>
+      <c r="F6" s="67" t="s">
         <v>74</v>
       </c>
-      <c r="C6" s="43"/>
-      <c r="D6" s="43"/>
-      <c r="E6" s="44"/>
-      <c r="F6" s="42" t="s">
+      <c r="G6" s="68"/>
+      <c r="H6" s="68"/>
+      <c r="I6" s="68"/>
+      <c r="J6" s="69"/>
+      <c r="K6" s="67" t="s">
         <v>75</v>
       </c>
-      <c r="G6" s="43"/>
-      <c r="H6" s="43"/>
-      <c r="I6" s="43"/>
-      <c r="J6" s="44"/>
-      <c r="K6" s="42" t="s">
-        <v>76</v>
-      </c>
-      <c r="L6" s="43"/>
-      <c r="M6" s="43"/>
-      <c r="N6" s="43"/>
-      <c r="O6" s="43"/>
-      <c r="P6" s="44"/>
-    </row>
-    <row r="7" spans="1:16">
+      <c r="L6" s="68"/>
+      <c r="M6" s="68"/>
+      <c r="N6" s="68"/>
+      <c r="O6" s="68"/>
+      <c r="P6" s="69"/>
+      <c r="Q6" s="58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="20"/>
       <c r="B7" s="21"/>
       <c r="C7" s="21"/>
@@ -1612,129 +1664,151 @@
       <c r="N7" s="23"/>
       <c r="O7" s="23"/>
       <c r="P7" s="24"/>
-    </row>
-    <row r="8" spans="1:16">
+      <c r="Q7" s="58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="25"/>
       <c r="B8" s="21"/>
       <c r="C8" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="D8" s="53" t="s">
+      <c r="D8" s="61" t="s">
         <v>63</v>
       </c>
-      <c r="E8" s="54"/>
-      <c r="F8" s="55"/>
-      <c r="G8" s="41" t="s">
+      <c r="E8" s="62"/>
+      <c r="F8" s="63"/>
+      <c r="G8" s="64" t="s">
         <v>64</v>
       </c>
-      <c r="H8" s="41"/>
-      <c r="I8" s="41"/>
-      <c r="J8" s="41"/>
-      <c r="K8" s="41"/>
+      <c r="H8" s="64"/>
+      <c r="I8" s="64"/>
+      <c r="J8" s="64"/>
+      <c r="K8" s="64"/>
       <c r="L8" s="23"/>
       <c r="M8" s="23"/>
       <c r="N8" s="23"/>
       <c r="O8" s="23"/>
       <c r="P8" s="26"/>
-    </row>
-    <row r="9" spans="1:16">
+      <c r="Q8" s="58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="25"/>
       <c r="B9" s="21"/>
       <c r="C9" s="27" t="s">
         <v>67</v>
       </c>
-      <c r="D9" s="49" t="s">
+      <c r="D9" s="71" t="s">
         <v>69</v>
       </c>
-      <c r="E9" s="50"/>
-      <c r="F9" s="51"/>
-      <c r="G9" s="52" t="s">
+      <c r="E9" s="72"/>
+      <c r="F9" s="73"/>
+      <c r="G9" s="74" t="s">
         <v>70</v>
       </c>
-      <c r="H9" s="52"/>
-      <c r="I9" s="52"/>
-      <c r="J9" s="52"/>
-      <c r="K9" s="52"/>
+      <c r="H9" s="74"/>
+      <c r="I9" s="74"/>
+      <c r="J9" s="74"/>
+      <c r="K9" s="74"/>
       <c r="L9" s="23"/>
       <c r="M9" s="23"/>
       <c r="N9" s="23"/>
       <c r="O9" s="23"/>
       <c r="P9" s="26"/>
-    </row>
-    <row r="10" spans="1:16">
+      <c r="Q9">
+        <v>1</v>
+      </c>
+      <c r="R9" s="60"/>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="25"/>
       <c r="B10" s="21"/>
       <c r="C10" s="19"/>
-      <c r="D10" s="59"/>
-      <c r="E10" s="59"/>
-      <c r="F10" s="59"/>
-      <c r="G10" s="60"/>
-      <c r="H10" s="60"/>
-      <c r="I10" s="60"/>
-      <c r="J10" s="61"/>
+      <c r="D10" s="44"/>
+      <c r="E10" s="44"/>
+      <c r="F10" s="44"/>
+      <c r="G10" s="45"/>
+      <c r="H10" s="45"/>
+      <c r="I10" s="45"/>
+      <c r="J10" s="46"/>
       <c r="K10" s="24"/>
       <c r="L10" s="23"/>
       <c r="M10" s="23"/>
       <c r="N10" s="23"/>
       <c r="O10" s="23"/>
       <c r="P10" s="26"/>
-    </row>
-    <row r="11" spans="1:16">
+      <c r="Q10">
+        <v>1</v>
+      </c>
+      <c r="R10" s="60"/>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="25"/>
       <c r="B11" s="21"/>
-      <c r="C11" s="64"/>
-      <c r="D11" s="56"/>
-      <c r="E11" s="66" t="s">
+      <c r="C11" s="49"/>
+      <c r="D11" s="42"/>
+      <c r="E11" s="51" t="s">
         <v>9</v>
       </c>
-      <c r="F11" s="67" t="s">
-        <v>97</v>
-      </c>
-      <c r="G11" s="67"/>
-      <c r="H11" s="68" t="s">
+      <c r="F11" s="75" t="s">
+        <v>95</v>
+      </c>
+      <c r="G11" s="75"/>
+      <c r="H11" s="76" t="s">
         <v>64</v>
       </c>
-      <c r="I11" s="68"/>
-      <c r="J11" s="68"/>
+      <c r="I11" s="76"/>
+      <c r="J11" s="76"/>
       <c r="K11" s="26"/>
       <c r="L11" s="23"/>
       <c r="M11" s="23"/>
       <c r="N11" s="23"/>
       <c r="O11" s="23"/>
       <c r="P11" s="26"/>
-    </row>
-    <row r="12" spans="1:16">
+      <c r="Q11">
+        <v>1</v>
+      </c>
+      <c r="R11" s="60"/>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="25"/>
       <c r="B12" s="21"/>
-      <c r="C12" s="64"/>
-      <c r="D12" s="56"/>
+      <c r="C12" s="49"/>
+      <c r="D12" s="42"/>
       <c r="E12" s="38"/>
-      <c r="F12" s="49" t="s">
-        <v>98</v>
-      </c>
-      <c r="G12" s="51"/>
-      <c r="H12" s="46" t="s">
-        <v>99</v>
-      </c>
-      <c r="I12" s="47"/>
-      <c r="J12" s="48"/>
+      <c r="F12" s="71" t="s">
+        <v>96</v>
+      </c>
+      <c r="G12" s="73"/>
+      <c r="H12" s="77" t="s">
+        <v>97</v>
+      </c>
+      <c r="I12" s="78"/>
+      <c r="J12" s="79"/>
       <c r="K12" s="26"/>
       <c r="L12" s="23"/>
       <c r="M12" s="23"/>
       <c r="N12" s="23"/>
       <c r="O12" s="23"/>
       <c r="P12" s="26"/>
-    </row>
-    <row r="13" spans="1:16">
+      <c r="Q12">
+        <v>1</v>
+      </c>
+      <c r="S12" s="59"/>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="25"/>
       <c r="B13" s="21"/>
-      <c r="C13" s="64"/>
-      <c r="D13" s="56"/>
-      <c r="E13" s="56"/>
-      <c r="F13" s="56"/>
-      <c r="G13" s="57"/>
-      <c r="H13" s="57"/>
-      <c r="I13" s="57"/>
+      <c r="C13" s="49"/>
+      <c r="D13" s="42"/>
+      <c r="E13" s="42"/>
+      <c r="F13" s="42"/>
+      <c r="G13" s="43"/>
+      <c r="H13" s="43"/>
+      <c r="I13" s="43"/>
       <c r="J13" s="22"/>
       <c r="K13" s="26"/>
       <c r="L13" s="23"/>
@@ -1742,63 +1816,75 @@
       <c r="N13" s="23"/>
       <c r="O13" s="23"/>
       <c r="P13" s="26"/>
-    </row>
-    <row r="14" spans="1:16">
+      <c r="Q13">
+        <v>1</v>
+      </c>
+      <c r="R13" s="60"/>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="25"/>
       <c r="B14" s="21"/>
-      <c r="C14" s="64"/>
-      <c r="D14" s="56"/>
-      <c r="E14" s="66" t="s">
+      <c r="C14" s="49"/>
+      <c r="D14" s="42"/>
+      <c r="E14" s="51" t="s">
         <v>9</v>
       </c>
-      <c r="F14" s="67" t="s">
-        <v>97</v>
-      </c>
-      <c r="G14" s="67"/>
-      <c r="H14" s="68" t="s">
+      <c r="F14" s="75" t="s">
+        <v>95</v>
+      </c>
+      <c r="G14" s="75"/>
+      <c r="H14" s="76" t="s">
         <v>64</v>
       </c>
-      <c r="I14" s="68"/>
-      <c r="J14" s="68"/>
+      <c r="I14" s="76"/>
+      <c r="J14" s="76"/>
       <c r="K14" s="26"/>
       <c r="L14" s="23"/>
       <c r="M14" s="23"/>
       <c r="N14" s="23"/>
       <c r="O14" s="23"/>
       <c r="P14" s="26"/>
-    </row>
-    <row r="15" spans="1:16">
+      <c r="Q14">
+        <v>1</v>
+      </c>
+      <c r="R14" s="60"/>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="25"/>
       <c r="B15" s="21"/>
-      <c r="C15" s="64"/>
-      <c r="D15" s="56"/>
+      <c r="C15" s="49"/>
+      <c r="D15" s="42"/>
       <c r="E15" s="38"/>
-      <c r="F15" s="49" t="s">
-        <v>98</v>
-      </c>
-      <c r="G15" s="51"/>
-      <c r="H15" s="46" t="s">
-        <v>99</v>
-      </c>
-      <c r="I15" s="47"/>
-      <c r="J15" s="48"/>
+      <c r="F15" s="71" t="s">
+        <v>96</v>
+      </c>
+      <c r="G15" s="73"/>
+      <c r="H15" s="77" t="s">
+        <v>97</v>
+      </c>
+      <c r="I15" s="78"/>
+      <c r="J15" s="79"/>
       <c r="K15" s="26"/>
       <c r="L15" s="23"/>
       <c r="M15" s="23"/>
       <c r="N15" s="23"/>
       <c r="O15" s="23"/>
       <c r="P15" s="26"/>
-    </row>
-    <row r="16" spans="1:16">
+      <c r="Q15">
+        <v>1</v>
+      </c>
+      <c r="S15" s="59"/>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="25"/>
       <c r="B16" s="21"/>
-      <c r="C16" s="65"/>
-      <c r="D16" s="62"/>
-      <c r="E16" s="62"/>
-      <c r="F16" s="62"/>
-      <c r="G16" s="63"/>
-      <c r="H16" s="63"/>
-      <c r="I16" s="63"/>
+      <c r="C16" s="50"/>
+      <c r="D16" s="47"/>
+      <c r="E16" s="47"/>
+      <c r="F16" s="47"/>
+      <c r="G16" s="48"/>
+      <c r="H16" s="48"/>
+      <c r="I16" s="48"/>
       <c r="J16" s="34"/>
       <c r="K16" s="36"/>
       <c r="L16" s="23"/>
@@ -1806,8 +1892,12 @@
       <c r="N16" s="23"/>
       <c r="O16" s="23"/>
       <c r="P16" s="26"/>
-    </row>
-    <row r="17" spans="1:16">
+      <c r="Q16">
+        <v>1</v>
+      </c>
+      <c r="R16" s="60"/>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="25"/>
       <c r="B17" s="21"/>
       <c r="C17" s="21"/>
@@ -1824,8 +1914,11 @@
       <c r="N17" s="23"/>
       <c r="O17" s="23"/>
       <c r="P17" s="26"/>
-    </row>
-    <row r="18" spans="1:16">
+      <c r="Q17" s="58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="25"/>
       <c r="B18" s="21"/>
       <c r="C18" s="29"/>
@@ -1834,22 +1927,25 @@
       <c r="F18" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="G18" s="41" t="s">
+      <c r="G18" s="64" t="s">
         <v>65</v>
       </c>
-      <c r="H18" s="41"/>
-      <c r="I18" s="41"/>
-      <c r="J18" s="41" t="s">
+      <c r="H18" s="64"/>
+      <c r="I18" s="64"/>
+      <c r="J18" s="64" t="s">
         <v>66</v>
       </c>
-      <c r="K18" s="41"/>
-      <c r="L18" s="41"/>
+      <c r="K18" s="64"/>
+      <c r="L18" s="64"/>
       <c r="M18" s="23"/>
       <c r="N18" s="23"/>
       <c r="O18" s="23"/>
       <c r="P18" s="26"/>
-    </row>
-    <row r="19" spans="1:16">
+      <c r="Q18" s="58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="25"/>
       <c r="B19" s="21"/>
       <c r="C19" s="30"/>
@@ -1858,66 +1954,78 @@
       <c r="F19" s="27" t="s">
         <v>68</v>
       </c>
-      <c r="G19" s="45" t="s">
+      <c r="G19" s="70" t="s">
         <v>71</v>
       </c>
-      <c r="H19" s="45"/>
-      <c r="I19" s="45"/>
-      <c r="J19" s="52" t="s">
+      <c r="H19" s="70"/>
+      <c r="I19" s="70"/>
+      <c r="J19" s="74" t="s">
         <v>72</v>
       </c>
-      <c r="K19" s="52"/>
-      <c r="L19" s="52"/>
+      <c r="K19" s="74"/>
+      <c r="L19" s="74"/>
       <c r="M19" s="22"/>
       <c r="N19" s="22"/>
       <c r="O19" s="22"/>
       <c r="P19" s="26"/>
-    </row>
-    <row r="20" spans="1:16">
+      <c r="Q19">
+        <v>1</v>
+      </c>
+      <c r="R19" s="60"/>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="25"/>
       <c r="B20" s="21"/>
       <c r="C20" s="30"/>
       <c r="D20" s="22"/>
       <c r="E20" s="22"/>
-      <c r="F20" s="71"/>
-      <c r="G20" s="70"/>
-      <c r="H20" s="41" t="s">
-        <v>171</v>
-      </c>
-      <c r="I20" s="41"/>
-      <c r="J20" s="41" t="s">
+      <c r="F20" s="54"/>
+      <c r="G20" s="53"/>
+      <c r="H20" s="64" t="s">
+        <v>168</v>
+      </c>
+      <c r="I20" s="64"/>
+      <c r="J20" s="64" t="s">
         <v>66</v>
       </c>
-      <c r="K20" s="41"/>
-      <c r="L20" s="41"/>
+      <c r="K20" s="64"/>
+      <c r="L20" s="64"/>
       <c r="M20" s="22"/>
       <c r="N20" s="22"/>
       <c r="O20" s="22"/>
       <c r="P20" s="26"/>
-    </row>
-    <row r="21" spans="1:16">
+      <c r="Q20">
+        <v>1</v>
+      </c>
+      <c r="R20" s="60"/>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="25"/>
       <c r="B21" s="21"/>
       <c r="C21" s="30"/>
       <c r="D21" s="22"/>
       <c r="E21" s="22"/>
-      <c r="F21" s="72"/>
+      <c r="F21" s="55"/>
       <c r="G21" s="34"/>
-      <c r="H21" s="58" t="s">
-        <v>174</v>
-      </c>
-      <c r="I21" s="69"/>
-      <c r="J21" s="52" t="s">
-        <v>172</v>
-      </c>
-      <c r="K21" s="52"/>
-      <c r="L21" s="52"/>
+      <c r="H21" s="80" t="s">
+        <v>171</v>
+      </c>
+      <c r="I21" s="81"/>
+      <c r="J21" s="74" t="s">
+        <v>169</v>
+      </c>
+      <c r="K21" s="74"/>
+      <c r="L21" s="74"/>
       <c r="M21" s="22"/>
       <c r="N21" s="22"/>
       <c r="O21" s="22"/>
       <c r="P21" s="26"/>
-    </row>
-    <row r="22" spans="1:16">
+      <c r="Q21">
+        <v>1</v>
+      </c>
+      <c r="S21" s="59"/>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="31"/>
       <c r="B22" s="32"/>
       <c r="C22" s="33"/>
@@ -1934,40 +2042,109 @@
       <c r="N22" s="34"/>
       <c r="O22" s="34"/>
       <c r="P22" s="36"/>
-    </row>
-    <row r="23" spans="1:16">
-      <c r="A23" s="17"/>
-      <c r="B23" s="18"/>
-      <c r="C23" s="18"/>
-      <c r="D23" s="17"/>
-    </row>
-    <row r="24" spans="1:16">
-      <c r="A24" s="39" t="s">
+      <c r="Q22" s="58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
+      <c r="A23" s="28"/>
+      <c r="B23" s="21"/>
+      <c r="C23" s="30"/>
+      <c r="D23" s="22"/>
+      <c r="E23" s="22"/>
+      <c r="F23" s="56"/>
+      <c r="G23" s="56"/>
+      <c r="H23" s="56"/>
+      <c r="I23" s="56"/>
+      <c r="J23" s="56"/>
+      <c r="K23" s="56"/>
+      <c r="L23" s="56"/>
+      <c r="M23" s="22"/>
+      <c r="N23" s="22"/>
+      <c r="O23" s="22"/>
+      <c r="P23" s="22"/>
+    </row>
+    <row r="24" spans="1:19">
+      <c r="A24" s="37" t="s">
+        <v>9</v>
+      </c>
+      <c r="B24" s="61" t="s">
+        <v>63</v>
+      </c>
+      <c r="C24" s="62"/>
+      <c r="D24" s="63"/>
+      <c r="E24" s="61" t="s">
+        <v>64</v>
+      </c>
+      <c r="F24" s="62"/>
+      <c r="G24" s="62"/>
+      <c r="H24" s="62"/>
+      <c r="I24" s="63"/>
+      <c r="J24" s="56"/>
+      <c r="K24" s="56"/>
+      <c r="L24" s="56"/>
+      <c r="M24" s="22"/>
+      <c r="N24" s="22"/>
+      <c r="O24" s="22"/>
+      <c r="P24" s="22"/>
+    </row>
+    <row r="25" spans="1:19">
+      <c r="A25" s="57"/>
+      <c r="B25" s="85"/>
+      <c r="C25" s="86"/>
+      <c r="D25" s="87"/>
+      <c r="E25" s="82"/>
+      <c r="F25" s="83"/>
+      <c r="G25" s="83"/>
+      <c r="H25" s="83"/>
+      <c r="I25" s="84"/>
+      <c r="J25" s="56"/>
+      <c r="K25" s="56"/>
+      <c r="L25" s="56"/>
+      <c r="M25" s="22"/>
+      <c r="N25" s="22"/>
+      <c r="O25" s="22"/>
+      <c r="P25" s="22"/>
+    </row>
+    <row r="26" spans="1:19">
+      <c r="A26" s="17"/>
+      <c r="B26" s="18"/>
+      <c r="C26" s="18"/>
+      <c r="D26" s="17"/>
+    </row>
+    <row r="27" spans="1:19">
+      <c r="A27" s="39" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="25" spans="1:16">
-      <c r="A25" s="39"/>
-    </row>
-    <row r="26" spans="1:16">
-      <c r="A26" s="39" t="s">
+    <row r="28" spans="1:19">
+      <c r="A28" s="39"/>
+    </row>
+    <row r="29" spans="1:19">
+      <c r="A29" s="39" t="s">
         <v>8</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="26">
+  <mergeCells count="30">
+    <mergeCell ref="F14:G14"/>
+    <mergeCell ref="H14:J14"/>
     <mergeCell ref="J21:L21"/>
     <mergeCell ref="H21:I21"/>
     <mergeCell ref="F15:G15"/>
     <mergeCell ref="H15:J15"/>
     <mergeCell ref="H20:I20"/>
     <mergeCell ref="J20:L20"/>
+    <mergeCell ref="G9:K9"/>
+    <mergeCell ref="G8:K8"/>
     <mergeCell ref="F11:G11"/>
     <mergeCell ref="H11:J11"/>
     <mergeCell ref="H12:J12"/>
     <mergeCell ref="F12:G12"/>
-    <mergeCell ref="F14:G14"/>
-    <mergeCell ref="H14:J14"/>
+    <mergeCell ref="B24:D24"/>
+    <mergeCell ref="E24:I24"/>
+    <mergeCell ref="E25:I25"/>
+    <mergeCell ref="B25:D25"/>
     <mergeCell ref="K5:P5"/>
     <mergeCell ref="K6:P6"/>
     <mergeCell ref="F6:J6"/>
@@ -1980,8 +2157,6 @@
     <mergeCell ref="B5:E5"/>
     <mergeCell ref="F5:J5"/>
     <mergeCell ref="D8:F8"/>
-    <mergeCell ref="G9:K9"/>
-    <mergeCell ref="G8:K8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
@@ -1990,10 +2165,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E10"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="15.75"/>
@@ -2048,7 +2223,7 @@
         <v>10</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>73</v>
+        <v>173</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>17</v>
@@ -2060,46 +2235,46 @@
         <v>0</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>78</v>
+        <v>174</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>20</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="3" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D7" s="1"/>
       <c r="E7" s="1" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="3" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D8" s="1"/>
       <c r="E8" s="1" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -2107,30 +2282,37 @@
         <v>0</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>16</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="3" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>170</v>
       </c>
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="3"/>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -2142,10 +2324,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S99"/>
+  <dimension ref="A1:S153"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14:XFD14"/>
+      <selection activeCell="N4" sqref="N4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1"/>
@@ -2171,7 +2353,7 @@
   <sheetData>
     <row r="1" spans="1:19" s="5" customFormat="1" ht="18" customHeight="1">
       <c r="A1" s="7" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B1" s="7" t="s">
         <v>15</v>
@@ -2195,16 +2377,16 @@
         <v>21</v>
       </c>
       <c r="I1" s="7" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="J1" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="K1" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="L1" s="7" t="s">
         <v>84</v>
-      </c>
-      <c r="K1" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="L1" s="7" t="s">
-        <v>86</v>
       </c>
       <c r="M1" s="7" t="s">
         <v>59</v>
@@ -2216,16 +2398,16 @@
         <v>22</v>
       </c>
       <c r="P1" s="7" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="Q1" s="7" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="R1" s="7" t="s">
         <v>54</v>
       </c>
       <c r="S1" s="7" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="2" spans="1:19" ht="18" customHeight="1">
@@ -2254,10 +2436,10 @@
         <v>27</v>
       </c>
       <c r="I2" s="14" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="J2" s="14" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="K2" s="8"/>
       <c r="L2" s="8"/>
@@ -2270,7 +2452,7 @@
         <v>55</v>
       </c>
       <c r="S2" s="14" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="3" spans="1:19" ht="18" customHeight="1">
@@ -2299,10 +2481,10 @@
         <v>27</v>
       </c>
       <c r="I3" s="14" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="J3" s="14" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="K3" s="8"/>
       <c r="L3" s="8"/>
@@ -2315,7 +2497,7 @@
         <v>55</v>
       </c>
       <c r="S3" s="14" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="4" spans="1:19" ht="18" customHeight="1">
@@ -2346,10 +2528,10 @@
       <c r="I4" s="8"/>
       <c r="J4" s="8"/>
       <c r="K4" s="14" t="s">
+        <v>85</v>
+      </c>
+      <c r="L4" s="14" t="s">
         <v>87</v>
-      </c>
-      <c r="L4" s="14" t="s">
-        <v>89</v>
       </c>
       <c r="M4" s="8"/>
       <c r="N4" s="8"/>
@@ -2360,12 +2542,12 @@
         <v>55</v>
       </c>
       <c r="S4" s="14" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="5" spans="1:19" ht="18" customHeight="1">
       <c r="A5" s="8" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B5" s="8">
         <v>1</v>
@@ -2391,10 +2573,10 @@
       <c r="I5" s="8"/>
       <c r="J5" s="8"/>
       <c r="K5" s="14" t="s">
+        <v>86</v>
+      </c>
+      <c r="L5" s="14" t="s">
         <v>88</v>
-      </c>
-      <c r="L5" s="14" t="s">
-        <v>90</v>
       </c>
       <c r="M5" s="8"/>
       <c r="N5" s="8"/>
@@ -2405,12 +2587,12 @@
         <v>55</v>
       </c>
       <c r="S5" s="14" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="6" spans="1:19" ht="18" customHeight="1">
       <c r="A6" s="8" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B6" s="8">
         <v>1</v>
@@ -2434,10 +2616,10 @@
         <v>29</v>
       </c>
       <c r="I6" s="14" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="J6" s="14" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="K6" s="8"/>
       <c r="L6" s="8"/>
@@ -2450,12 +2632,12 @@
         <v>55</v>
       </c>
       <c r="S6" s="14" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="7" spans="1:19" ht="18" customHeight="1">
       <c r="A7" s="8" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B7" s="8">
         <v>1</v>
@@ -2479,10 +2661,10 @@
         <v>29</v>
       </c>
       <c r="I7" s="14" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="J7" s="14" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="K7" s="8"/>
       <c r="L7" s="8"/>
@@ -2495,12 +2677,12 @@
         <v>55</v>
       </c>
       <c r="S7" s="14" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="8" spans="1:19" ht="18" customHeight="1">
       <c r="A8" s="8" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B8" s="8">
         <v>1</v>
@@ -2526,10 +2708,10 @@
       <c r="I8" s="8"/>
       <c r="J8" s="8"/>
       <c r="K8" s="14" t="s">
+        <v>85</v>
+      </c>
+      <c r="L8" s="14" t="s">
         <v>87</v>
-      </c>
-      <c r="L8" s="14" t="s">
-        <v>89</v>
       </c>
       <c r="M8" s="8"/>
       <c r="N8" s="8"/>
@@ -2540,12 +2722,12 @@
         <v>55</v>
       </c>
       <c r="S8" s="14" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="9" spans="1:19" ht="18" customHeight="1">
       <c r="A9" s="8" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B9" s="8">
         <v>1</v>
@@ -2571,10 +2753,10 @@
       <c r="I9" s="8"/>
       <c r="J9" s="8"/>
       <c r="K9" s="14" t="s">
+        <v>86</v>
+      </c>
+      <c r="L9" s="14" t="s">
         <v>88</v>
-      </c>
-      <c r="L9" s="14" t="s">
-        <v>90</v>
       </c>
       <c r="M9" s="8"/>
       <c r="N9" s="8"/>
@@ -2585,12 +2767,12 @@
         <v>55</v>
       </c>
       <c r="S9" s="14" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="10" spans="1:19" ht="18" customHeight="1">
       <c r="A10" s="8" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B10" s="8">
         <v>1</v>
@@ -2614,10 +2796,10 @@
         <v>31</v>
       </c>
       <c r="I10" s="14" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="J10" s="14" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="K10" s="8"/>
       <c r="L10" s="8"/>
@@ -2630,12 +2812,12 @@
         <v>55</v>
       </c>
       <c r="S10" s="14" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="11" spans="1:19" ht="18" customHeight="1">
       <c r="A11" s="8" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B11" s="8">
         <v>1</v>
@@ -2659,10 +2841,10 @@
         <v>31</v>
       </c>
       <c r="I11" s="14" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="J11" s="14" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="K11" s="8"/>
       <c r="L11" s="8"/>
@@ -2675,12 +2857,12 @@
         <v>55</v>
       </c>
       <c r="S11" s="14" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="12" spans="1:19" ht="18" customHeight="1">
       <c r="A12" s="8" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B12" s="8">
         <v>1</v>
@@ -2706,10 +2888,10 @@
       <c r="I12" s="8"/>
       <c r="J12" s="8"/>
       <c r="K12" s="14" t="s">
+        <v>85</v>
+      </c>
+      <c r="L12" s="14" t="s">
         <v>87</v>
-      </c>
-      <c r="L12" s="14" t="s">
-        <v>89</v>
       </c>
       <c r="M12" s="8"/>
       <c r="N12" s="8"/>
@@ -2720,12 +2902,12 @@
         <v>55</v>
       </c>
       <c r="S12" s="14" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="13" spans="1:19" ht="18" customHeight="1">
       <c r="A13" s="8" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B13" s="8">
         <v>1</v>
@@ -2751,10 +2933,10 @@
       <c r="I13" s="8"/>
       <c r="J13" s="8"/>
       <c r="K13" s="14" t="s">
+        <v>86</v>
+      </c>
+      <c r="L13" s="14" t="s">
         <v>88</v>
-      </c>
-      <c r="L13" s="14" t="s">
-        <v>90</v>
       </c>
       <c r="M13" s="8"/>
       <c r="N13" s="8"/>
@@ -2765,12 +2947,12 @@
         <v>55</v>
       </c>
       <c r="S13" s="14" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="14" spans="1:19" ht="18" customHeight="1">
       <c r="A14" s="8" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B14" s="8">
         <v>1</v>
@@ -2801,10 +2983,10 @@
         <v>35</v>
       </c>
       <c r="P14" s="15" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="Q14" s="15" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="R14" s="15" t="s">
         <v>56</v>
@@ -2813,7 +2995,7 @@
     </row>
     <row r="15" spans="1:19" ht="18" customHeight="1">
       <c r="A15" s="8" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B15" s="8">
         <v>1</v>
@@ -2844,10 +3026,10 @@
         <v>35</v>
       </c>
       <c r="P15" s="15" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="Q15" s="15" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="R15" s="15" t="s">
         <v>56</v>
@@ -2856,7 +3038,7 @@
     </row>
     <row r="16" spans="1:19" ht="18" customHeight="1">
       <c r="A16" s="8" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B16" s="8">
         <v>1</v>
@@ -2887,10 +3069,10 @@
         <v>35</v>
       </c>
       <c r="P16" s="15" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="Q16" s="15" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="R16" s="15" t="s">
         <v>56</v>
@@ -2899,7 +3081,7 @@
     </row>
     <row r="17" spans="1:19" ht="18" customHeight="1">
       <c r="A17" s="8" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B17" s="8">
         <v>1</v>
@@ -2930,10 +3112,10 @@
         <v>34</v>
       </c>
       <c r="P17" s="15" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="Q17" s="15" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="R17" s="15" t="s">
         <v>56</v>
@@ -2942,7 +3124,7 @@
     </row>
     <row r="18" spans="1:19" ht="18" customHeight="1">
       <c r="A18" s="8" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B18" s="8">
         <v>1</v>
@@ -2973,10 +3155,10 @@
         <v>34</v>
       </c>
       <c r="P18" s="15" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="Q18" s="15" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="R18" s="15" t="s">
         <v>56</v>
@@ -2985,7 +3167,7 @@
     </row>
     <row r="19" spans="1:19" ht="18" customHeight="1">
       <c r="A19" s="8" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B19" s="8">
         <v>1</v>
@@ -3016,10 +3198,10 @@
         <v>34</v>
       </c>
       <c r="P19" s="15" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="Q19" s="15" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="R19" s="15" t="s">
         <v>56</v>
@@ -3028,7 +3210,7 @@
     </row>
     <row r="20" spans="1:19" ht="18" customHeight="1">
       <c r="A20" s="8" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B20" s="11" t="s">
         <v>36</v>
@@ -3052,10 +3234,10 @@
         <v>40</v>
       </c>
       <c r="I20" s="10" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="J20" s="10" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="K20" s="11"/>
       <c r="L20" s="11"/>
@@ -3068,12 +3250,12 @@
         <v>55</v>
       </c>
       <c r="S20" s="10" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="21" spans="1:19" ht="18" customHeight="1">
       <c r="A21" s="8" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B21" s="11" t="s">
         <v>36</v>
@@ -3097,10 +3279,10 @@
         <v>40</v>
       </c>
       <c r="I21" s="10" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="J21" s="10" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="K21" s="11"/>
       <c r="L21" s="11"/>
@@ -3113,12 +3295,12 @@
         <v>55</v>
       </c>
       <c r="S21" s="10" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="22" spans="1:19" ht="18" customHeight="1">
       <c r="A22" s="8" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B22" s="11" t="s">
         <v>36</v>
@@ -3144,10 +3326,10 @@
       <c r="I22" s="11"/>
       <c r="J22" s="11"/>
       <c r="K22" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="L22" s="10" t="s">
         <v>87</v>
-      </c>
-      <c r="L22" s="10" t="s">
-        <v>89</v>
       </c>
       <c r="M22" s="11"/>
       <c r="N22" s="11"/>
@@ -3158,12 +3340,12 @@
         <v>55</v>
       </c>
       <c r="S22" s="10" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="23" spans="1:19" ht="18" customHeight="1">
       <c r="A23" s="8" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B23" s="11" t="s">
         <v>36</v>
@@ -3189,10 +3371,10 @@
       <c r="I23" s="11"/>
       <c r="J23" s="11"/>
       <c r="K23" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="L23" s="10" t="s">
         <v>88</v>
-      </c>
-      <c r="L23" s="10" t="s">
-        <v>90</v>
       </c>
       <c r="M23" s="11"/>
       <c r="N23" s="11"/>
@@ -3203,12 +3385,12 @@
         <v>55</v>
       </c>
       <c r="S23" s="10" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="24" spans="1:19" ht="18" customHeight="1">
       <c r="A24" s="8" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B24" s="11" t="s">
         <v>36</v>
@@ -3232,10 +3414,10 @@
         <v>41</v>
       </c>
       <c r="I24" s="10" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="J24" s="10" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="K24" s="11"/>
       <c r="L24" s="11"/>
@@ -3248,12 +3430,12 @@
         <v>55</v>
       </c>
       <c r="S24" s="10" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="25" spans="1:19" ht="18" customHeight="1">
       <c r="A25" s="8" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B25" s="11" t="s">
         <v>36</v>
@@ -3277,10 +3459,10 @@
         <v>41</v>
       </c>
       <c r="I25" s="10" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="J25" s="10" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="K25" s="11"/>
       <c r="L25" s="11"/>
@@ -3293,12 +3475,12 @@
         <v>55</v>
       </c>
       <c r="S25" s="10" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="26" spans="1:19" ht="18" customHeight="1">
       <c r="A26" s="8" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B26" s="11" t="s">
         <v>36</v>
@@ -3324,10 +3506,10 @@
       <c r="I26" s="11"/>
       <c r="J26" s="11"/>
       <c r="K26" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="L26" s="10" t="s">
         <v>87</v>
-      </c>
-      <c r="L26" s="10" t="s">
-        <v>89</v>
       </c>
       <c r="M26" s="11"/>
       <c r="N26" s="11"/>
@@ -3338,12 +3520,12 @@
         <v>55</v>
       </c>
       <c r="S26" s="10" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="27" spans="1:19" ht="18" customHeight="1">
       <c r="A27" s="8" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B27" s="11" t="s">
         <v>36</v>
@@ -3369,10 +3551,10 @@
       <c r="I27" s="11"/>
       <c r="J27" s="11"/>
       <c r="K27" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="L27" s="10" t="s">
         <v>88</v>
-      </c>
-      <c r="L27" s="10" t="s">
-        <v>90</v>
       </c>
       <c r="M27" s="11"/>
       <c r="N27" s="11"/>
@@ -3383,12 +3565,12 @@
         <v>55</v>
       </c>
       <c r="S27" s="10" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="28" spans="1:19" ht="18" customHeight="1">
       <c r="A28" s="8" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B28" s="11" t="s">
         <v>36</v>
@@ -3412,10 +3594,10 @@
         <v>42</v>
       </c>
       <c r="I28" s="10" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="J28" s="10" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="K28" s="11"/>
       <c r="L28" s="11"/>
@@ -3428,12 +3610,12 @@
         <v>55</v>
       </c>
       <c r="S28" s="10" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="29" spans="1:19" ht="18" customHeight="1">
       <c r="A29" s="8" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B29" s="11" t="s">
         <v>36</v>
@@ -3457,10 +3639,10 @@
         <v>42</v>
       </c>
       <c r="I29" s="10" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="J29" s="10" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="K29" s="11"/>
       <c r="L29" s="11"/>
@@ -3473,12 +3655,12 @@
         <v>55</v>
       </c>
       <c r="S29" s="10" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="30" spans="1:19" ht="18" customHeight="1">
       <c r="A30" s="8" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B30" s="11" t="s">
         <v>36</v>
@@ -3504,10 +3686,10 @@
       <c r="I30" s="11"/>
       <c r="J30" s="11"/>
       <c r="K30" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="L30" s="10" t="s">
         <v>87</v>
-      </c>
-      <c r="L30" s="10" t="s">
-        <v>89</v>
       </c>
       <c r="M30" s="11"/>
       <c r="N30" s="11"/>
@@ -3518,12 +3700,12 @@
         <v>55</v>
       </c>
       <c r="S30" s="10" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="31" spans="1:19" ht="18" customHeight="1">
       <c r="A31" s="8" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B31" s="11" t="s">
         <v>36</v>
@@ -3549,10 +3731,10 @@
       <c r="I31" s="11"/>
       <c r="J31" s="11"/>
       <c r="K31" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="L31" s="10" t="s">
         <v>88</v>
-      </c>
-      <c r="L31" s="10" t="s">
-        <v>90</v>
       </c>
       <c r="M31" s="11"/>
       <c r="N31" s="11"/>
@@ -3563,12 +3745,12 @@
         <v>55</v>
       </c>
       <c r="S31" s="10" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="32" spans="1:19" ht="18" customHeight="1">
       <c r="A32" s="8" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B32" s="11" t="s">
         <v>36</v>
@@ -3599,10 +3781,10 @@
         <v>35</v>
       </c>
       <c r="P32" s="12" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="Q32" s="12" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="R32" s="12" t="s">
         <v>56</v>
@@ -3611,7 +3793,7 @@
     </row>
     <row r="33" spans="1:19" ht="18" customHeight="1">
       <c r="A33" s="8" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B33" s="11" t="s">
         <v>36</v>
@@ -3642,10 +3824,10 @@
         <v>35</v>
       </c>
       <c r="P33" s="12" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="Q33" s="12" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="R33" s="12" t="s">
         <v>56</v>
@@ -3654,7 +3836,7 @@
     </row>
     <row r="34" spans="1:19" ht="18" customHeight="1">
       <c r="A34" s="8" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B34" s="11" t="s">
         <v>36</v>
@@ -3685,10 +3867,10 @@
         <v>35</v>
       </c>
       <c r="P34" s="12" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="Q34" s="12" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="R34" s="12" t="s">
         <v>56</v>
@@ -3697,7 +3879,7 @@
     </row>
     <row r="35" spans="1:19" ht="18" customHeight="1">
       <c r="A35" s="8" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B35" s="11" t="s">
         <v>36</v>
@@ -3728,10 +3910,10 @@
         <v>34</v>
       </c>
       <c r="P35" s="12" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="Q35" s="12" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="R35" s="12" t="s">
         <v>56</v>
@@ -3740,7 +3922,7 @@
     </row>
     <row r="36" spans="1:19" ht="18" customHeight="1">
       <c r="A36" s="8" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B36" s="11" t="s">
         <v>36</v>
@@ -3771,10 +3953,10 @@
         <v>34</v>
       </c>
       <c r="P36" s="12" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="Q36" s="12" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="R36" s="12" t="s">
         <v>56</v>
@@ -3783,7 +3965,7 @@
     </row>
     <row r="37" spans="1:19" ht="18" customHeight="1">
       <c r="A37" s="8" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B37" s="11" t="s">
         <v>36</v>
@@ -3814,10 +3996,10 @@
         <v>34</v>
       </c>
       <c r="P37" s="12" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="Q37" s="12" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="R37" s="12" t="s">
         <v>56</v>
@@ -3826,7 +4008,7 @@
     </row>
     <row r="38" spans="1:19" ht="18" customHeight="1">
       <c r="A38" s="8" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B38" s="13" t="s">
         <v>45</v>
@@ -3850,10 +4032,10 @@
         <v>49</v>
       </c>
       <c r="I38" s="9" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="J38" s="9" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="K38" s="13"/>
       <c r="L38" s="13"/>
@@ -3866,12 +4048,12 @@
         <v>55</v>
       </c>
       <c r="S38" s="9" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="39" spans="1:19" ht="18" customHeight="1">
       <c r="A39" s="8" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B39" s="13" t="s">
         <v>45</v>
@@ -3895,10 +4077,10 @@
         <v>49</v>
       </c>
       <c r="I39" s="9" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="J39" s="9" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="K39" s="13"/>
       <c r="L39" s="13"/>
@@ -3911,12 +4093,12 @@
         <v>55</v>
       </c>
       <c r="S39" s="9" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="40" spans="1:19" ht="18" customHeight="1">
       <c r="A40" s="8" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B40" s="13" t="s">
         <v>45</v>
@@ -3942,10 +4124,10 @@
       <c r="I40" s="13"/>
       <c r="J40" s="13"/>
       <c r="K40" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="L40" s="9" t="s">
         <v>87</v>
-      </c>
-      <c r="L40" s="9" t="s">
-        <v>89</v>
       </c>
       <c r="M40" s="13"/>
       <c r="N40" s="13"/>
@@ -3956,12 +4138,12 @@
         <v>55</v>
       </c>
       <c r="S40" s="9" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="41" spans="1:19" ht="18" customHeight="1">
       <c r="A41" s="8" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B41" s="13" t="s">
         <v>45</v>
@@ -3987,10 +4169,10 @@
       <c r="I41" s="13"/>
       <c r="J41" s="13"/>
       <c r="K41" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="L41" s="9" t="s">
         <v>88</v>
-      </c>
-      <c r="L41" s="9" t="s">
-        <v>90</v>
       </c>
       <c r="M41" s="13"/>
       <c r="N41" s="13"/>
@@ -4001,12 +4183,12 @@
         <v>55</v>
       </c>
       <c r="S41" s="9" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="42" spans="1:19" ht="18" customHeight="1">
       <c r="A42" s="8" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B42" s="13" t="s">
         <v>45</v>
@@ -4030,10 +4212,10 @@
         <v>50</v>
       </c>
       <c r="I42" s="9" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="J42" s="9" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="K42" s="13"/>
       <c r="L42" s="13"/>
@@ -4046,12 +4228,12 @@
         <v>55</v>
       </c>
       <c r="S42" s="9" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="43" spans="1:19" ht="18" customHeight="1">
       <c r="A43" s="8" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B43" s="13" t="s">
         <v>45</v>
@@ -4075,10 +4257,10 @@
         <v>50</v>
       </c>
       <c r="I43" s="9" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="J43" s="9" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="K43" s="13"/>
       <c r="L43" s="13"/>
@@ -4091,12 +4273,12 @@
         <v>55</v>
       </c>
       <c r="S43" s="9" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="44" spans="1:19" ht="18" customHeight="1">
       <c r="A44" s="8" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B44" s="13" t="s">
         <v>45</v>
@@ -4122,10 +4304,10 @@
       <c r="I44" s="13"/>
       <c r="J44" s="13"/>
       <c r="K44" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="L44" s="9" t="s">
         <v>87</v>
-      </c>
-      <c r="L44" s="9" t="s">
-        <v>89</v>
       </c>
       <c r="M44" s="13"/>
       <c r="N44" s="13"/>
@@ -4136,12 +4318,12 @@
         <v>55</v>
       </c>
       <c r="S44" s="9" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="45" spans="1:19" ht="18" customHeight="1">
       <c r="A45" s="8" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B45" s="13" t="s">
         <v>45</v>
@@ -4167,10 +4349,10 @@
       <c r="I45" s="13"/>
       <c r="J45" s="13"/>
       <c r="K45" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="L45" s="9" t="s">
         <v>88</v>
-      </c>
-      <c r="L45" s="9" t="s">
-        <v>90</v>
       </c>
       <c r="M45" s="13"/>
       <c r="N45" s="13"/>
@@ -4181,12 +4363,12 @@
         <v>55</v>
       </c>
       <c r="S45" s="9" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="46" spans="1:19" ht="18" customHeight="1">
       <c r="A46" s="8" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B46" s="13" t="s">
         <v>45</v>
@@ -4210,10 +4392,10 @@
         <v>51</v>
       </c>
       <c r="I46" s="9" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="J46" s="9" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="K46" s="13"/>
       <c r="L46" s="13"/>
@@ -4226,12 +4408,12 @@
         <v>55</v>
       </c>
       <c r="S46" s="9" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="47" spans="1:19" ht="18" customHeight="1">
       <c r="A47" s="8" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B47" s="13" t="s">
         <v>45</v>
@@ -4255,10 +4437,10 @@
         <v>51</v>
       </c>
       <c r="I47" s="9" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="J47" s="9" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="K47" s="13"/>
       <c r="L47" s="13"/>
@@ -4271,12 +4453,12 @@
         <v>55</v>
       </c>
       <c r="S47" s="9" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="48" spans="1:19" ht="18" customHeight="1">
       <c r="A48" s="8" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B48" s="13" t="s">
         <v>45</v>
@@ -4302,10 +4484,10 @@
       <c r="I48" s="13"/>
       <c r="J48" s="13"/>
       <c r="K48" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="L48" s="9" t="s">
         <v>87</v>
-      </c>
-      <c r="L48" s="9" t="s">
-        <v>89</v>
       </c>
       <c r="M48" s="13"/>
       <c r="N48" s="13"/>
@@ -4316,12 +4498,12 @@
         <v>55</v>
       </c>
       <c r="S48" s="9" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="49" spans="1:19" ht="18" customHeight="1">
       <c r="A49" s="8" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B49" s="13" t="s">
         <v>45</v>
@@ -4347,10 +4529,10 @@
       <c r="I49" s="13"/>
       <c r="J49" s="13"/>
       <c r="K49" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="L49" s="9" t="s">
         <v>88</v>
-      </c>
-      <c r="L49" s="9" t="s">
-        <v>90</v>
       </c>
       <c r="M49" s="13"/>
       <c r="N49" s="13"/>
@@ -4361,12 +4543,12 @@
         <v>55</v>
       </c>
       <c r="S49" s="9" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="50" spans="1:19" ht="18" customHeight="1">
       <c r="A50" s="8" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B50" s="13" t="s">
         <v>45</v>
@@ -4397,10 +4579,10 @@
         <v>35</v>
       </c>
       <c r="P50" s="16" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="Q50" s="16" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="R50" s="16" t="s">
         <v>56</v>
@@ -4409,7 +4591,7 @@
     </row>
     <row r="51" spans="1:19" ht="18" customHeight="1">
       <c r="A51" s="8" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B51" s="13" t="s">
         <v>45</v>
@@ -4440,10 +4622,10 @@
         <v>35</v>
       </c>
       <c r="P51" s="16" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="Q51" s="16" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="R51" s="16" t="s">
         <v>56</v>
@@ -4452,7 +4634,7 @@
     </row>
     <row r="52" spans="1:19" ht="18" customHeight="1">
       <c r="A52" s="8" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="B52" s="13" t="s">
         <v>45</v>
@@ -4483,10 +4665,10 @@
         <v>35</v>
       </c>
       <c r="P52" s="16" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="Q52" s="16" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="R52" s="16" t="s">
         <v>56</v>
@@ -4495,7 +4677,7 @@
     </row>
     <row r="53" spans="1:19" ht="18" customHeight="1">
       <c r="A53" s="8" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="B53" s="13" t="s">
         <v>45</v>
@@ -4526,10 +4708,10 @@
         <v>34</v>
       </c>
       <c r="P53" s="16" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="Q53" s="16" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="R53" s="16" t="s">
         <v>56</v>
@@ -4538,7 +4720,7 @@
     </row>
     <row r="54" spans="1:19" ht="18" customHeight="1">
       <c r="A54" s="8" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B54" s="13" t="s">
         <v>45</v>
@@ -4569,10 +4751,10 @@
         <v>34</v>
       </c>
       <c r="P54" s="16" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="Q54" s="16" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="R54" s="16" t="s">
         <v>56</v>
@@ -4581,7 +4763,7 @@
     </row>
     <row r="55" spans="1:19" ht="18" customHeight="1">
       <c r="A55" s="8" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B55" s="13" t="s">
         <v>45</v>
@@ -4612,74 +4794,109 @@
         <v>34</v>
       </c>
       <c r="P55" s="16" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="Q55" s="16" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="R55" s="16" t="s">
         <v>56</v>
       </c>
       <c r="S55" s="16"/>
     </row>
+    <row r="56" spans="1:19" ht="18" customHeight="1">
+      <c r="A56" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="B56" s="8">
+        <v>1</v>
+      </c>
+      <c r="C56" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D56" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="E56" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="F56" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="G56" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="H56" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="I56" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="J56" s="14" t="s">
+        <v>80</v>
+      </c>
+      <c r="K56" s="8"/>
+      <c r="L56" s="8"/>
+      <c r="M56" s="8"/>
+      <c r="N56" s="8"/>
+      <c r="O56" s="8"/>
+      <c r="P56" s="8"/>
+      <c r="Q56" s="8"/>
+      <c r="R56" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="S56" s="14" t="s">
+        <v>90</v>
+      </c>
+    </row>
     <row r="57" spans="1:19" ht="18" customHeight="1">
-      <c r="A57" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="B57" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="C57" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="D57" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="E57" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F57" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="G57" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="H57" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="I57" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="J57" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="K57" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="L57" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="M57" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="N57" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="O57" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="P57" s="7"/>
-      <c r="Q57" s="7"/>
-      <c r="R57" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="S57" s="7" t="s">
-        <v>91</v>
+      <c r="A57" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="B57" s="8">
+        <v>1</v>
+      </c>
+      <c r="C57" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D57" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="E57" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="F57" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="G57" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="H57" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="I57" s="14" t="s">
+        <v>104</v>
+      </c>
+      <c r="J57" s="14" t="s">
+        <v>81</v>
+      </c>
+      <c r="K57" s="8"/>
+      <c r="L57" s="8"/>
+      <c r="M57" s="8"/>
+      <c r="N57" s="8"/>
+      <c r="O57" s="8"/>
+      <c r="P57" s="8"/>
+      <c r="Q57" s="8"/>
+      <c r="R57" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="S57" s="14" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="58" spans="1:19" ht="18" customHeight="1">
-      <c r="A58" s="8">
-        <v>1</v>
+      <c r="A58" s="8" t="s">
+        <v>45</v>
       </c>
       <c r="B58" s="8">
         <v>1</v>
@@ -4702,14 +4919,14 @@
       <c r="H58" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="I58" s="14" t="s">
-        <v>105</v>
-      </c>
-      <c r="J58" s="14" t="s">
-        <v>82</v>
-      </c>
-      <c r="K58" s="8"/>
-      <c r="L58" s="8"/>
+      <c r="I58" s="8"/>
+      <c r="J58" s="8"/>
+      <c r="K58" s="14" t="s">
+        <v>85</v>
+      </c>
+      <c r="L58" s="14" t="s">
+        <v>87</v>
+      </c>
       <c r="M58" s="8"/>
       <c r="N58" s="8"/>
       <c r="O58" s="8"/>
@@ -4719,12 +4936,12 @@
         <v>55</v>
       </c>
       <c r="S58" s="14" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="59" spans="1:19" ht="18" customHeight="1">
       <c r="A59" s="8" t="s">
-        <v>36</v>
+        <v>106</v>
       </c>
       <c r="B59" s="8">
         <v>1</v>
@@ -4747,14 +4964,14 @@
       <c r="H59" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="I59" s="14" t="s">
-        <v>106</v>
-      </c>
-      <c r="J59" s="14" t="s">
-        <v>83</v>
-      </c>
-      <c r="K59" s="8"/>
-      <c r="L59" s="8"/>
+      <c r="I59" s="8"/>
+      <c r="J59" s="8"/>
+      <c r="K59" s="14" t="s">
+        <v>86</v>
+      </c>
+      <c r="L59" s="14" t="s">
+        <v>88</v>
+      </c>
       <c r="M59" s="8"/>
       <c r="N59" s="8"/>
       <c r="O59" s="8"/>
@@ -4764,12 +4981,12 @@
         <v>55</v>
       </c>
       <c r="S59" s="14" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="60" spans="1:19" ht="18" customHeight="1">
       <c r="A60" s="8" t="s">
-        <v>45</v>
+        <v>107</v>
       </c>
       <c r="B60" s="8">
         <v>1</v>
@@ -4784,22 +5001,22 @@
         <v>25</v>
       </c>
       <c r="F60" s="14" t="s">
-        <v>58</v>
+        <v>36</v>
       </c>
       <c r="G60" s="14" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="H60" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="I60" s="8"/>
-      <c r="J60" s="8"/>
-      <c r="K60" s="14" t="s">
-        <v>87</v>
-      </c>
-      <c r="L60" s="14" t="s">
-        <v>89</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="I60" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="J60" s="14" t="s">
+        <v>80</v>
+      </c>
+      <c r="K60" s="8"/>
+      <c r="L60" s="8"/>
       <c r="M60" s="8"/>
       <c r="N60" s="8"/>
       <c r="O60" s="8"/>
@@ -4809,7 +5026,7 @@
         <v>55</v>
       </c>
       <c r="S60" s="14" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="61" spans="1:19" ht="18" customHeight="1">
@@ -4829,22 +5046,22 @@
         <v>25</v>
       </c>
       <c r="F61" s="14" t="s">
-        <v>58</v>
+        <v>36</v>
       </c>
       <c r="G61" s="14" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="H61" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="I61" s="8"/>
-      <c r="J61" s="8"/>
-      <c r="K61" s="14" t="s">
-        <v>88</v>
-      </c>
-      <c r="L61" s="14" t="s">
-        <v>90</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="I61" s="14" t="s">
+        <v>104</v>
+      </c>
+      <c r="J61" s="14" t="s">
+        <v>81</v>
+      </c>
+      <c r="K61" s="8"/>
+      <c r="L61" s="8"/>
       <c r="M61" s="8"/>
       <c r="N61" s="8"/>
       <c r="O61" s="8"/>
@@ -4854,7 +5071,7 @@
         <v>55</v>
       </c>
       <c r="S61" s="14" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="62" spans="1:19" ht="18" customHeight="1">
@@ -4882,14 +5099,14 @@
       <c r="H62" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="I62" s="14" t="s">
-        <v>105</v>
-      </c>
-      <c r="J62" s="14" t="s">
-        <v>82</v>
-      </c>
-      <c r="K62" s="8"/>
-      <c r="L62" s="8"/>
+      <c r="I62" s="8"/>
+      <c r="J62" s="8"/>
+      <c r="K62" s="14" t="s">
+        <v>85</v>
+      </c>
+      <c r="L62" s="14" t="s">
+        <v>87</v>
+      </c>
       <c r="M62" s="8"/>
       <c r="N62" s="8"/>
       <c r="O62" s="8"/>
@@ -4899,7 +5116,7 @@
         <v>55</v>
       </c>
       <c r="S62" s="14" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="63" spans="1:19" ht="18" customHeight="1">
@@ -4927,14 +5144,14 @@
       <c r="H63" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="I63" s="14" t="s">
-        <v>106</v>
-      </c>
-      <c r="J63" s="14" t="s">
-        <v>83</v>
-      </c>
-      <c r="K63" s="8"/>
-      <c r="L63" s="8"/>
+      <c r="I63" s="8"/>
+      <c r="J63" s="8"/>
+      <c r="K63" s="14" t="s">
+        <v>86</v>
+      </c>
+      <c r="L63" s="14" t="s">
+        <v>88</v>
+      </c>
       <c r="M63" s="8"/>
       <c r="N63" s="8"/>
       <c r="O63" s="8"/>
@@ -4944,7 +5161,7 @@
         <v>55</v>
       </c>
       <c r="S63" s="14" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="64" spans="1:19" ht="18" customHeight="1">
@@ -4964,22 +5181,22 @@
         <v>25</v>
       </c>
       <c r="F64" s="14" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="G64" s="14" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H64" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="I64" s="8"/>
-      <c r="J64" s="8"/>
-      <c r="K64" s="14" t="s">
-        <v>87</v>
-      </c>
-      <c r="L64" s="14" t="s">
-        <v>89</v>
-      </c>
+        <v>31</v>
+      </c>
+      <c r="I64" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="J64" s="14" t="s">
+        <v>80</v>
+      </c>
+      <c r="K64" s="8"/>
+      <c r="L64" s="8"/>
       <c r="M64" s="8"/>
       <c r="N64" s="8"/>
       <c r="O64" s="8"/>
@@ -4989,7 +5206,7 @@
         <v>55</v>
       </c>
       <c r="S64" s="14" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="65" spans="1:19" ht="18" customHeight="1">
@@ -5009,22 +5226,22 @@
         <v>25</v>
       </c>
       <c r="F65" s="14" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="G65" s="14" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H65" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="I65" s="8"/>
-      <c r="J65" s="8"/>
-      <c r="K65" s="14" t="s">
-        <v>88</v>
-      </c>
-      <c r="L65" s="14" t="s">
-        <v>90</v>
-      </c>
+        <v>31</v>
+      </c>
+      <c r="I65" s="14" t="s">
+        <v>104</v>
+      </c>
+      <c r="J65" s="14" t="s">
+        <v>81</v>
+      </c>
+      <c r="K65" s="8"/>
+      <c r="L65" s="8"/>
       <c r="M65" s="8"/>
       <c r="N65" s="8"/>
       <c r="O65" s="8"/>
@@ -5034,7 +5251,7 @@
         <v>55</v>
       </c>
       <c r="S65" s="14" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="66" spans="1:19" ht="18" customHeight="1">
@@ -5062,14 +5279,14 @@
       <c r="H66" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="I66" s="14" t="s">
-        <v>105</v>
-      </c>
-      <c r="J66" s="14" t="s">
-        <v>82</v>
-      </c>
-      <c r="K66" s="8"/>
-      <c r="L66" s="8"/>
+      <c r="I66" s="8"/>
+      <c r="J66" s="8"/>
+      <c r="K66" s="14" t="s">
+        <v>85</v>
+      </c>
+      <c r="L66" s="14" t="s">
+        <v>87</v>
+      </c>
       <c r="M66" s="8"/>
       <c r="N66" s="8"/>
       <c r="O66" s="8"/>
@@ -5079,7 +5296,7 @@
         <v>55</v>
       </c>
       <c r="S66" s="14" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="67" spans="1:19" ht="18" customHeight="1">
@@ -5107,14 +5324,14 @@
       <c r="H67" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="I67" s="14" t="s">
-        <v>106</v>
-      </c>
-      <c r="J67" s="14" t="s">
-        <v>83</v>
-      </c>
-      <c r="K67" s="8"/>
-      <c r="L67" s="8"/>
+      <c r="I67" s="8"/>
+      <c r="J67" s="8"/>
+      <c r="K67" s="14" t="s">
+        <v>86</v>
+      </c>
+      <c r="L67" s="14" t="s">
+        <v>88</v>
+      </c>
       <c r="M67" s="8"/>
       <c r="N67" s="8"/>
       <c r="O67" s="8"/>
@@ -5124,7 +5341,7 @@
         <v>55</v>
       </c>
       <c r="S67" s="14" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="68" spans="1:19" ht="18" customHeight="1">
@@ -5143,34 +5360,32 @@
       <c r="E68" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="F68" s="14" t="s">
-        <v>45</v>
-      </c>
-      <c r="G68" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="H68" s="14" t="s">
-        <v>31</v>
-      </c>
+      <c r="F68" s="8"/>
+      <c r="G68" s="8"/>
+      <c r="H68" s="8"/>
       <c r="I68" s="8"/>
       <c r="J68" s="8"/>
-      <c r="K68" s="14" t="s">
-        <v>87</v>
-      </c>
-      <c r="L68" s="14" t="s">
-        <v>89</v>
-      </c>
-      <c r="M68" s="8"/>
-      <c r="N68" s="8"/>
-      <c r="O68" s="8"/>
-      <c r="P68" s="8"/>
-      <c r="Q68" s="8"/>
-      <c r="R68" s="14" t="s">
-        <v>55</v>
-      </c>
-      <c r="S68" s="14" t="s">
-        <v>93</v>
-      </c>
+      <c r="K68" s="8"/>
+      <c r="L68" s="8"/>
+      <c r="M68" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="N68" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="O68" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="P68" s="15" t="s">
+        <v>147</v>
+      </c>
+      <c r="Q68" s="15" t="s">
+        <v>150</v>
+      </c>
+      <c r="R68" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="S68" s="15"/>
     </row>
     <row r="69" spans="1:19" ht="18" customHeight="1">
       <c r="A69" s="8" t="s">
@@ -5188,34 +5403,32 @@
       <c r="E69" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="F69" s="14" t="s">
-        <v>45</v>
-      </c>
-      <c r="G69" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="H69" s="14" t="s">
-        <v>31</v>
-      </c>
+      <c r="F69" s="8"/>
+      <c r="G69" s="8"/>
+      <c r="H69" s="8"/>
       <c r="I69" s="8"/>
       <c r="J69" s="8"/>
-      <c r="K69" s="14" t="s">
-        <v>88</v>
-      </c>
-      <c r="L69" s="14" t="s">
-        <v>90</v>
-      </c>
-      <c r="M69" s="8"/>
-      <c r="N69" s="8"/>
-      <c r="O69" s="8"/>
-      <c r="P69" s="8"/>
-      <c r="Q69" s="8"/>
-      <c r="R69" s="14" t="s">
-        <v>55</v>
-      </c>
-      <c r="S69" s="14" t="s">
-        <v>93</v>
-      </c>
+      <c r="K69" s="8"/>
+      <c r="L69" s="8"/>
+      <c r="M69" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="N69" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="O69" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="P69" s="15" t="s">
+        <v>148</v>
+      </c>
+      <c r="Q69" s="15" t="s">
+        <v>151</v>
+      </c>
+      <c r="R69" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="S69" s="15"/>
     </row>
     <row r="70" spans="1:19" ht="18" customHeight="1">
       <c r="A70" s="8" t="s">
@@ -5249,8 +5462,12 @@
       <c r="O70" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="P70" s="15"/>
-      <c r="Q70" s="15"/>
+      <c r="P70" s="15" t="s">
+        <v>149</v>
+      </c>
+      <c r="Q70" s="15" t="s">
+        <v>152</v>
+      </c>
       <c r="R70" s="15" t="s">
         <v>56</v>
       </c>
@@ -5288,8 +5505,12 @@
       <c r="O71" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="P71" s="15"/>
-      <c r="Q71" s="15"/>
+      <c r="P71" s="15" t="s">
+        <v>147</v>
+      </c>
+      <c r="Q71" s="15" t="s">
+        <v>153</v>
+      </c>
       <c r="R71" s="15" t="s">
         <v>56</v>
       </c>
@@ -5299,91 +5520,87 @@
       <c r="A72" s="8" t="s">
         <v>119</v>
       </c>
-      <c r="B72" s="11" t="s">
+      <c r="B72" s="8">
+        <v>1</v>
+      </c>
+      <c r="C72" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D72" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="E72" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="F72" s="8"/>
+      <c r="G72" s="8"/>
+      <c r="H72" s="8"/>
+      <c r="I72" s="8"/>
+      <c r="J72" s="8"/>
+      <c r="K72" s="8"/>
+      <c r="L72" s="8"/>
+      <c r="M72" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="C72" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="D72" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="E72" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="F72" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="G72" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="H72" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="I72" s="10" t="s">
-        <v>105</v>
-      </c>
-      <c r="J72" s="10" t="s">
-        <v>82</v>
-      </c>
-      <c r="K72" s="11"/>
-      <c r="L72" s="11"/>
-      <c r="M72" s="11"/>
-      <c r="N72" s="11"/>
-      <c r="O72" s="11"/>
-      <c r="P72" s="11"/>
-      <c r="Q72" s="11"/>
-      <c r="R72" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="S72" s="10" t="s">
-        <v>92</v>
-      </c>
+      <c r="N72" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="O72" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="P72" s="15" t="s">
+        <v>148</v>
+      </c>
+      <c r="Q72" s="15" t="s">
+        <v>154</v>
+      </c>
+      <c r="R72" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="S72" s="15"/>
     </row>
     <row r="73" spans="1:19" ht="18" customHeight="1">
       <c r="A73" s="8" t="s">
         <v>120</v>
       </c>
-      <c r="B73" s="11" t="s">
+      <c r="B73" s="8">
+        <v>1</v>
+      </c>
+      <c r="C73" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D73" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="E73" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="F73" s="8"/>
+      <c r="G73" s="8"/>
+      <c r="H73" s="8"/>
+      <c r="I73" s="8"/>
+      <c r="J73" s="8"/>
+      <c r="K73" s="8"/>
+      <c r="L73" s="8"/>
+      <c r="M73" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="C73" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="D73" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="E73" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="F73" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="G73" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="H73" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="I73" s="10" t="s">
-        <v>106</v>
-      </c>
-      <c r="J73" s="10" t="s">
-        <v>83</v>
-      </c>
-      <c r="K73" s="11"/>
-      <c r="L73" s="11"/>
-      <c r="M73" s="11"/>
-      <c r="N73" s="11"/>
-      <c r="O73" s="11"/>
-      <c r="P73" s="11"/>
-      <c r="Q73" s="11"/>
-      <c r="R73" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="S73" s="10" t="s">
-        <v>92</v>
-      </c>
+      <c r="N73" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="O73" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="P73" s="15" t="s">
+        <v>149</v>
+      </c>
+      <c r="Q73" s="15" t="s">
+        <v>155</v>
+      </c>
+      <c r="R73" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="S73" s="15"/>
     </row>
     <row r="74" spans="1:19" ht="18" customHeight="1">
       <c r="A74" s="8" t="s">
@@ -5410,14 +5627,14 @@
       <c r="H74" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="I74" s="11"/>
-      <c r="J74" s="11"/>
-      <c r="K74" s="10" t="s">
-        <v>87</v>
-      </c>
-      <c r="L74" s="10" t="s">
-        <v>89</v>
-      </c>
+      <c r="I74" s="10" t="s">
+        <v>103</v>
+      </c>
+      <c r="J74" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="K74" s="11"/>
+      <c r="L74" s="11"/>
       <c r="M74" s="11"/>
       <c r="N74" s="11"/>
       <c r="O74" s="11"/>
@@ -5427,7 +5644,7 @@
         <v>55</v>
       </c>
       <c r="S74" s="10" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="75" spans="1:19" ht="18" customHeight="1">
@@ -5455,14 +5672,14 @@
       <c r="H75" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="I75" s="11"/>
-      <c r="J75" s="11"/>
-      <c r="K75" s="10" t="s">
-        <v>88</v>
-      </c>
-      <c r="L75" s="10" t="s">
-        <v>90</v>
-      </c>
+      <c r="I75" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="J75" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="K75" s="11"/>
+      <c r="L75" s="11"/>
       <c r="M75" s="11"/>
       <c r="N75" s="11"/>
       <c r="O75" s="11"/>
@@ -5472,7 +5689,7 @@
         <v>55</v>
       </c>
       <c r="S75" s="10" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="76" spans="1:19" ht="18" customHeight="1">
@@ -5492,22 +5709,22 @@
         <v>39</v>
       </c>
       <c r="F76" s="10" t="s">
-        <v>36</v>
+        <v>58</v>
       </c>
       <c r="G76" s="10" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="H76" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="I76" s="10" t="s">
-        <v>105</v>
-      </c>
-      <c r="J76" s="10" t="s">
-        <v>82</v>
-      </c>
-      <c r="K76" s="11"/>
-      <c r="L76" s="11"/>
+        <v>40</v>
+      </c>
+      <c r="I76" s="11"/>
+      <c r="J76" s="11"/>
+      <c r="K76" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="L76" s="10" t="s">
+        <v>87</v>
+      </c>
       <c r="M76" s="11"/>
       <c r="N76" s="11"/>
       <c r="O76" s="11"/>
@@ -5517,7 +5734,7 @@
         <v>55</v>
       </c>
       <c r="S76" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="77" spans="1:19" ht="18" customHeight="1">
@@ -5537,22 +5754,22 @@
         <v>39</v>
       </c>
       <c r="F77" s="10" t="s">
-        <v>36</v>
+        <v>58</v>
       </c>
       <c r="G77" s="10" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="H77" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="I77" s="10" t="s">
-        <v>106</v>
-      </c>
-      <c r="J77" s="10" t="s">
-        <v>83</v>
-      </c>
-      <c r="K77" s="11"/>
-      <c r="L77" s="11"/>
+        <v>40</v>
+      </c>
+      <c r="I77" s="11"/>
+      <c r="J77" s="11"/>
+      <c r="K77" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="L77" s="10" t="s">
+        <v>88</v>
+      </c>
       <c r="M77" s="11"/>
       <c r="N77" s="11"/>
       <c r="O77" s="11"/>
@@ -5562,7 +5779,7 @@
         <v>55</v>
       </c>
       <c r="S77" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="78" spans="1:19" ht="18" customHeight="1">
@@ -5590,14 +5807,14 @@
       <c r="H78" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="I78" s="11"/>
-      <c r="J78" s="11"/>
-      <c r="K78" s="10" t="s">
-        <v>87</v>
-      </c>
-      <c r="L78" s="10" t="s">
-        <v>89</v>
-      </c>
+      <c r="I78" s="10" t="s">
+        <v>103</v>
+      </c>
+      <c r="J78" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="K78" s="11"/>
+      <c r="L78" s="11"/>
       <c r="M78" s="11"/>
       <c r="N78" s="11"/>
       <c r="O78" s="11"/>
@@ -5607,7 +5824,7 @@
         <v>55</v>
       </c>
       <c r="S78" s="10" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="79" spans="1:19" ht="18" customHeight="1">
@@ -5635,14 +5852,14 @@
       <c r="H79" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="I79" s="11"/>
-      <c r="J79" s="11"/>
-      <c r="K79" s="10" t="s">
-        <v>88</v>
-      </c>
-      <c r="L79" s="10" t="s">
-        <v>90</v>
-      </c>
+      <c r="I79" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="J79" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="K79" s="11"/>
+      <c r="L79" s="11"/>
       <c r="M79" s="11"/>
       <c r="N79" s="11"/>
       <c r="O79" s="11"/>
@@ -5652,7 +5869,7 @@
         <v>55</v>
       </c>
       <c r="S79" s="10" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="80" spans="1:19" ht="18" customHeight="1">
@@ -5672,22 +5889,22 @@
         <v>39</v>
       </c>
       <c r="F80" s="10" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="G80" s="10" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H80" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="I80" s="10" t="s">
-        <v>105</v>
-      </c>
-      <c r="J80" s="10" t="s">
-        <v>82</v>
-      </c>
-      <c r="K80" s="11"/>
-      <c r="L80" s="11"/>
+        <v>41</v>
+      </c>
+      <c r="I80" s="11"/>
+      <c r="J80" s="11"/>
+      <c r="K80" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="L80" s="10" t="s">
+        <v>87</v>
+      </c>
       <c r="M80" s="11"/>
       <c r="N80" s="11"/>
       <c r="O80" s="11"/>
@@ -5697,7 +5914,7 @@
         <v>55</v>
       </c>
       <c r="S80" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="81" spans="1:19" ht="18" customHeight="1">
@@ -5717,22 +5934,22 @@
         <v>39</v>
       </c>
       <c r="F81" s="10" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="G81" s="10" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H81" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="I81" s="10" t="s">
-        <v>106</v>
-      </c>
-      <c r="J81" s="10" t="s">
-        <v>83</v>
-      </c>
-      <c r="K81" s="11"/>
-      <c r="L81" s="11"/>
+        <v>41</v>
+      </c>
+      <c r="I81" s="11"/>
+      <c r="J81" s="11"/>
+      <c r="K81" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="L81" s="10" t="s">
+        <v>88</v>
+      </c>
       <c r="M81" s="11"/>
       <c r="N81" s="11"/>
       <c r="O81" s="11"/>
@@ -5742,7 +5959,7 @@
         <v>55</v>
       </c>
       <c r="S81" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="82" spans="1:19" ht="18" customHeight="1">
@@ -5770,14 +5987,14 @@
       <c r="H82" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="I82" s="11"/>
-      <c r="J82" s="11"/>
-      <c r="K82" s="10" t="s">
-        <v>87</v>
-      </c>
-      <c r="L82" s="10" t="s">
-        <v>89</v>
-      </c>
+      <c r="I82" s="10" t="s">
+        <v>103</v>
+      </c>
+      <c r="J82" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="K82" s="11"/>
+      <c r="L82" s="11"/>
       <c r="M82" s="11"/>
       <c r="N82" s="11"/>
       <c r="O82" s="11"/>
@@ -5787,7 +6004,7 @@
         <v>55</v>
       </c>
       <c r="S82" s="10" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="83" spans="1:19" ht="18" customHeight="1">
@@ -5815,14 +6032,14 @@
       <c r="H83" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="I83" s="11"/>
-      <c r="J83" s="11"/>
-      <c r="K83" s="10" t="s">
-        <v>88</v>
-      </c>
-      <c r="L83" s="10" t="s">
-        <v>90</v>
-      </c>
+      <c r="I83" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="J83" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="K83" s="11"/>
+      <c r="L83" s="11"/>
       <c r="M83" s="11"/>
       <c r="N83" s="11"/>
       <c r="O83" s="11"/>
@@ -5832,7 +6049,7 @@
         <v>55</v>
       </c>
       <c r="S83" s="10" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="84" spans="1:19" ht="18" customHeight="1">
@@ -5851,28 +6068,34 @@
       <c r="E84" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="F84" s="11"/>
-      <c r="G84" s="11"/>
-      <c r="H84" s="11"/>
+      <c r="F84" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="G84" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="H84" s="10" t="s">
+        <v>42</v>
+      </c>
       <c r="I84" s="11"/>
       <c r="J84" s="11"/>
-      <c r="K84" s="11"/>
-      <c r="L84" s="11"/>
-      <c r="M84" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="N84" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="O84" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="P84" s="12"/>
-      <c r="Q84" s="12"/>
-      <c r="R84" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="S84" s="12"/>
+      <c r="K84" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="L84" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="M84" s="11"/>
+      <c r="N84" s="11"/>
+      <c r="O84" s="11"/>
+      <c r="P84" s="11"/>
+      <c r="Q84" s="11"/>
+      <c r="R84" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="S84" s="10" t="s">
+        <v>91</v>
+      </c>
     </row>
     <row r="85" spans="1:19" ht="18" customHeight="1">
       <c r="A85" s="8" t="s">
@@ -5890,298 +6113,292 @@
       <c r="E85" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="F85" s="11"/>
-      <c r="G85" s="11"/>
-      <c r="H85" s="11"/>
+      <c r="F85" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="G85" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="H85" s="10" t="s">
+        <v>42</v>
+      </c>
       <c r="I85" s="11"/>
       <c r="J85" s="11"/>
-      <c r="K85" s="11"/>
-      <c r="L85" s="11"/>
-      <c r="M85" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="N85" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="O85" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="P85" s="12"/>
-      <c r="Q85" s="12"/>
-      <c r="R85" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="S85" s="12"/>
+      <c r="K85" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="L85" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="M85" s="11"/>
+      <c r="N85" s="11"/>
+      <c r="O85" s="11"/>
+      <c r="P85" s="11"/>
+      <c r="Q85" s="11"/>
+      <c r="R85" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="S85" s="10" t="s">
+        <v>91</v>
+      </c>
     </row>
     <row r="86" spans="1:19" ht="18" customHeight="1">
       <c r="A86" s="8" t="s">
         <v>133</v>
       </c>
-      <c r="B86" s="13" t="s">
-        <v>45</v>
-      </c>
-      <c r="C86" s="13" t="s">
-        <v>46</v>
-      </c>
-      <c r="D86" s="13" t="s">
-        <v>47</v>
-      </c>
-      <c r="E86" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="F86" s="9" t="s">
+      <c r="B86" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="C86" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="D86" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="E86" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="F86" s="11"/>
+      <c r="G86" s="11"/>
+      <c r="H86" s="11"/>
+      <c r="I86" s="11"/>
+      <c r="J86" s="11"/>
+      <c r="K86" s="11"/>
+      <c r="L86" s="11"/>
+      <c r="M86" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="G86" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="H86" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="I86" s="9" t="s">
-        <v>105</v>
-      </c>
-      <c r="J86" s="9" t="s">
-        <v>82</v>
-      </c>
-      <c r="K86" s="13"/>
-      <c r="L86" s="13"/>
-      <c r="M86" s="13"/>
-      <c r="N86" s="13"/>
-      <c r="O86" s="13"/>
-      <c r="P86" s="13"/>
-      <c r="Q86" s="13"/>
-      <c r="R86" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="S86" s="9" t="s">
-        <v>92</v>
-      </c>
+      <c r="N86" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="O86" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="P86" s="12" t="s">
+        <v>147</v>
+      </c>
+      <c r="Q86" s="12" t="s">
+        <v>150</v>
+      </c>
+      <c r="R86" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="S86" s="12"/>
     </row>
     <row r="87" spans="1:19" ht="18" customHeight="1">
       <c r="A87" s="8" t="s">
         <v>134</v>
       </c>
-      <c r="B87" s="13" t="s">
-        <v>45</v>
-      </c>
-      <c r="C87" s="13" t="s">
-        <v>46</v>
-      </c>
-      <c r="D87" s="13" t="s">
-        <v>47</v>
-      </c>
-      <c r="E87" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="F87" s="9" t="s">
+      <c r="B87" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="C87" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="D87" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="E87" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="F87" s="11"/>
+      <c r="G87" s="11"/>
+      <c r="H87" s="11"/>
+      <c r="I87" s="11"/>
+      <c r="J87" s="11"/>
+      <c r="K87" s="11"/>
+      <c r="L87" s="11"/>
+      <c r="M87" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="G87" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="H87" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="I87" s="9" t="s">
-        <v>106</v>
-      </c>
-      <c r="J87" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="K87" s="13"/>
-      <c r="L87" s="13"/>
-      <c r="M87" s="13"/>
-      <c r="N87" s="13"/>
-      <c r="O87" s="13"/>
-      <c r="P87" s="13"/>
-      <c r="Q87" s="13"/>
-      <c r="R87" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="S87" s="9" t="s">
-        <v>92</v>
-      </c>
+      <c r="N87" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="O87" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="P87" s="12" t="s">
+        <v>148</v>
+      </c>
+      <c r="Q87" s="12" t="s">
+        <v>151</v>
+      </c>
+      <c r="R87" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="S87" s="12"/>
     </row>
     <row r="88" spans="1:19" ht="18" customHeight="1">
       <c r="A88" s="8" t="s">
         <v>135</v>
       </c>
-      <c r="B88" s="13" t="s">
-        <v>45</v>
-      </c>
-      <c r="C88" s="13" t="s">
-        <v>46</v>
-      </c>
-      <c r="D88" s="13" t="s">
-        <v>47</v>
-      </c>
-      <c r="E88" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="F88" s="9" t="s">
+      <c r="B88" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="C88" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="D88" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="E88" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="F88" s="11"/>
+      <c r="G88" s="11"/>
+      <c r="H88" s="11"/>
+      <c r="I88" s="11"/>
+      <c r="J88" s="11"/>
+      <c r="K88" s="11"/>
+      <c r="L88" s="11"/>
+      <c r="M88" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="G88" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="H88" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="I88" s="13"/>
-      <c r="J88" s="13"/>
-      <c r="K88" s="9" t="s">
-        <v>87</v>
-      </c>
-      <c r="L88" s="9" t="s">
-        <v>89</v>
-      </c>
-      <c r="M88" s="13"/>
-      <c r="N88" s="13"/>
-      <c r="O88" s="13"/>
-      <c r="P88" s="13"/>
-      <c r="Q88" s="13"/>
-      <c r="R88" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="S88" s="9" t="s">
-        <v>93</v>
-      </c>
+      <c r="N88" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="O88" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="P88" s="12" t="s">
+        <v>149</v>
+      </c>
+      <c r="Q88" s="12" t="s">
+        <v>152</v>
+      </c>
+      <c r="R88" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="S88" s="12"/>
     </row>
     <row r="89" spans="1:19" ht="18" customHeight="1">
       <c r="A89" s="8" t="s">
         <v>136</v>
       </c>
-      <c r="B89" s="13" t="s">
-        <v>45</v>
-      </c>
-      <c r="C89" s="13" t="s">
-        <v>46</v>
-      </c>
-      <c r="D89" s="13" t="s">
-        <v>47</v>
-      </c>
-      <c r="E89" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="F89" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="G89" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="H89" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="I89" s="13"/>
-      <c r="J89" s="13"/>
-      <c r="K89" s="9" t="s">
-        <v>88</v>
-      </c>
-      <c r="L89" s="9" t="s">
-        <v>90</v>
-      </c>
-      <c r="M89" s="13"/>
-      <c r="N89" s="13"/>
-      <c r="O89" s="13"/>
-      <c r="P89" s="13"/>
-      <c r="Q89" s="13"/>
-      <c r="R89" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="S89" s="9" t="s">
-        <v>93</v>
-      </c>
+      <c r="B89" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="C89" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="D89" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="E89" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="F89" s="11"/>
+      <c r="G89" s="11"/>
+      <c r="H89" s="11"/>
+      <c r="I89" s="11"/>
+      <c r="J89" s="11"/>
+      <c r="K89" s="11"/>
+      <c r="L89" s="11"/>
+      <c r="M89" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="N89" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="O89" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="P89" s="12" t="s">
+        <v>147</v>
+      </c>
+      <c r="Q89" s="12" t="s">
+        <v>153</v>
+      </c>
+      <c r="R89" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="S89" s="12"/>
     </row>
     <row r="90" spans="1:19" ht="18" customHeight="1">
       <c r="A90" s="8" t="s">
         <v>137</v>
       </c>
-      <c r="B90" s="13" t="s">
-        <v>45</v>
-      </c>
-      <c r="C90" s="13" t="s">
-        <v>46</v>
-      </c>
-      <c r="D90" s="13" t="s">
-        <v>47</v>
-      </c>
-      <c r="E90" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="F90" s="9" t="s">
+      <c r="B90" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="G90" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="H90" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="I90" s="9" t="s">
-        <v>105</v>
-      </c>
-      <c r="J90" s="9" t="s">
-        <v>82</v>
-      </c>
-      <c r="K90" s="13"/>
-      <c r="L90" s="13"/>
-      <c r="M90" s="13"/>
-      <c r="N90" s="13"/>
-      <c r="O90" s="13"/>
-      <c r="P90" s="13"/>
-      <c r="Q90" s="13"/>
-      <c r="R90" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="S90" s="9" t="s">
-        <v>92</v>
-      </c>
+      <c r="C90" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="D90" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="E90" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="F90" s="11"/>
+      <c r="G90" s="11"/>
+      <c r="H90" s="11"/>
+      <c r="I90" s="11"/>
+      <c r="J90" s="11"/>
+      <c r="K90" s="11"/>
+      <c r="L90" s="11"/>
+      <c r="M90" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="N90" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="O90" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="P90" s="12" t="s">
+        <v>148</v>
+      </c>
+      <c r="Q90" s="12" t="s">
+        <v>154</v>
+      </c>
+      <c r="R90" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="S90" s="12"/>
     </row>
     <row r="91" spans="1:19" ht="18" customHeight="1">
       <c r="A91" s="8" t="s">
         <v>138</v>
       </c>
-      <c r="B91" s="13" t="s">
-        <v>45</v>
-      </c>
-      <c r="C91" s="13" t="s">
-        <v>46</v>
-      </c>
-      <c r="D91" s="13" t="s">
-        <v>47</v>
-      </c>
-      <c r="E91" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="F91" s="9" t="s">
+      <c r="B91" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="G91" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="H91" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="I91" s="9" t="s">
-        <v>106</v>
-      </c>
-      <c r="J91" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="K91" s="13"/>
-      <c r="L91" s="13"/>
-      <c r="M91" s="13"/>
-      <c r="N91" s="13"/>
-      <c r="O91" s="13"/>
-      <c r="P91" s="13"/>
-      <c r="Q91" s="13"/>
-      <c r="R91" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="S91" s="9" t="s">
-        <v>92</v>
-      </c>
+      <c r="C91" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="D91" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="E91" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="F91" s="11"/>
+      <c r="G91" s="11"/>
+      <c r="H91" s="11"/>
+      <c r="I91" s="11"/>
+      <c r="J91" s="11"/>
+      <c r="K91" s="11"/>
+      <c r="L91" s="11"/>
+      <c r="M91" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="N91" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="O91" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="P91" s="12" t="s">
+        <v>149</v>
+      </c>
+      <c r="Q91" s="12" t="s">
+        <v>155</v>
+      </c>
+      <c r="R91" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="S91" s="12"/>
     </row>
     <row r="92" spans="1:19" ht="18" customHeight="1">
       <c r="A92" s="8" t="s">
@@ -6200,22 +6417,22 @@
         <v>48</v>
       </c>
       <c r="F92" s="9" t="s">
-        <v>36</v>
+        <v>58</v>
       </c>
       <c r="G92" s="9" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="H92" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="I92" s="13"/>
-      <c r="J92" s="13"/>
-      <c r="K92" s="9" t="s">
-        <v>87</v>
-      </c>
-      <c r="L92" s="9" t="s">
-        <v>89</v>
-      </c>
+        <v>49</v>
+      </c>
+      <c r="I92" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="J92" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="K92" s="13"/>
+      <c r="L92" s="13"/>
       <c r="M92" s="13"/>
       <c r="N92" s="13"/>
       <c r="O92" s="13"/>
@@ -6225,7 +6442,7 @@
         <v>55</v>
       </c>
       <c r="S92" s="9" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="93" spans="1:19" ht="18" customHeight="1">
@@ -6245,22 +6462,22 @@
         <v>48</v>
       </c>
       <c r="F93" s="9" t="s">
-        <v>36</v>
+        <v>58</v>
       </c>
       <c r="G93" s="9" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="H93" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="I93" s="13"/>
-      <c r="J93" s="13"/>
-      <c r="K93" s="9" t="s">
-        <v>88</v>
-      </c>
-      <c r="L93" s="9" t="s">
-        <v>90</v>
-      </c>
+        <v>49</v>
+      </c>
+      <c r="I93" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="J93" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="K93" s="13"/>
+      <c r="L93" s="13"/>
       <c r="M93" s="13"/>
       <c r="N93" s="13"/>
       <c r="O93" s="13"/>
@@ -6270,7 +6487,7 @@
         <v>55</v>
       </c>
       <c r="S93" s="9" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="94" spans="1:19" ht="18" customHeight="1">
@@ -6290,22 +6507,22 @@
         <v>48</v>
       </c>
       <c r="F94" s="9" t="s">
-        <v>45</v>
+        <v>58</v>
       </c>
       <c r="G94" s="9" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="H94" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="I94" s="9" t="s">
-        <v>105</v>
-      </c>
-      <c r="J94" s="9" t="s">
-        <v>82</v>
-      </c>
-      <c r="K94" s="13"/>
-      <c r="L94" s="13"/>
+        <v>49</v>
+      </c>
+      <c r="I94" s="13"/>
+      <c r="J94" s="13"/>
+      <c r="K94" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="L94" s="9" t="s">
+        <v>87</v>
+      </c>
       <c r="M94" s="13"/>
       <c r="N94" s="13"/>
       <c r="O94" s="13"/>
@@ -6315,7 +6532,7 @@
         <v>55</v>
       </c>
       <c r="S94" s="9" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="95" spans="1:19" ht="18" customHeight="1">
@@ -6335,22 +6552,22 @@
         <v>48</v>
       </c>
       <c r="F95" s="9" t="s">
-        <v>45</v>
+        <v>58</v>
       </c>
       <c r="G95" s="9" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="H95" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="I95" s="9" t="s">
-        <v>106</v>
-      </c>
-      <c r="J95" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="K95" s="13"/>
-      <c r="L95" s="13"/>
+        <v>49</v>
+      </c>
+      <c r="I95" s="13"/>
+      <c r="J95" s="13"/>
+      <c r="K95" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="L95" s="9" t="s">
+        <v>88</v>
+      </c>
       <c r="M95" s="13"/>
       <c r="N95" s="13"/>
       <c r="O95" s="13"/>
@@ -6360,7 +6577,7 @@
         <v>55</v>
       </c>
       <c r="S95" s="9" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="96" spans="1:19" ht="18" customHeight="1">
@@ -6380,22 +6597,22 @@
         <v>48</v>
       </c>
       <c r="F96" s="9" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="G96" s="9" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H96" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="I96" s="13"/>
-      <c r="J96" s="13"/>
-      <c r="K96" s="9" t="s">
-        <v>87</v>
-      </c>
-      <c r="L96" s="9" t="s">
-        <v>89</v>
-      </c>
+        <v>50</v>
+      </c>
+      <c r="I96" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="J96" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="K96" s="13"/>
+      <c r="L96" s="13"/>
       <c r="M96" s="13"/>
       <c r="N96" s="13"/>
       <c r="O96" s="13"/>
@@ -6405,7 +6622,7 @@
         <v>55</v>
       </c>
       <c r="S96" s="9" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="97" spans="1:19" ht="18" customHeight="1">
@@ -6425,22 +6642,22 @@
         <v>48</v>
       </c>
       <c r="F97" s="9" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="G97" s="9" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H97" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="I97" s="13"/>
-      <c r="J97" s="13"/>
-      <c r="K97" s="9" t="s">
-        <v>88</v>
-      </c>
-      <c r="L97" s="9" t="s">
-        <v>90</v>
-      </c>
+        <v>50</v>
+      </c>
+      <c r="I97" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="J97" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="K97" s="13"/>
+      <c r="L97" s="13"/>
       <c r="M97" s="13"/>
       <c r="N97" s="13"/>
       <c r="O97" s="13"/>
@@ -6450,12 +6667,12 @@
         <v>55</v>
       </c>
       <c r="S97" s="9" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="98" spans="1:19" ht="18" customHeight="1">
       <c r="A98" s="8" t="s">
-        <v>145</v>
+        <v>156</v>
       </c>
       <c r="B98" s="13" t="s">
         <v>45</v>
@@ -6469,32 +6686,38 @@
       <c r="E98" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="F98" s="13"/>
-      <c r="G98" s="13"/>
-      <c r="H98" s="13"/>
+      <c r="F98" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="G98" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="H98" s="9" t="s">
+        <v>50</v>
+      </c>
       <c r="I98" s="13"/>
       <c r="J98" s="13"/>
-      <c r="K98" s="13"/>
-      <c r="L98" s="13"/>
-      <c r="M98" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="N98" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="O98" s="16" t="s">
-        <v>52</v>
-      </c>
-      <c r="P98" s="16"/>
-      <c r="Q98" s="16"/>
-      <c r="R98" s="16" t="s">
-        <v>56</v>
-      </c>
-      <c r="S98" s="16"/>
+      <c r="K98" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="L98" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="M98" s="13"/>
+      <c r="N98" s="13"/>
+      <c r="O98" s="13"/>
+      <c r="P98" s="13"/>
+      <c r="Q98" s="13"/>
+      <c r="R98" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="S98" s="9" t="s">
+        <v>91</v>
+      </c>
     </row>
     <row r="99" spans="1:19" ht="18" customHeight="1">
       <c r="A99" s="8" t="s">
-        <v>146</v>
+        <v>157</v>
       </c>
       <c r="B99" s="13" t="s">
         <v>45</v>
@@ -6508,31 +6731,4519 @@
       <c r="E99" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="F99" s="13"/>
-      <c r="G99" s="13"/>
-      <c r="H99" s="13"/>
+      <c r="F99" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="G99" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="H99" s="9" t="s">
+        <v>50</v>
+      </c>
       <c r="I99" s="13"/>
       <c r="J99" s="13"/>
-      <c r="K99" s="13"/>
-      <c r="L99" s="13"/>
-      <c r="M99" s="16" t="s">
+      <c r="K99" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="L99" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="M99" s="13"/>
+      <c r="N99" s="13"/>
+      <c r="O99" s="13"/>
+      <c r="P99" s="13"/>
+      <c r="Q99" s="13"/>
+      <c r="R99" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="S99" s="9" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="100" spans="1:19" ht="18" customHeight="1">
+      <c r="A100" s="8" t="s">
+        <v>158</v>
+      </c>
+      <c r="B100" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="C100" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="D100" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="E100" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="F100" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="G100" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="H100" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="I100" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="J100" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="K100" s="13"/>
+      <c r="L100" s="13"/>
+      <c r="M100" s="13"/>
+      <c r="N100" s="13"/>
+      <c r="O100" s="13"/>
+      <c r="P100" s="13"/>
+      <c r="Q100" s="13"/>
+      <c r="R100" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="S100" s="9" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="101" spans="1:19" ht="18" customHeight="1">
+      <c r="A101" s="8" t="s">
+        <v>159</v>
+      </c>
+      <c r="B101" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="C101" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="D101" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="E101" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="F101" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="G101" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="H101" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="I101" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="J101" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="K101" s="13"/>
+      <c r="L101" s="13"/>
+      <c r="M101" s="13"/>
+      <c r="N101" s="13"/>
+      <c r="O101" s="13"/>
+      <c r="P101" s="13"/>
+      <c r="Q101" s="13"/>
+      <c r="R101" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="S101" s="9" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="102" spans="1:19" ht="18" customHeight="1">
+      <c r="A102" s="8" t="s">
+        <v>160</v>
+      </c>
+      <c r="B102" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="C102" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="D102" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="E102" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="F102" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="G102" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="H102" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="I102" s="13"/>
+      <c r="J102" s="13"/>
+      <c r="K102" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="L102" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="M102" s="13"/>
+      <c r="N102" s="13"/>
+      <c r="O102" s="13"/>
+      <c r="P102" s="13"/>
+      <c r="Q102" s="13"/>
+      <c r="R102" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="S102" s="9" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="103" spans="1:19" ht="18" customHeight="1">
+      <c r="A103" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="B103" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="C103" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="D103" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="E103" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="F103" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="G103" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="H103" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="I103" s="13"/>
+      <c r="J103" s="13"/>
+      <c r="K103" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="L103" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="M103" s="13"/>
+      <c r="N103" s="13"/>
+      <c r="O103" s="13"/>
+      <c r="P103" s="13"/>
+      <c r="Q103" s="13"/>
+      <c r="R103" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="S103" s="9" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="104" spans="1:19" ht="18" customHeight="1">
+      <c r="A104" s="8" t="s">
+        <v>161</v>
+      </c>
+      <c r="B104" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="C104" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="D104" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="E104" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="F104" s="13"/>
+      <c r="G104" s="13"/>
+      <c r="H104" s="13"/>
+      <c r="I104" s="13"/>
+      <c r="J104" s="13"/>
+      <c r="K104" s="13"/>
+      <c r="L104" s="13"/>
+      <c r="M104" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="N104" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="O104" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="P104" s="16" t="s">
+        <v>147</v>
+      </c>
+      <c r="Q104" s="16" t="s">
+        <v>150</v>
+      </c>
+      <c r="R104" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="S104" s="16"/>
+    </row>
+    <row r="105" spans="1:19" ht="18" customHeight="1">
+      <c r="A105" s="8" t="s">
+        <v>162</v>
+      </c>
+      <c r="B105" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="C105" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="D105" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="E105" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="F105" s="13"/>
+      <c r="G105" s="13"/>
+      <c r="H105" s="13"/>
+      <c r="I105" s="13"/>
+      <c r="J105" s="13"/>
+      <c r="K105" s="13"/>
+      <c r="L105" s="13"/>
+      <c r="M105" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="N105" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="O105" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="P105" s="16" t="s">
+        <v>148</v>
+      </c>
+      <c r="Q105" s="16" t="s">
+        <v>151</v>
+      </c>
+      <c r="R105" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="S105" s="16"/>
+    </row>
+    <row r="106" spans="1:19" ht="18" customHeight="1">
+      <c r="A106" s="8" t="s">
+        <v>163</v>
+      </c>
+      <c r="B106" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="C106" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="D106" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="E106" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="F106" s="13"/>
+      <c r="G106" s="13"/>
+      <c r="H106" s="13"/>
+      <c r="I106" s="13"/>
+      <c r="J106" s="13"/>
+      <c r="K106" s="13"/>
+      <c r="L106" s="13"/>
+      <c r="M106" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="N106" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="O106" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="P106" s="16" t="s">
+        <v>149</v>
+      </c>
+      <c r="Q106" s="16" t="s">
+        <v>152</v>
+      </c>
+      <c r="R106" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="S106" s="16"/>
+    </row>
+    <row r="107" spans="1:19" ht="18" customHeight="1">
+      <c r="A107" s="8" t="s">
+        <v>164</v>
+      </c>
+      <c r="B107" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="C107" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="D107" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="E107" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="F107" s="13"/>
+      <c r="G107" s="13"/>
+      <c r="H107" s="13"/>
+      <c r="I107" s="13"/>
+      <c r="J107" s="13"/>
+      <c r="K107" s="13"/>
+      <c r="L107" s="13"/>
+      <c r="M107" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="N99" s="16" t="s">
+      <c r="N107" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="O99" s="16" t="s">
+      <c r="O107" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="P107" s="16" t="s">
+        <v>147</v>
+      </c>
+      <c r="Q107" s="16" t="s">
+        <v>153</v>
+      </c>
+      <c r="R107" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="S107" s="16"/>
+    </row>
+    <row r="108" spans="1:19" ht="18" customHeight="1">
+      <c r="A108" s="8" t="s">
+        <v>165</v>
+      </c>
+      <c r="B108" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="C108" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="D108" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="E108" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="F108" s="13"/>
+      <c r="G108" s="13"/>
+      <c r="H108" s="13"/>
+      <c r="I108" s="13"/>
+      <c r="J108" s="13"/>
+      <c r="K108" s="13"/>
+      <c r="L108" s="13"/>
+      <c r="M108" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="N108" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="O108" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="P108" s="16" t="s">
+        <v>148</v>
+      </c>
+      <c r="Q108" s="16" t="s">
+        <v>154</v>
+      </c>
+      <c r="R108" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="S108" s="16"/>
+    </row>
+    <row r="109" spans="1:19" ht="18" customHeight="1">
+      <c r="A109" s="8" t="s">
+        <v>166</v>
+      </c>
+      <c r="B109" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="C109" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="D109" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="E109" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="F109" s="13"/>
+      <c r="G109" s="13"/>
+      <c r="H109" s="13"/>
+      <c r="I109" s="13"/>
+      <c r="J109" s="13"/>
+      <c r="K109" s="13"/>
+      <c r="L109" s="13"/>
+      <c r="M109" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="N109" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="O109" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="P109" s="16" t="s">
+        <v>149</v>
+      </c>
+      <c r="Q109" s="16" t="s">
+        <v>155</v>
+      </c>
+      <c r="R109" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="S109" s="16"/>
+    </row>
+    <row r="111" spans="1:19" ht="18" customHeight="1">
+      <c r="A111" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="B111" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C111" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D111" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="E111" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F111" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="G111" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="H111" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="I111" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="J111" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="K111" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="L111" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="M111" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="N111" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="O111" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="P111" s="7"/>
+      <c r="Q111" s="7"/>
+      <c r="R111" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="S111" s="7" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="112" spans="1:19" ht="18" customHeight="1">
+      <c r="A112" s="8">
+        <v>1</v>
+      </c>
+      <c r="B112" s="8">
+        <v>1</v>
+      </c>
+      <c r="C112" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D112" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="E112" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="F112" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="G112" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="H112" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="I112" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="J112" s="14" t="s">
+        <v>80</v>
+      </c>
+      <c r="K112" s="8"/>
+      <c r="L112" s="8"/>
+      <c r="M112" s="8"/>
+      <c r="N112" s="8"/>
+      <c r="O112" s="8"/>
+      <c r="P112" s="8"/>
+      <c r="Q112" s="8"/>
+      <c r="R112" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="S112" s="14" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="113" spans="1:19" ht="18" customHeight="1">
+      <c r="A113" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="B113" s="8">
+        <v>1</v>
+      </c>
+      <c r="C113" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D113" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="E113" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="F113" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="G113" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="H113" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="I113" s="14" t="s">
+        <v>104</v>
+      </c>
+      <c r="J113" s="14" t="s">
+        <v>81</v>
+      </c>
+      <c r="K113" s="8"/>
+      <c r="L113" s="8"/>
+      <c r="M113" s="8"/>
+      <c r="N113" s="8"/>
+      <c r="O113" s="8"/>
+      <c r="P113" s="8"/>
+      <c r="Q113" s="8"/>
+      <c r="R113" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="S113" s="14" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="114" spans="1:19" ht="18" customHeight="1">
+      <c r="A114" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="B114" s="8">
+        <v>1</v>
+      </c>
+      <c r="C114" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D114" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="E114" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="F114" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="G114" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="H114" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="I114" s="8"/>
+      <c r="J114" s="8"/>
+      <c r="K114" s="14" t="s">
+        <v>85</v>
+      </c>
+      <c r="L114" s="14" t="s">
+        <v>87</v>
+      </c>
+      <c r="M114" s="8"/>
+      <c r="N114" s="8"/>
+      <c r="O114" s="8"/>
+      <c r="P114" s="8"/>
+      <c r="Q114" s="8"/>
+      <c r="R114" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="S114" s="14" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="115" spans="1:19" ht="18" customHeight="1">
+      <c r="A115" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="B115" s="8">
+        <v>1</v>
+      </c>
+      <c r="C115" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D115" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="E115" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="F115" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="G115" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="H115" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="I115" s="8"/>
+      <c r="J115" s="8"/>
+      <c r="K115" s="14" t="s">
+        <v>86</v>
+      </c>
+      <c r="L115" s="14" t="s">
+        <v>88</v>
+      </c>
+      <c r="M115" s="8"/>
+      <c r="N115" s="8"/>
+      <c r="O115" s="8"/>
+      <c r="P115" s="8"/>
+      <c r="Q115" s="8"/>
+      <c r="R115" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="S115" s="14" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="116" spans="1:19" ht="18" customHeight="1">
+      <c r="A116" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="B116" s="8">
+        <v>1</v>
+      </c>
+      <c r="C116" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D116" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="E116" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="F116" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="G116" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="H116" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="I116" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="J116" s="14" t="s">
+        <v>80</v>
+      </c>
+      <c r="K116" s="8"/>
+      <c r="L116" s="8"/>
+      <c r="M116" s="8"/>
+      <c r="N116" s="8"/>
+      <c r="O116" s="8"/>
+      <c r="P116" s="8"/>
+      <c r="Q116" s="8"/>
+      <c r="R116" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="S116" s="14" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="117" spans="1:19" ht="18" customHeight="1">
+      <c r="A117" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="B117" s="8">
+        <v>1</v>
+      </c>
+      <c r="C117" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D117" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="E117" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="F117" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="G117" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="H117" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="I117" s="14" t="s">
+        <v>104</v>
+      </c>
+      <c r="J117" s="14" t="s">
+        <v>81</v>
+      </c>
+      <c r="K117" s="8"/>
+      <c r="L117" s="8"/>
+      <c r="M117" s="8"/>
+      <c r="N117" s="8"/>
+      <c r="O117" s="8"/>
+      <c r="P117" s="8"/>
+      <c r="Q117" s="8"/>
+      <c r="R117" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="S117" s="14" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="118" spans="1:19" ht="18" customHeight="1">
+      <c r="A118" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="B118" s="8">
+        <v>1</v>
+      </c>
+      <c r="C118" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D118" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="E118" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="F118" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="G118" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="H118" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="I118" s="8"/>
+      <c r="J118" s="8"/>
+      <c r="K118" s="14" t="s">
+        <v>85</v>
+      </c>
+      <c r="L118" s="14" t="s">
+        <v>87</v>
+      </c>
+      <c r="M118" s="8"/>
+      <c r="N118" s="8"/>
+      <c r="O118" s="8"/>
+      <c r="P118" s="8"/>
+      <c r="Q118" s="8"/>
+      <c r="R118" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="S118" s="14" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="119" spans="1:19" ht="18" customHeight="1">
+      <c r="A119" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="B119" s="8">
+        <v>1</v>
+      </c>
+      <c r="C119" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D119" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="E119" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="F119" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="G119" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="H119" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="I119" s="8"/>
+      <c r="J119" s="8"/>
+      <c r="K119" s="14" t="s">
+        <v>86</v>
+      </c>
+      <c r="L119" s="14" t="s">
+        <v>88</v>
+      </c>
+      <c r="M119" s="8"/>
+      <c r="N119" s="8"/>
+      <c r="O119" s="8"/>
+      <c r="P119" s="8"/>
+      <c r="Q119" s="8"/>
+      <c r="R119" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="S119" s="14" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="120" spans="1:19" ht="18" customHeight="1">
+      <c r="A120" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="B120" s="8">
+        <v>1</v>
+      </c>
+      <c r="C120" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D120" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="E120" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="F120" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="G120" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="H120" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="I120" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="J120" s="14" t="s">
+        <v>80</v>
+      </c>
+      <c r="K120" s="8"/>
+      <c r="L120" s="8"/>
+      <c r="M120" s="8"/>
+      <c r="N120" s="8"/>
+      <c r="O120" s="8"/>
+      <c r="P120" s="8"/>
+      <c r="Q120" s="8"/>
+      <c r="R120" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="S120" s="14" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="121" spans="1:19" ht="18" customHeight="1">
+      <c r="A121" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="B121" s="8">
+        <v>1</v>
+      </c>
+      <c r="C121" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D121" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="E121" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="F121" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="G121" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="H121" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="I121" s="14" t="s">
+        <v>104</v>
+      </c>
+      <c r="J121" s="14" t="s">
+        <v>81</v>
+      </c>
+      <c r="K121" s="8"/>
+      <c r="L121" s="8"/>
+      <c r="M121" s="8"/>
+      <c r="N121" s="8"/>
+      <c r="O121" s="8"/>
+      <c r="P121" s="8"/>
+      <c r="Q121" s="8"/>
+      <c r="R121" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="S121" s="14" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="122" spans="1:19" ht="18" customHeight="1">
+      <c r="A122" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="B122" s="8">
+        <v>1</v>
+      </c>
+      <c r="C122" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D122" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="E122" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="F122" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="G122" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="H122" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="I122" s="8"/>
+      <c r="J122" s="8"/>
+      <c r="K122" s="14" t="s">
+        <v>85</v>
+      </c>
+      <c r="L122" s="14" t="s">
+        <v>87</v>
+      </c>
+      <c r="M122" s="8"/>
+      <c r="N122" s="8"/>
+      <c r="O122" s="8"/>
+      <c r="P122" s="8"/>
+      <c r="Q122" s="8"/>
+      <c r="R122" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="S122" s="14" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="123" spans="1:19" ht="18" customHeight="1">
+      <c r="A123" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="B123" s="8">
+        <v>1</v>
+      </c>
+      <c r="C123" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D123" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="E123" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="F123" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="G123" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="H123" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="I123" s="8"/>
+      <c r="J123" s="8"/>
+      <c r="K123" s="14" t="s">
+        <v>86</v>
+      </c>
+      <c r="L123" s="14" t="s">
+        <v>88</v>
+      </c>
+      <c r="M123" s="8"/>
+      <c r="N123" s="8"/>
+      <c r="O123" s="8"/>
+      <c r="P123" s="8"/>
+      <c r="Q123" s="8"/>
+      <c r="R123" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="S123" s="14" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="124" spans="1:19" ht="18" customHeight="1">
+      <c r="A124" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="B124" s="8">
+        <v>1</v>
+      </c>
+      <c r="C124" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D124" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="E124" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="F124" s="8"/>
+      <c r="G124" s="8"/>
+      <c r="H124" s="8"/>
+      <c r="I124" s="8"/>
+      <c r="J124" s="8"/>
+      <c r="K124" s="8"/>
+      <c r="L124" s="8"/>
+      <c r="M124" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="N124" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="O124" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="P124" s="15"/>
+      <c r="Q124" s="15"/>
+      <c r="R124" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="S124" s="15"/>
+    </row>
+    <row r="125" spans="1:19" ht="18" customHeight="1">
+      <c r="A125" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="B125" s="8">
+        <v>1</v>
+      </c>
+      <c r="C125" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D125" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="E125" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="F125" s="8"/>
+      <c r="G125" s="8"/>
+      <c r="H125" s="8"/>
+      <c r="I125" s="8"/>
+      <c r="J125" s="8"/>
+      <c r="K125" s="8"/>
+      <c r="L125" s="8"/>
+      <c r="M125" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="N125" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="O125" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="P125" s="15"/>
+      <c r="Q125" s="15"/>
+      <c r="R125" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="S125" s="15"/>
+    </row>
+    <row r="126" spans="1:19" ht="18" customHeight="1">
+      <c r="A126" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="B126" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="C126" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="D126" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="E126" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="F126" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="G126" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="H126" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="I126" s="10" t="s">
+        <v>103</v>
+      </c>
+      <c r="J126" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="K126" s="11"/>
+      <c r="L126" s="11"/>
+      <c r="M126" s="11"/>
+      <c r="N126" s="11"/>
+      <c r="O126" s="11"/>
+      <c r="P126" s="11"/>
+      <c r="Q126" s="11"/>
+      <c r="R126" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="S126" s="10" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="127" spans="1:19" ht="18" customHeight="1">
+      <c r="A127" s="8" t="s">
+        <v>118</v>
+      </c>
+      <c r="B127" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="C127" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="D127" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="E127" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="F127" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="G127" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="H127" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="I127" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="J127" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="K127" s="11"/>
+      <c r="L127" s="11"/>
+      <c r="M127" s="11"/>
+      <c r="N127" s="11"/>
+      <c r="O127" s="11"/>
+      <c r="P127" s="11"/>
+      <c r="Q127" s="11"/>
+      <c r="R127" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="S127" s="10" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="128" spans="1:19" ht="18" customHeight="1">
+      <c r="A128" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="B128" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="C128" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="D128" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="E128" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="F128" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="G128" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="H128" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="I128" s="11"/>
+      <c r="J128" s="11"/>
+      <c r="K128" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="L128" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="M128" s="11"/>
+      <c r="N128" s="11"/>
+      <c r="O128" s="11"/>
+      <c r="P128" s="11"/>
+      <c r="Q128" s="11"/>
+      <c r="R128" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="S128" s="10" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="129" spans="1:19" ht="18" customHeight="1">
+      <c r="A129" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="B129" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="C129" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="D129" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="E129" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="F129" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="G129" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="H129" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="I129" s="11"/>
+      <c r="J129" s="11"/>
+      <c r="K129" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="L129" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="M129" s="11"/>
+      <c r="N129" s="11"/>
+      <c r="O129" s="11"/>
+      <c r="P129" s="11"/>
+      <c r="Q129" s="11"/>
+      <c r="R129" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="S129" s="10" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="130" spans="1:19" ht="18" customHeight="1">
+      <c r="A130" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="B130" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="C130" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="D130" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="E130" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="F130" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="G130" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="H130" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="I130" s="10" t="s">
+        <v>103</v>
+      </c>
+      <c r="J130" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="K130" s="11"/>
+      <c r="L130" s="11"/>
+      <c r="M130" s="11"/>
+      <c r="N130" s="11"/>
+      <c r="O130" s="11"/>
+      <c r="P130" s="11"/>
+      <c r="Q130" s="11"/>
+      <c r="R130" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="S130" s="10" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="131" spans="1:19" ht="18" customHeight="1">
+      <c r="A131" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="B131" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="C131" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="D131" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="E131" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="F131" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="G131" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="H131" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="I131" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="J131" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="K131" s="11"/>
+      <c r="L131" s="11"/>
+      <c r="M131" s="11"/>
+      <c r="N131" s="11"/>
+      <c r="O131" s="11"/>
+      <c r="P131" s="11"/>
+      <c r="Q131" s="11"/>
+      <c r="R131" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="S131" s="10" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="132" spans="1:19" ht="18" customHeight="1">
+      <c r="A132" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="B132" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="C132" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="D132" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="E132" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="F132" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="G132" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="H132" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="I132" s="11"/>
+      <c r="J132" s="11"/>
+      <c r="K132" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="L132" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="M132" s="11"/>
+      <c r="N132" s="11"/>
+      <c r="O132" s="11"/>
+      <c r="P132" s="11"/>
+      <c r="Q132" s="11"/>
+      <c r="R132" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="S132" s="10" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="133" spans="1:19" ht="18" customHeight="1">
+      <c r="A133" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="B133" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="C133" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="D133" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="E133" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="F133" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="G133" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="H133" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="I133" s="11"/>
+      <c r="J133" s="11"/>
+      <c r="K133" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="L133" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="M133" s="11"/>
+      <c r="N133" s="11"/>
+      <c r="O133" s="11"/>
+      <c r="P133" s="11"/>
+      <c r="Q133" s="11"/>
+      <c r="R133" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="S133" s="10" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="134" spans="1:19" ht="18" customHeight="1">
+      <c r="A134" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="B134" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="C134" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="D134" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="E134" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="F134" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="G134" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="H134" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="I134" s="10" t="s">
+        <v>103</v>
+      </c>
+      <c r="J134" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="K134" s="11"/>
+      <c r="L134" s="11"/>
+      <c r="M134" s="11"/>
+      <c r="N134" s="11"/>
+      <c r="O134" s="11"/>
+      <c r="P134" s="11"/>
+      <c r="Q134" s="11"/>
+      <c r="R134" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="S134" s="10" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="135" spans="1:19" ht="18" customHeight="1">
+      <c r="A135" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="B135" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="C135" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="D135" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="E135" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="F135" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="G135" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="H135" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="I135" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="J135" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="K135" s="11"/>
+      <c r="L135" s="11"/>
+      <c r="M135" s="11"/>
+      <c r="N135" s="11"/>
+      <c r="O135" s="11"/>
+      <c r="P135" s="11"/>
+      <c r="Q135" s="11"/>
+      <c r="R135" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="S135" s="10" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="136" spans="1:19" ht="18" customHeight="1">
+      <c r="A136" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="B136" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="C136" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="D136" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="E136" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="F136" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="G136" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="H136" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="I136" s="11"/>
+      <c r="J136" s="11"/>
+      <c r="K136" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="L136" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="M136" s="11"/>
+      <c r="N136" s="11"/>
+      <c r="O136" s="11"/>
+      <c r="P136" s="11"/>
+      <c r="Q136" s="11"/>
+      <c r="R136" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="S136" s="10" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="137" spans="1:19" ht="18" customHeight="1">
+      <c r="A137" s="8" t="s">
+        <v>128</v>
+      </c>
+      <c r="B137" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="C137" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="D137" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="E137" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="F137" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="G137" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="H137" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="I137" s="11"/>
+      <c r="J137" s="11"/>
+      <c r="K137" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="L137" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="M137" s="11"/>
+      <c r="N137" s="11"/>
+      <c r="O137" s="11"/>
+      <c r="P137" s="11"/>
+      <c r="Q137" s="11"/>
+      <c r="R137" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="S137" s="10" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="138" spans="1:19" ht="18" customHeight="1">
+      <c r="A138" s="8" t="s">
+        <v>129</v>
+      </c>
+      <c r="B138" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="C138" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="D138" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="E138" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="F138" s="11"/>
+      <c r="G138" s="11"/>
+      <c r="H138" s="11"/>
+      <c r="I138" s="11"/>
+      <c r="J138" s="11"/>
+      <c r="K138" s="11"/>
+      <c r="L138" s="11"/>
+      <c r="M138" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="N138" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="O138" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="P138" s="12"/>
+      <c r="Q138" s="12"/>
+      <c r="R138" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="S138" s="12"/>
+    </row>
+    <row r="139" spans="1:19" ht="18" customHeight="1">
+      <c r="A139" s="8" t="s">
+        <v>130</v>
+      </c>
+      <c r="B139" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="C139" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="D139" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="E139" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="F139" s="11"/>
+      <c r="G139" s="11"/>
+      <c r="H139" s="11"/>
+      <c r="I139" s="11"/>
+      <c r="J139" s="11"/>
+      <c r="K139" s="11"/>
+      <c r="L139" s="11"/>
+      <c r="M139" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="N139" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="O139" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="P139" s="12"/>
+      <c r="Q139" s="12"/>
+      <c r="R139" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="S139" s="12"/>
+    </row>
+    <row r="140" spans="1:19" ht="18" customHeight="1">
+      <c r="A140" s="8" t="s">
+        <v>131</v>
+      </c>
+      <c r="B140" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="C140" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="D140" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="E140" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="F140" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="G140" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="H140" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="I140" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="J140" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="K140" s="13"/>
+      <c r="L140" s="13"/>
+      <c r="M140" s="13"/>
+      <c r="N140" s="13"/>
+      <c r="O140" s="13"/>
+      <c r="P140" s="13"/>
+      <c r="Q140" s="13"/>
+      <c r="R140" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="S140" s="9" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="141" spans="1:19" ht="18" customHeight="1">
+      <c r="A141" s="8" t="s">
+        <v>132</v>
+      </c>
+      <c r="B141" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="C141" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="D141" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="E141" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="F141" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="G141" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="H141" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="I141" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="J141" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="K141" s="13"/>
+      <c r="L141" s="13"/>
+      <c r="M141" s="13"/>
+      <c r="N141" s="13"/>
+      <c r="O141" s="13"/>
+      <c r="P141" s="13"/>
+      <c r="Q141" s="13"/>
+      <c r="R141" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="S141" s="9" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="142" spans="1:19" ht="18" customHeight="1">
+      <c r="A142" s="8" t="s">
+        <v>133</v>
+      </c>
+      <c r="B142" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="C142" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="D142" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="E142" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="F142" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="G142" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="H142" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="I142" s="13"/>
+      <c r="J142" s="13"/>
+      <c r="K142" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="L142" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="M142" s="13"/>
+      <c r="N142" s="13"/>
+      <c r="O142" s="13"/>
+      <c r="P142" s="13"/>
+      <c r="Q142" s="13"/>
+      <c r="R142" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="S142" s="9" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="143" spans="1:19" ht="18" customHeight="1">
+      <c r="A143" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="B143" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="C143" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="D143" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="E143" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="F143" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="G143" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="H143" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="I143" s="13"/>
+      <c r="J143" s="13"/>
+      <c r="K143" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="L143" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="M143" s="13"/>
+      <c r="N143" s="13"/>
+      <c r="O143" s="13"/>
+      <c r="P143" s="13"/>
+      <c r="Q143" s="13"/>
+      <c r="R143" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="S143" s="9" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="144" spans="1:19" ht="18" customHeight="1">
+      <c r="A144" s="8" t="s">
+        <v>135</v>
+      </c>
+      <c r="B144" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="C144" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="D144" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="E144" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="F144" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="G144" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="H144" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="I144" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="J144" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="K144" s="13"/>
+      <c r="L144" s="13"/>
+      <c r="M144" s="13"/>
+      <c r="N144" s="13"/>
+      <c r="O144" s="13"/>
+      <c r="P144" s="13"/>
+      <c r="Q144" s="13"/>
+      <c r="R144" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="S144" s="9" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="145" spans="1:19" ht="18" customHeight="1">
+      <c r="A145" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="B145" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="C145" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="D145" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="E145" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="F145" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="G145" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="H145" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="I145" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="J145" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="K145" s="13"/>
+      <c r="L145" s="13"/>
+      <c r="M145" s="13"/>
+      <c r="N145" s="13"/>
+      <c r="O145" s="13"/>
+      <c r="P145" s="13"/>
+      <c r="Q145" s="13"/>
+      <c r="R145" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="S145" s="9" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="146" spans="1:19" ht="18" customHeight="1">
+      <c r="A146" s="8" t="s">
+        <v>137</v>
+      </c>
+      <c r="B146" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="C146" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="D146" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="E146" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="F146" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="G146" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="H146" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="I146" s="13"/>
+      <c r="J146" s="13"/>
+      <c r="K146" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="L146" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="M146" s="13"/>
+      <c r="N146" s="13"/>
+      <c r="O146" s="13"/>
+      <c r="P146" s="13"/>
+      <c r="Q146" s="13"/>
+      <c r="R146" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="S146" s="9" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="147" spans="1:19" ht="18" customHeight="1">
+      <c r="A147" s="8" t="s">
+        <v>138</v>
+      </c>
+      <c r="B147" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="C147" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="D147" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="E147" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="F147" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="G147" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="H147" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="I147" s="13"/>
+      <c r="J147" s="13"/>
+      <c r="K147" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="L147" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="M147" s="13"/>
+      <c r="N147" s="13"/>
+      <c r="O147" s="13"/>
+      <c r="P147" s="13"/>
+      <c r="Q147" s="13"/>
+      <c r="R147" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="S147" s="9" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="148" spans="1:19" ht="18" customHeight="1">
+      <c r="A148" s="8" t="s">
+        <v>139</v>
+      </c>
+      <c r="B148" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="C148" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="D148" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="E148" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="F148" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="G148" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="H148" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="I148" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="J148" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="K148" s="13"/>
+      <c r="L148" s="13"/>
+      <c r="M148" s="13"/>
+      <c r="N148" s="13"/>
+      <c r="O148" s="13"/>
+      <c r="P148" s="13"/>
+      <c r="Q148" s="13"/>
+      <c r="R148" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="S148" s="9" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="149" spans="1:19" ht="18" customHeight="1">
+      <c r="A149" s="8" t="s">
+        <v>140</v>
+      </c>
+      <c r="B149" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="C149" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="D149" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="E149" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="F149" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="G149" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="H149" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="I149" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="J149" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="K149" s="13"/>
+      <c r="L149" s="13"/>
+      <c r="M149" s="13"/>
+      <c r="N149" s="13"/>
+      <c r="O149" s="13"/>
+      <c r="P149" s="13"/>
+      <c r="Q149" s="13"/>
+      <c r="R149" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="S149" s="9" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="150" spans="1:19" ht="18" customHeight="1">
+      <c r="A150" s="8" t="s">
+        <v>141</v>
+      </c>
+      <c r="B150" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="C150" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="D150" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="E150" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="F150" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="G150" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="H150" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="I150" s="13"/>
+      <c r="J150" s="13"/>
+      <c r="K150" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="L150" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="M150" s="13"/>
+      <c r="N150" s="13"/>
+      <c r="O150" s="13"/>
+      <c r="P150" s="13"/>
+      <c r="Q150" s="13"/>
+      <c r="R150" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="S150" s="9" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="151" spans="1:19" ht="18" customHeight="1">
+      <c r="A151" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="B151" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="C151" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="D151" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="E151" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="F151" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="G151" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="H151" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="I151" s="13"/>
+      <c r="J151" s="13"/>
+      <c r="K151" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="L151" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="M151" s="13"/>
+      <c r="N151" s="13"/>
+      <c r="O151" s="13"/>
+      <c r="P151" s="13"/>
+      <c r="Q151" s="13"/>
+      <c r="R151" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="S151" s="9" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="152" spans="1:19" ht="18" customHeight="1">
+      <c r="A152" s="8" t="s">
+        <v>143</v>
+      </c>
+      <c r="B152" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="C152" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="D152" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="E152" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="F152" s="13"/>
+      <c r="G152" s="13"/>
+      <c r="H152" s="13"/>
+      <c r="I152" s="13"/>
+      <c r="J152" s="13"/>
+      <c r="K152" s="13"/>
+      <c r="L152" s="13"/>
+      <c r="M152" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="N152" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="O152" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="P152" s="16"/>
+      <c r="Q152" s="16"/>
+      <c r="R152" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="S152" s="16"/>
+    </row>
+    <row r="153" spans="1:19" ht="18" customHeight="1">
+      <c r="A153" s="8" t="s">
+        <v>144</v>
+      </c>
+      <c r="B153" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="C153" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="D153" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="E153" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="F153" s="13"/>
+      <c r="G153" s="13"/>
+      <c r="H153" s="13"/>
+      <c r="I153" s="13"/>
+      <c r="J153" s="13"/>
+      <c r="K153" s="13"/>
+      <c r="L153" s="13"/>
+      <c r="M153" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="N153" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="O153" s="16" t="s">
         <v>53</v>
       </c>
-      <c r="P99" s="16"/>
-      <c r="Q99" s="16"/>
-      <c r="R99" s="16" t="s">
+      <c r="P153" s="16"/>
+      <c r="Q153" s="16"/>
+      <c r="R153" s="16" t="s">
         <v>56</v>
       </c>
-      <c r="S99" s="16"/>
+      <c r="S153" s="16"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:Q208"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="R5" sqref="R5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="3.88671875" defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="3" width="3.88671875" style="4"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17">
+      <c r="A1" s="39" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
+      <c r="A2" s="39"/>
+      <c r="Q2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
+      <c r="A3" s="40" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
+      <c r="Q4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
+      <c r="A5" s="37" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="64" t="s">
+        <v>60</v>
+      </c>
+      <c r="C5" s="64"/>
+      <c r="D5" s="64"/>
+      <c r="E5" s="64"/>
+      <c r="F5" s="64" t="s">
+        <v>61</v>
+      </c>
+      <c r="G5" s="64"/>
+      <c r="H5" s="64"/>
+      <c r="I5" s="64"/>
+      <c r="J5" s="64"/>
+      <c r="K5" s="64" t="s">
+        <v>62</v>
+      </c>
+      <c r="L5" s="64"/>
+      <c r="M5" s="64"/>
+      <c r="N5" s="64"/>
+      <c r="O5" s="64"/>
+      <c r="P5" s="64"/>
+      <c r="Q5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
+      <c r="A6" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="67" t="s">
+        <v>73</v>
+      </c>
+      <c r="C6" s="68"/>
+      <c r="D6" s="68"/>
+      <c r="E6" s="69"/>
+      <c r="F6" s="67" t="s">
+        <v>74</v>
+      </c>
+      <c r="G6" s="68"/>
+      <c r="H6" s="68"/>
+      <c r="I6" s="68"/>
+      <c r="J6" s="69"/>
+      <c r="K6" s="67" t="s">
+        <v>75</v>
+      </c>
+      <c r="L6" s="68"/>
+      <c r="M6" s="68"/>
+      <c r="N6" s="68"/>
+      <c r="O6" s="68"/>
+      <c r="P6" s="69"/>
+      <c r="Q6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
+      <c r="A7" s="20"/>
+      <c r="B7" s="21"/>
+      <c r="C7" s="21"/>
+      <c r="D7" s="21"/>
+      <c r="E7" s="22"/>
+      <c r="F7" s="22"/>
+      <c r="G7" s="22"/>
+      <c r="H7" s="22"/>
+      <c r="I7" s="22"/>
+      <c r="J7" s="22"/>
+      <c r="K7" s="23"/>
+      <c r="L7" s="23"/>
+      <c r="M7" s="23"/>
+      <c r="N7" s="23"/>
+      <c r="O7" s="23"/>
+      <c r="P7" s="24"/>
+      <c r="Q7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
+      <c r="A8" s="25"/>
+      <c r="B8" s="21"/>
+      <c r="C8" s="37" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8" s="61" t="s">
+        <v>63</v>
+      </c>
+      <c r="E8" s="62"/>
+      <c r="F8" s="63"/>
+      <c r="G8" s="64" t="s">
+        <v>64</v>
+      </c>
+      <c r="H8" s="64"/>
+      <c r="I8" s="64"/>
+      <c r="J8" s="64"/>
+      <c r="K8" s="64"/>
+      <c r="L8" s="23"/>
+      <c r="M8" s="23"/>
+      <c r="N8" s="23"/>
+      <c r="O8" s="23"/>
+      <c r="P8" s="26"/>
+      <c r="Q8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
+      <c r="A9" s="25"/>
+      <c r="B9" s="21"/>
+      <c r="C9" s="27" t="s">
+        <v>67</v>
+      </c>
+      <c r="D9" s="71" t="s">
+        <v>69</v>
+      </c>
+      <c r="E9" s="72"/>
+      <c r="F9" s="73"/>
+      <c r="G9" s="74" t="s">
+        <v>70</v>
+      </c>
+      <c r="H9" s="74"/>
+      <c r="I9" s="74"/>
+      <c r="J9" s="74"/>
+      <c r="K9" s="74"/>
+      <c r="L9" s="23"/>
+      <c r="M9" s="23"/>
+      <c r="N9" s="23"/>
+      <c r="O9" s="23"/>
+      <c r="P9" s="26"/>
+      <c r="Q9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
+      <c r="A10" s="25"/>
+      <c r="B10" s="21"/>
+      <c r="C10" s="19"/>
+      <c r="D10" s="44"/>
+      <c r="E10" s="44"/>
+      <c r="F10" s="44"/>
+      <c r="G10" s="45"/>
+      <c r="H10" s="45"/>
+      <c r="I10" s="45"/>
+      <c r="J10" s="46"/>
+      <c r="K10" s="24"/>
+      <c r="L10" s="23"/>
+      <c r="M10" s="23"/>
+      <c r="N10" s="23"/>
+      <c r="O10" s="23"/>
+      <c r="P10" s="26"/>
+      <c r="Q10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
+      <c r="A11" s="25"/>
+      <c r="B11" s="21"/>
+      <c r="C11" s="49"/>
+      <c r="D11" s="42"/>
+      <c r="E11" s="52" t="s">
+        <v>9</v>
+      </c>
+      <c r="F11" s="75" t="s">
+        <v>95</v>
+      </c>
+      <c r="G11" s="75"/>
+      <c r="H11" s="76" t="s">
+        <v>64</v>
+      </c>
+      <c r="I11" s="76"/>
+      <c r="J11" s="76"/>
+      <c r="K11" s="26"/>
+      <c r="L11" s="23"/>
+      <c r="M11" s="23"/>
+      <c r="N11" s="23"/>
+      <c r="O11" s="23"/>
+      <c r="P11" s="26"/>
+      <c r="Q11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
+      <c r="A12" s="25"/>
+      <c r="B12" s="21"/>
+      <c r="C12" s="49"/>
+      <c r="D12" s="42"/>
+      <c r="E12" s="41"/>
+      <c r="F12" s="71" t="s">
+        <v>96</v>
+      </c>
+      <c r="G12" s="73"/>
+      <c r="H12" s="77" t="s">
+        <v>97</v>
+      </c>
+      <c r="I12" s="78"/>
+      <c r="J12" s="79"/>
+      <c r="K12" s="26"/>
+      <c r="L12" s="23"/>
+      <c r="M12" s="23"/>
+      <c r="N12" s="23"/>
+      <c r="O12" s="23"/>
+      <c r="P12" s="26"/>
+      <c r="Q12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
+      <c r="A13" s="25"/>
+      <c r="B13" s="21"/>
+      <c r="C13" s="49"/>
+      <c r="D13" s="42"/>
+      <c r="E13" s="41"/>
+      <c r="F13" s="71" t="s">
+        <v>96</v>
+      </c>
+      <c r="G13" s="73"/>
+      <c r="H13" s="77" t="s">
+        <v>97</v>
+      </c>
+      <c r="I13" s="78"/>
+      <c r="J13" s="79"/>
+      <c r="K13" s="26"/>
+      <c r="L13" s="23"/>
+      <c r="M13" s="23"/>
+      <c r="N13" s="23"/>
+      <c r="O13" s="23"/>
+      <c r="P13" s="26"/>
+      <c r="Q13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
+      <c r="A14" s="25"/>
+      <c r="B14" s="21"/>
+      <c r="C14" s="49"/>
+      <c r="D14" s="42"/>
+      <c r="E14" s="42"/>
+      <c r="F14" s="42"/>
+      <c r="G14" s="43"/>
+      <c r="H14" s="43"/>
+      <c r="I14" s="43"/>
+      <c r="J14" s="22"/>
+      <c r="K14" s="26"/>
+      <c r="L14" s="23"/>
+      <c r="M14" s="23"/>
+      <c r="N14" s="23"/>
+      <c r="O14" s="23"/>
+      <c r="P14" s="26"/>
+      <c r="Q14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
+      <c r="A15" s="25"/>
+      <c r="B15" s="21"/>
+      <c r="C15" s="49"/>
+      <c r="D15" s="42"/>
+      <c r="E15" s="52" t="s">
+        <v>9</v>
+      </c>
+      <c r="F15" s="75" t="s">
+        <v>95</v>
+      </c>
+      <c r="G15" s="75"/>
+      <c r="H15" s="76" t="s">
+        <v>64</v>
+      </c>
+      <c r="I15" s="76"/>
+      <c r="J15" s="76"/>
+      <c r="K15" s="26"/>
+      <c r="L15" s="23"/>
+      <c r="M15" s="23"/>
+      <c r="N15" s="23"/>
+      <c r="O15" s="23"/>
+      <c r="P15" s="26"/>
+      <c r="Q15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
+      <c r="A16" s="25"/>
+      <c r="B16" s="21"/>
+      <c r="C16" s="49"/>
+      <c r="D16" s="42"/>
+      <c r="E16" s="41"/>
+      <c r="F16" s="71" t="s">
+        <v>96</v>
+      </c>
+      <c r="G16" s="73"/>
+      <c r="H16" s="77" t="s">
+        <v>97</v>
+      </c>
+      <c r="I16" s="78"/>
+      <c r="J16" s="79"/>
+      <c r="K16" s="26"/>
+      <c r="L16" s="23"/>
+      <c r="M16" s="23"/>
+      <c r="N16" s="23"/>
+      <c r="O16" s="23"/>
+      <c r="P16" s="26"/>
+      <c r="Q16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
+      <c r="A17" s="25"/>
+      <c r="B17" s="21"/>
+      <c r="C17" s="49"/>
+      <c r="D17" s="42"/>
+      <c r="E17" s="41"/>
+      <c r="F17" s="71" t="s">
+        <v>96</v>
+      </c>
+      <c r="G17" s="73"/>
+      <c r="H17" s="77" t="s">
+        <v>97</v>
+      </c>
+      <c r="I17" s="78"/>
+      <c r="J17" s="79"/>
+      <c r="K17" s="26"/>
+      <c r="L17" s="23"/>
+      <c r="M17" s="23"/>
+      <c r="N17" s="23"/>
+      <c r="O17" s="23"/>
+      <c r="P17" s="26"/>
+      <c r="Q17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
+      <c r="A18" s="25"/>
+      <c r="B18" s="21"/>
+      <c r="C18" s="50"/>
+      <c r="D18" s="47"/>
+      <c r="E18" s="47"/>
+      <c r="F18" s="47"/>
+      <c r="G18" s="48"/>
+      <c r="H18" s="48"/>
+      <c r="I18" s="48"/>
+      <c r="J18" s="34"/>
+      <c r="K18" s="36"/>
+      <c r="L18" s="23"/>
+      <c r="M18" s="23"/>
+      <c r="N18" s="23"/>
+      <c r="O18" s="23"/>
+      <c r="P18" s="26"/>
+      <c r="Q18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
+      <c r="A19" s="25"/>
+      <c r="B19" s="21"/>
+      <c r="C19" s="27" t="s">
+        <v>67</v>
+      </c>
+      <c r="D19" s="71" t="s">
+        <v>69</v>
+      </c>
+      <c r="E19" s="72"/>
+      <c r="F19" s="73"/>
+      <c r="G19" s="74" t="s">
+        <v>70</v>
+      </c>
+      <c r="H19" s="74"/>
+      <c r="I19" s="74"/>
+      <c r="J19" s="74"/>
+      <c r="K19" s="74"/>
+      <c r="L19" s="23"/>
+      <c r="M19" s="23"/>
+      <c r="N19" s="23"/>
+      <c r="O19" s="23"/>
+      <c r="P19" s="26"/>
+      <c r="Q19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
+      <c r="A20" s="25"/>
+      <c r="B20" s="21"/>
+      <c r="C20" s="19"/>
+      <c r="D20" s="44"/>
+      <c r="E20" s="44"/>
+      <c r="F20" s="44"/>
+      <c r="G20" s="45"/>
+      <c r="H20" s="45"/>
+      <c r="I20" s="45"/>
+      <c r="J20" s="46"/>
+      <c r="K20" s="24"/>
+      <c r="L20" s="23"/>
+      <c r="M20" s="23"/>
+      <c r="N20" s="23"/>
+      <c r="O20" s="23"/>
+      <c r="P20" s="26"/>
+      <c r="Q20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
+      <c r="A21" s="25"/>
+      <c r="B21" s="21"/>
+      <c r="C21" s="49"/>
+      <c r="D21" s="42"/>
+      <c r="E21" s="52" t="s">
+        <v>9</v>
+      </c>
+      <c r="F21" s="75" t="s">
+        <v>95</v>
+      </c>
+      <c r="G21" s="75"/>
+      <c r="H21" s="76" t="s">
+        <v>64</v>
+      </c>
+      <c r="I21" s="76"/>
+      <c r="J21" s="76"/>
+      <c r="K21" s="26"/>
+      <c r="L21" s="23"/>
+      <c r="M21" s="23"/>
+      <c r="N21" s="23"/>
+      <c r="O21" s="23"/>
+      <c r="P21" s="26"/>
+      <c r="Q21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
+      <c r="A22" s="25"/>
+      <c r="B22" s="21"/>
+      <c r="C22" s="49"/>
+      <c r="D22" s="42"/>
+      <c r="E22" s="41"/>
+      <c r="F22" s="71" t="s">
+        <v>96</v>
+      </c>
+      <c r="G22" s="73"/>
+      <c r="H22" s="77" t="s">
+        <v>97</v>
+      </c>
+      <c r="I22" s="78"/>
+      <c r="J22" s="79"/>
+      <c r="K22" s="26"/>
+      <c r="L22" s="23"/>
+      <c r="M22" s="23"/>
+      <c r="N22" s="23"/>
+      <c r="O22" s="23"/>
+      <c r="P22" s="26"/>
+      <c r="Q22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
+      <c r="A23" s="25"/>
+      <c r="B23" s="21"/>
+      <c r="C23" s="49"/>
+      <c r="D23" s="42"/>
+      <c r="E23" s="41"/>
+      <c r="F23" s="71" t="s">
+        <v>96</v>
+      </c>
+      <c r="G23" s="73"/>
+      <c r="H23" s="77" t="s">
+        <v>97</v>
+      </c>
+      <c r="I23" s="78"/>
+      <c r="J23" s="79"/>
+      <c r="K23" s="26"/>
+      <c r="L23" s="23"/>
+      <c r="M23" s="23"/>
+      <c r="N23" s="23"/>
+      <c r="O23" s="23"/>
+      <c r="P23" s="26"/>
+      <c r="Q23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
+      <c r="A24" s="25"/>
+      <c r="B24" s="21"/>
+      <c r="C24" s="49"/>
+      <c r="D24" s="42"/>
+      <c r="E24" s="42"/>
+      <c r="F24" s="42"/>
+      <c r="G24" s="43"/>
+      <c r="H24" s="43"/>
+      <c r="I24" s="43"/>
+      <c r="J24" s="22"/>
+      <c r="K24" s="26"/>
+      <c r="L24" s="23"/>
+      <c r="M24" s="23"/>
+      <c r="N24" s="23"/>
+      <c r="O24" s="23"/>
+      <c r="P24" s="26"/>
+      <c r="Q24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
+      <c r="A25" s="25"/>
+      <c r="B25" s="21"/>
+      <c r="C25" s="49"/>
+      <c r="D25" s="42"/>
+      <c r="E25" s="52" t="s">
+        <v>9</v>
+      </c>
+      <c r="F25" s="75" t="s">
+        <v>95</v>
+      </c>
+      <c r="G25" s="75"/>
+      <c r="H25" s="76" t="s">
+        <v>64</v>
+      </c>
+      <c r="I25" s="76"/>
+      <c r="J25" s="76"/>
+      <c r="K25" s="26"/>
+      <c r="L25" s="23"/>
+      <c r="M25" s="23"/>
+      <c r="N25" s="23"/>
+      <c r="O25" s="23"/>
+      <c r="P25" s="26"/>
+      <c r="Q25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17">
+      <c r="A26" s="25"/>
+      <c r="B26" s="21"/>
+      <c r="C26" s="49"/>
+      <c r="D26" s="42"/>
+      <c r="E26" s="41"/>
+      <c r="F26" s="71" t="s">
+        <v>96</v>
+      </c>
+      <c r="G26" s="73"/>
+      <c r="H26" s="77" t="s">
+        <v>97</v>
+      </c>
+      <c r="I26" s="78"/>
+      <c r="J26" s="79"/>
+      <c r="K26" s="26"/>
+      <c r="L26" s="23"/>
+      <c r="M26" s="23"/>
+      <c r="N26" s="23"/>
+      <c r="O26" s="23"/>
+      <c r="P26" s="26"/>
+      <c r="Q26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17">
+      <c r="A27" s="25"/>
+      <c r="B27" s="21"/>
+      <c r="C27" s="49"/>
+      <c r="D27" s="42"/>
+      <c r="E27" s="41"/>
+      <c r="F27" s="71" t="s">
+        <v>96</v>
+      </c>
+      <c r="G27" s="73"/>
+      <c r="H27" s="77" t="s">
+        <v>97</v>
+      </c>
+      <c r="I27" s="78"/>
+      <c r="J27" s="79"/>
+      <c r="K27" s="26"/>
+      <c r="L27" s="23"/>
+      <c r="M27" s="23"/>
+      <c r="N27" s="23"/>
+      <c r="O27" s="23"/>
+      <c r="P27" s="26"/>
+      <c r="Q27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17">
+      <c r="A28" s="25"/>
+      <c r="B28" s="21"/>
+      <c r="C28" s="50"/>
+      <c r="D28" s="47"/>
+      <c r="E28" s="47"/>
+      <c r="F28" s="47"/>
+      <c r="G28" s="48"/>
+      <c r="H28" s="48"/>
+      <c r="I28" s="48"/>
+      <c r="J28" s="34"/>
+      <c r="K28" s="36"/>
+      <c r="L28" s="23"/>
+      <c r="M28" s="23"/>
+      <c r="N28" s="23"/>
+      <c r="O28" s="23"/>
+      <c r="P28" s="26"/>
+      <c r="Q28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17">
+      <c r="A29" s="25"/>
+      <c r="B29" s="21"/>
+      <c r="C29" s="27" t="s">
+        <v>67</v>
+      </c>
+      <c r="D29" s="71" t="s">
+        <v>69</v>
+      </c>
+      <c r="E29" s="72"/>
+      <c r="F29" s="73"/>
+      <c r="G29" s="74" t="s">
+        <v>70</v>
+      </c>
+      <c r="H29" s="74"/>
+      <c r="I29" s="74"/>
+      <c r="J29" s="74"/>
+      <c r="K29" s="74"/>
+      <c r="L29" s="23"/>
+      <c r="M29" s="23"/>
+      <c r="N29" s="23"/>
+      <c r="O29" s="23"/>
+      <c r="P29" s="26"/>
+      <c r="Q29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17">
+      <c r="A30" s="25"/>
+      <c r="B30" s="21"/>
+      <c r="C30" s="19"/>
+      <c r="D30" s="44"/>
+      <c r="E30" s="44"/>
+      <c r="F30" s="44"/>
+      <c r="G30" s="45"/>
+      <c r="H30" s="45"/>
+      <c r="I30" s="45"/>
+      <c r="J30" s="46"/>
+      <c r="K30" s="24"/>
+      <c r="L30" s="23"/>
+      <c r="M30" s="23"/>
+      <c r="N30" s="23"/>
+      <c r="O30" s="23"/>
+      <c r="P30" s="26"/>
+      <c r="Q30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17">
+      <c r="A31" s="25"/>
+      <c r="B31" s="21"/>
+      <c r="C31" s="49"/>
+      <c r="D31" s="42"/>
+      <c r="E31" s="52" t="s">
+        <v>9</v>
+      </c>
+      <c r="F31" s="75" t="s">
+        <v>95</v>
+      </c>
+      <c r="G31" s="75"/>
+      <c r="H31" s="76" t="s">
+        <v>64</v>
+      </c>
+      <c r="I31" s="76"/>
+      <c r="J31" s="76"/>
+      <c r="K31" s="26"/>
+      <c r="L31" s="23"/>
+      <c r="M31" s="23"/>
+      <c r="N31" s="23"/>
+      <c r="O31" s="23"/>
+      <c r="P31" s="26"/>
+      <c r="Q31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17">
+      <c r="A32" s="25"/>
+      <c r="B32" s="21"/>
+      <c r="C32" s="49"/>
+      <c r="D32" s="42"/>
+      <c r="E32" s="41"/>
+      <c r="F32" s="71" t="s">
+        <v>96</v>
+      </c>
+      <c r="G32" s="73"/>
+      <c r="H32" s="77" t="s">
+        <v>97</v>
+      </c>
+      <c r="I32" s="78"/>
+      <c r="J32" s="79"/>
+      <c r="K32" s="26"/>
+      <c r="L32" s="23"/>
+      <c r="M32" s="23"/>
+      <c r="N32" s="23"/>
+      <c r="O32" s="23"/>
+      <c r="P32" s="26"/>
+      <c r="Q32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17">
+      <c r="A33" s="25"/>
+      <c r="B33" s="21"/>
+      <c r="C33" s="49"/>
+      <c r="D33" s="42"/>
+      <c r="E33" s="41"/>
+      <c r="F33" s="71" t="s">
+        <v>96</v>
+      </c>
+      <c r="G33" s="73"/>
+      <c r="H33" s="77" t="s">
+        <v>97</v>
+      </c>
+      <c r="I33" s="78"/>
+      <c r="J33" s="79"/>
+      <c r="K33" s="26"/>
+      <c r="L33" s="23"/>
+      <c r="M33" s="23"/>
+      <c r="N33" s="23"/>
+      <c r="O33" s="23"/>
+      <c r="P33" s="26"/>
+      <c r="Q33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17">
+      <c r="A34" s="25"/>
+      <c r="B34" s="21"/>
+      <c r="C34" s="49"/>
+      <c r="D34" s="42"/>
+      <c r="E34" s="42"/>
+      <c r="F34" s="42"/>
+      <c r="G34" s="43"/>
+      <c r="H34" s="43"/>
+      <c r="I34" s="43"/>
+      <c r="J34" s="22"/>
+      <c r="K34" s="26"/>
+      <c r="L34" s="23"/>
+      <c r="M34" s="23"/>
+      <c r="N34" s="23"/>
+      <c r="O34" s="23"/>
+      <c r="P34" s="26"/>
+      <c r="Q34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17">
+      <c r="A35" s="25"/>
+      <c r="B35" s="21"/>
+      <c r="C35" s="49"/>
+      <c r="D35" s="42"/>
+      <c r="E35" s="52" t="s">
+        <v>9</v>
+      </c>
+      <c r="F35" s="75" t="s">
+        <v>95</v>
+      </c>
+      <c r="G35" s="75"/>
+      <c r="H35" s="76" t="s">
+        <v>64</v>
+      </c>
+      <c r="I35" s="76"/>
+      <c r="J35" s="76"/>
+      <c r="K35" s="26"/>
+      <c r="L35" s="23"/>
+      <c r="M35" s="23"/>
+      <c r="N35" s="23"/>
+      <c r="O35" s="23"/>
+      <c r="P35" s="26"/>
+      <c r="Q35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17">
+      <c r="A36" s="25"/>
+      <c r="B36" s="21"/>
+      <c r="C36" s="49"/>
+      <c r="D36" s="42"/>
+      <c r="E36" s="41"/>
+      <c r="F36" s="71" t="s">
+        <v>96</v>
+      </c>
+      <c r="G36" s="73"/>
+      <c r="H36" s="77" t="s">
+        <v>97</v>
+      </c>
+      <c r="I36" s="78"/>
+      <c r="J36" s="79"/>
+      <c r="K36" s="26"/>
+      <c r="L36" s="23"/>
+      <c r="M36" s="23"/>
+      <c r="N36" s="23"/>
+      <c r="O36" s="23"/>
+      <c r="P36" s="26"/>
+      <c r="Q36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:17">
+      <c r="A37" s="25"/>
+      <c r="B37" s="21"/>
+      <c r="C37" s="49"/>
+      <c r="D37" s="42"/>
+      <c r="E37" s="41"/>
+      <c r="F37" s="71" t="s">
+        <v>96</v>
+      </c>
+      <c r="G37" s="73"/>
+      <c r="H37" s="77" t="s">
+        <v>97</v>
+      </c>
+      <c r="I37" s="78"/>
+      <c r="J37" s="79"/>
+      <c r="K37" s="26"/>
+      <c r="L37" s="23"/>
+      <c r="M37" s="23"/>
+      <c r="N37" s="23"/>
+      <c r="O37" s="23"/>
+      <c r="P37" s="26"/>
+      <c r="Q37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:17">
+      <c r="A38" s="25"/>
+      <c r="B38" s="21"/>
+      <c r="C38" s="50"/>
+      <c r="D38" s="47"/>
+      <c r="E38" s="47"/>
+      <c r="F38" s="47"/>
+      <c r="G38" s="48"/>
+      <c r="H38" s="48"/>
+      <c r="I38" s="48"/>
+      <c r="J38" s="34"/>
+      <c r="K38" s="36"/>
+      <c r="L38" s="23"/>
+      <c r="M38" s="23"/>
+      <c r="N38" s="23"/>
+      <c r="O38" s="23"/>
+      <c r="P38" s="26"/>
+      <c r="Q38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:17">
+      <c r="A39" s="25"/>
+      <c r="B39" s="21"/>
+      <c r="C39" s="21"/>
+      <c r="D39" s="28"/>
+      <c r="E39" s="22"/>
+      <c r="F39" s="22"/>
+      <c r="G39" s="22"/>
+      <c r="H39" s="22"/>
+      <c r="I39" s="22"/>
+      <c r="J39" s="22"/>
+      <c r="K39" s="23"/>
+      <c r="L39" s="23"/>
+      <c r="M39" s="23"/>
+      <c r="N39" s="23"/>
+      <c r="O39" s="23"/>
+      <c r="P39" s="26"/>
+      <c r="Q39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:17">
+      <c r="A40" s="25"/>
+      <c r="B40" s="21"/>
+      <c r="C40" s="29"/>
+      <c r="D40" s="23"/>
+      <c r="E40" s="23"/>
+      <c r="F40" s="37" t="s">
+        <v>9</v>
+      </c>
+      <c r="G40" s="64" t="s">
+        <v>65</v>
+      </c>
+      <c r="H40" s="64"/>
+      <c r="I40" s="64"/>
+      <c r="J40" s="64" t="s">
+        <v>66</v>
+      </c>
+      <c r="K40" s="64"/>
+      <c r="L40" s="64"/>
+      <c r="M40" s="23"/>
+      <c r="N40" s="23"/>
+      <c r="O40" s="23"/>
+      <c r="P40" s="26"/>
+      <c r="Q40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:17">
+      <c r="A41" s="25"/>
+      <c r="B41" s="21"/>
+      <c r="C41" s="30"/>
+      <c r="D41" s="22"/>
+      <c r="E41" s="22"/>
+      <c r="F41" s="27" t="s">
+        <v>68</v>
+      </c>
+      <c r="G41" s="70" t="s">
+        <v>71</v>
+      </c>
+      <c r="H41" s="70"/>
+      <c r="I41" s="70"/>
+      <c r="J41" s="74" t="s">
+        <v>72</v>
+      </c>
+      <c r="K41" s="74"/>
+      <c r="L41" s="74"/>
+      <c r="M41" s="22"/>
+      <c r="N41" s="22"/>
+      <c r="O41" s="22"/>
+      <c r="P41" s="26"/>
+      <c r="Q41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:17">
+      <c r="A42" s="25"/>
+      <c r="B42" s="21"/>
+      <c r="C42" s="30"/>
+      <c r="D42" s="22"/>
+      <c r="E42" s="22"/>
+      <c r="F42" s="54"/>
+      <c r="G42" s="53"/>
+      <c r="H42" s="64" t="s">
+        <v>168</v>
+      </c>
+      <c r="I42" s="64"/>
+      <c r="J42" s="64" t="s">
+        <v>66</v>
+      </c>
+      <c r="K42" s="64"/>
+      <c r="L42" s="64"/>
+      <c r="M42" s="22"/>
+      <c r="N42" s="22"/>
+      <c r="O42" s="22"/>
+      <c r="P42" s="26"/>
+      <c r="Q42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:17">
+      <c r="A43" s="25"/>
+      <c r="B43" s="21"/>
+      <c r="C43" s="30"/>
+      <c r="D43" s="22"/>
+      <c r="E43" s="22"/>
+      <c r="F43" s="55"/>
+      <c r="G43" s="34"/>
+      <c r="H43" s="80" t="s">
+        <v>171</v>
+      </c>
+      <c r="I43" s="81"/>
+      <c r="J43" s="74" t="s">
+        <v>169</v>
+      </c>
+      <c r="K43" s="74"/>
+      <c r="L43" s="74"/>
+      <c r="M43" s="22"/>
+      <c r="N43" s="22"/>
+      <c r="O43" s="22"/>
+      <c r="P43" s="26"/>
+      <c r="Q43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:17">
+      <c r="A44" s="25"/>
+      <c r="B44" s="21"/>
+      <c r="C44" s="30"/>
+      <c r="D44" s="22"/>
+      <c r="E44" s="22"/>
+      <c r="F44" s="55"/>
+      <c r="G44" s="34"/>
+      <c r="H44" s="80" t="s">
+        <v>171</v>
+      </c>
+      <c r="I44" s="81"/>
+      <c r="J44" s="74" t="s">
+        <v>169</v>
+      </c>
+      <c r="K44" s="74"/>
+      <c r="L44" s="74"/>
+      <c r="M44" s="22"/>
+      <c r="N44" s="22"/>
+      <c r="O44" s="22"/>
+      <c r="P44" s="26"/>
+      <c r="Q44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:17">
+      <c r="A45" s="25"/>
+      <c r="B45" s="21"/>
+      <c r="C45" s="30"/>
+      <c r="D45" s="22"/>
+      <c r="E45" s="22"/>
+      <c r="F45" s="55"/>
+      <c r="G45" s="34"/>
+      <c r="H45" s="80" t="s">
+        <v>171</v>
+      </c>
+      <c r="I45" s="81"/>
+      <c r="J45" s="74" t="s">
+        <v>169</v>
+      </c>
+      <c r="K45" s="74"/>
+      <c r="L45" s="74"/>
+      <c r="M45" s="22"/>
+      <c r="N45" s="22"/>
+      <c r="O45" s="22"/>
+      <c r="P45" s="26"/>
+      <c r="Q45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:17">
+      <c r="A46" s="25"/>
+      <c r="B46" s="21"/>
+      <c r="C46" s="30"/>
+      <c r="D46" s="22"/>
+      <c r="E46" s="22"/>
+      <c r="F46" s="27" t="s">
+        <v>68</v>
+      </c>
+      <c r="G46" s="70" t="s">
+        <v>71</v>
+      </c>
+      <c r="H46" s="70"/>
+      <c r="I46" s="70"/>
+      <c r="J46" s="74" t="s">
+        <v>72</v>
+      </c>
+      <c r="K46" s="74"/>
+      <c r="L46" s="74"/>
+      <c r="M46" s="22"/>
+      <c r="N46" s="22"/>
+      <c r="O46" s="22"/>
+      <c r="P46" s="26"/>
+      <c r="Q46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:17">
+      <c r="A47" s="25"/>
+      <c r="B47" s="21"/>
+      <c r="C47" s="30"/>
+      <c r="D47" s="22"/>
+      <c r="E47" s="22"/>
+      <c r="F47" s="54"/>
+      <c r="G47" s="53"/>
+      <c r="H47" s="64" t="s">
+        <v>168</v>
+      </c>
+      <c r="I47" s="64"/>
+      <c r="J47" s="64" t="s">
+        <v>66</v>
+      </c>
+      <c r="K47" s="64"/>
+      <c r="L47" s="64"/>
+      <c r="M47" s="22"/>
+      <c r="N47" s="22"/>
+      <c r="O47" s="22"/>
+      <c r="P47" s="26"/>
+      <c r="Q47">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:17">
+      <c r="A48" s="25"/>
+      <c r="B48" s="21"/>
+      <c r="C48" s="30"/>
+      <c r="D48" s="22"/>
+      <c r="E48" s="22"/>
+      <c r="F48" s="55"/>
+      <c r="G48" s="34"/>
+      <c r="H48" s="80" t="s">
+        <v>171</v>
+      </c>
+      <c r="I48" s="81"/>
+      <c r="J48" s="74" t="s">
+        <v>169</v>
+      </c>
+      <c r="K48" s="74"/>
+      <c r="L48" s="74"/>
+      <c r="M48" s="22"/>
+      <c r="N48" s="22"/>
+      <c r="O48" s="22"/>
+      <c r="P48" s="26"/>
+      <c r="Q48">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:17">
+      <c r="A49" s="25"/>
+      <c r="B49" s="21"/>
+      <c r="C49" s="30"/>
+      <c r="D49" s="22"/>
+      <c r="E49" s="22"/>
+      <c r="F49" s="55"/>
+      <c r="G49" s="34"/>
+      <c r="H49" s="80" t="s">
+        <v>171</v>
+      </c>
+      <c r="I49" s="81"/>
+      <c r="J49" s="74" t="s">
+        <v>169</v>
+      </c>
+      <c r="K49" s="74"/>
+      <c r="L49" s="74"/>
+      <c r="M49" s="22"/>
+      <c r="N49" s="22"/>
+      <c r="O49" s="22"/>
+      <c r="P49" s="26"/>
+      <c r="Q49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:17">
+      <c r="A50" s="25"/>
+      <c r="B50" s="21"/>
+      <c r="C50" s="30"/>
+      <c r="D50" s="22"/>
+      <c r="E50" s="22"/>
+      <c r="F50" s="55"/>
+      <c r="G50" s="34"/>
+      <c r="H50" s="80" t="s">
+        <v>171</v>
+      </c>
+      <c r="I50" s="81"/>
+      <c r="J50" s="74" t="s">
+        <v>169</v>
+      </c>
+      <c r="K50" s="74"/>
+      <c r="L50" s="74"/>
+      <c r="M50" s="22"/>
+      <c r="N50" s="22"/>
+      <c r="O50" s="22"/>
+      <c r="P50" s="26"/>
+      <c r="Q50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:17">
+      <c r="A51" s="31"/>
+      <c r="B51" s="32"/>
+      <c r="C51" s="33"/>
+      <c r="D51" s="34"/>
+      <c r="E51" s="34"/>
+      <c r="F51" s="35"/>
+      <c r="G51" s="35"/>
+      <c r="H51" s="35"/>
+      <c r="I51" s="35"/>
+      <c r="J51" s="35"/>
+      <c r="K51" s="35"/>
+      <c r="L51" s="35"/>
+      <c r="M51" s="34"/>
+      <c r="N51" s="34"/>
+      <c r="O51" s="34"/>
+      <c r="P51" s="36"/>
+      <c r="Q51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:17">
+      <c r="A52" s="28"/>
+      <c r="B52" s="21"/>
+      <c r="C52" s="30"/>
+      <c r="D52" s="22"/>
+      <c r="E52" s="22"/>
+      <c r="F52" s="56"/>
+      <c r="G52" s="56"/>
+      <c r="H52" s="56"/>
+      <c r="I52" s="56"/>
+      <c r="J52" s="56"/>
+      <c r="K52" s="56"/>
+      <c r="L52" s="56"/>
+      <c r="M52" s="22"/>
+      <c r="N52" s="22"/>
+      <c r="O52" s="22"/>
+      <c r="P52" s="22"/>
+      <c r="Q52">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:17">
+      <c r="A53" s="37" t="s">
+        <v>9</v>
+      </c>
+      <c r="B53" s="61" t="s">
+        <v>63</v>
+      </c>
+      <c r="C53" s="62"/>
+      <c r="D53" s="63"/>
+      <c r="E53" s="64" t="s">
+        <v>64</v>
+      </c>
+      <c r="F53" s="64"/>
+      <c r="G53" s="64"/>
+      <c r="H53" s="64"/>
+      <c r="I53" s="64"/>
+      <c r="J53" s="56"/>
+      <c r="K53" s="56"/>
+      <c r="L53" s="56"/>
+      <c r="M53" s="22"/>
+      <c r="N53" s="22"/>
+      <c r="O53" s="22"/>
+      <c r="P53" s="22"/>
+      <c r="Q53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:17">
+      <c r="A54" s="57"/>
+      <c r="B54" s="66"/>
+      <c r="C54" s="66"/>
+      <c r="D54" s="66"/>
+      <c r="E54" s="65"/>
+      <c r="F54" s="65"/>
+      <c r="G54" s="65"/>
+      <c r="H54" s="65"/>
+      <c r="I54" s="65"/>
+      <c r="J54" s="56"/>
+      <c r="K54" s="56"/>
+      <c r="L54" s="56"/>
+      <c r="M54" s="22"/>
+      <c r="N54" s="22"/>
+      <c r="O54" s="22"/>
+      <c r="P54" s="22"/>
+      <c r="Q54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:17">
+      <c r="A55" s="17"/>
+      <c r="B55" s="18"/>
+      <c r="C55" s="18"/>
+      <c r="D55" s="17"/>
+      <c r="Q55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:17">
+      <c r="A56" s="39" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q56">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:17">
+      <c r="A57" s="39"/>
+      <c r="Q57">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:17">
+      <c r="A58" s="39" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:17">
+      <c r="Q59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:17">
+      <c r="Q60">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:17">
+      <c r="Q61">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:17">
+      <c r="Q62">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:17">
+      <c r="Q63">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:17">
+      <c r="Q64">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="17:17">
+      <c r="Q65">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="17:17">
+      <c r="Q66">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="17:17">
+      <c r="Q67">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="17:17">
+      <c r="Q68">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="17:17">
+      <c r="Q69">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="17:17">
+      <c r="Q70">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="17:17">
+      <c r="Q71">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="17:17">
+      <c r="Q72">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="17:17">
+      <c r="Q73">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="17:17">
+      <c r="Q74">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="17:17">
+      <c r="Q75">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="17:17">
+      <c r="Q76">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="17:17">
+      <c r="Q77">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="17:17">
+      <c r="Q78">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="17:17">
+      <c r="Q79">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="17:17">
+      <c r="Q80">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="17:17">
+      <c r="Q81">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="17:17">
+      <c r="Q82">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="17:17">
+      <c r="Q83">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="17:17">
+      <c r="Q84">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="17:17">
+      <c r="Q85">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="17:17">
+      <c r="Q86">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" spans="17:17">
+      <c r="Q87">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" spans="17:17">
+      <c r="Q88">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" spans="17:17">
+      <c r="Q89">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90" spans="17:17">
+      <c r="Q90">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91" spans="17:17">
+      <c r="Q91">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92" spans="17:17">
+      <c r="Q92">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93" spans="17:17">
+      <c r="Q93">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94" spans="17:17">
+      <c r="Q94">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95" spans="17:17">
+      <c r="Q95">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96" spans="17:17">
+      <c r="Q96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97" spans="17:17">
+      <c r="Q97">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98" spans="17:17">
+      <c r="Q98">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99" spans="17:17">
+      <c r="Q99">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100" spans="17:17">
+      <c r="Q100">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101" spans="17:17">
+      <c r="Q101">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102" spans="17:17">
+      <c r="Q102">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103" spans="17:17">
+      <c r="Q103">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104" spans="17:17">
+      <c r="Q104">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="105" spans="17:17">
+      <c r="Q105">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="106" spans="17:17">
+      <c r="Q106">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="107" spans="17:17">
+      <c r="Q107">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108" spans="17:17">
+      <c r="Q108">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109" spans="17:17">
+      <c r="Q109">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="110" spans="17:17">
+      <c r="Q110">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="111" spans="17:17">
+      <c r="Q111">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="112" spans="17:17">
+      <c r="Q112">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="113" spans="17:17">
+      <c r="Q113">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="114" spans="17:17">
+      <c r="Q114">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="115" spans="17:17">
+      <c r="Q115">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="116" spans="17:17">
+      <c r="Q116">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="117" spans="17:17">
+      <c r="Q117">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="118" spans="17:17">
+      <c r="Q118">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="119" spans="17:17">
+      <c r="Q119">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="120" spans="17:17">
+      <c r="Q120">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="121" spans="17:17">
+      <c r="Q121">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="122" spans="17:17">
+      <c r="Q122">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="123" spans="17:17">
+      <c r="Q123">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="124" spans="17:17">
+      <c r="Q124">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="125" spans="17:17">
+      <c r="Q125">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="126" spans="17:17">
+      <c r="Q126">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="127" spans="17:17">
+      <c r="Q127">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="128" spans="17:17">
+      <c r="Q128">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="129" spans="17:17">
+      <c r="Q129">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="130" spans="17:17">
+      <c r="Q130">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="131" spans="17:17">
+      <c r="Q131">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="132" spans="17:17">
+      <c r="Q132">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="133" spans="17:17">
+      <c r="Q133">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="134" spans="17:17">
+      <c r="Q134">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="135" spans="17:17">
+      <c r="Q135">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="136" spans="17:17">
+      <c r="Q136">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="137" spans="17:17">
+      <c r="Q137">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="138" spans="17:17">
+      <c r="Q138">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="139" spans="17:17">
+      <c r="Q139">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="140" spans="17:17">
+      <c r="Q140">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="141" spans="17:17">
+      <c r="Q141">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="142" spans="17:17">
+      <c r="Q142">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="143" spans="17:17">
+      <c r="Q143">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="144" spans="17:17">
+      <c r="Q144">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="145" spans="17:17">
+      <c r="Q145">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="146" spans="17:17">
+      <c r="Q146">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="147" spans="17:17">
+      <c r="Q147">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="148" spans="17:17">
+      <c r="Q148">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="149" spans="17:17">
+      <c r="Q149">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="150" spans="17:17">
+      <c r="Q150">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="151" spans="17:17">
+      <c r="Q151">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="152" spans="17:17">
+      <c r="Q152">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="153" spans="17:17">
+      <c r="Q153">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="154" spans="17:17">
+      <c r="Q154">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="155" spans="17:17">
+      <c r="Q155">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="156" spans="17:17">
+      <c r="Q156">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="157" spans="17:17">
+      <c r="Q157">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="158" spans="17:17">
+      <c r="Q158">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="159" spans="17:17">
+      <c r="Q159">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="160" spans="17:17">
+      <c r="Q160">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="161" spans="17:17">
+      <c r="Q161">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="162" spans="17:17">
+      <c r="Q162">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="163" spans="17:17">
+      <c r="Q163">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="164" spans="17:17">
+      <c r="Q164">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="165" spans="17:17">
+      <c r="Q165">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="166" spans="17:17">
+      <c r="Q166">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="167" spans="17:17">
+      <c r="Q167">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="168" spans="17:17">
+      <c r="Q168">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="169" spans="17:17">
+      <c r="Q169">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="170" spans="17:17">
+      <c r="Q170">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="171" spans="17:17">
+      <c r="Q171">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="172" spans="17:17">
+      <c r="Q172">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="173" spans="17:17">
+      <c r="Q173">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="174" spans="17:17">
+      <c r="Q174">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="175" spans="17:17">
+      <c r="Q175">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="176" spans="17:17">
+      <c r="Q176">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="177" spans="17:17">
+      <c r="Q177">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="178" spans="17:17">
+      <c r="Q178">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="179" spans="17:17">
+      <c r="Q179">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="180" spans="17:17">
+      <c r="Q180">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="181" spans="17:17">
+      <c r="Q181">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="182" spans="17:17">
+      <c r="Q182">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="183" spans="17:17">
+      <c r="Q183">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="184" spans="17:17">
+      <c r="Q184">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="185" spans="17:17">
+      <c r="Q185">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="186" spans="17:17">
+      <c r="Q186">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="187" spans="17:17">
+      <c r="Q187">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="188" spans="17:17">
+      <c r="Q188">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="189" spans="17:17">
+      <c r="Q189">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="190" spans="17:17">
+      <c r="Q190">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="191" spans="17:17">
+      <c r="Q191">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="192" spans="17:17">
+      <c r="Q192">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="193" spans="17:17">
+      <c r="Q193">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="194" spans="17:17">
+      <c r="Q194">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="195" spans="17:17">
+      <c r="Q195">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="196" spans="17:17">
+      <c r="Q196">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="197" spans="17:17">
+      <c r="Q197">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="198" spans="17:17">
+      <c r="Q198">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="199" spans="17:17">
+      <c r="Q199">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="200" spans="17:17">
+      <c r="Q200">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="201" spans="17:17">
+      <c r="Q201">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="202" spans="17:17">
+      <c r="Q202">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="203" spans="17:17">
+      <c r="Q203">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="204" spans="17:17">
+      <c r="Q204">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="205" spans="17:17">
+      <c r="Q205">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="206" spans="17:17">
+      <c r="Q206">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="207" spans="17:17">
+      <c r="Q207">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="208" spans="17:17">
+      <c r="Q208">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="76">
+    <mergeCell ref="B5:E5"/>
+    <mergeCell ref="F5:J5"/>
+    <mergeCell ref="K5:P5"/>
+    <mergeCell ref="B6:E6"/>
+    <mergeCell ref="F6:J6"/>
+    <mergeCell ref="K6:P6"/>
+    <mergeCell ref="F37:G37"/>
+    <mergeCell ref="H37:J37"/>
+    <mergeCell ref="D8:F8"/>
+    <mergeCell ref="G8:K8"/>
+    <mergeCell ref="D29:F29"/>
+    <mergeCell ref="G29:K29"/>
+    <mergeCell ref="F31:G31"/>
+    <mergeCell ref="H31:J31"/>
+    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="H13:J13"/>
+    <mergeCell ref="F15:G15"/>
+    <mergeCell ref="H15:J15"/>
+    <mergeCell ref="F32:G32"/>
+    <mergeCell ref="H32:J32"/>
+    <mergeCell ref="F36:G36"/>
+    <mergeCell ref="H36:J36"/>
+    <mergeCell ref="J40:L40"/>
+    <mergeCell ref="G46:I46"/>
+    <mergeCell ref="J46:L46"/>
+    <mergeCell ref="H47:I47"/>
+    <mergeCell ref="J47:L47"/>
+    <mergeCell ref="G41:I41"/>
+    <mergeCell ref="J41:L41"/>
+    <mergeCell ref="H42:I42"/>
+    <mergeCell ref="J42:L42"/>
+    <mergeCell ref="J45:L45"/>
+    <mergeCell ref="J43:L43"/>
+    <mergeCell ref="J44:L44"/>
+    <mergeCell ref="B53:D53"/>
+    <mergeCell ref="E53:I53"/>
+    <mergeCell ref="B54:D54"/>
+    <mergeCell ref="E54:I54"/>
+    <mergeCell ref="G40:I40"/>
+    <mergeCell ref="H45:I45"/>
+    <mergeCell ref="H43:I43"/>
+    <mergeCell ref="H44:I44"/>
+    <mergeCell ref="H48:I48"/>
+    <mergeCell ref="J48:L48"/>
+    <mergeCell ref="H49:I49"/>
+    <mergeCell ref="J49:L49"/>
+    <mergeCell ref="H50:I50"/>
+    <mergeCell ref="J50:L50"/>
+    <mergeCell ref="D9:F9"/>
+    <mergeCell ref="G9:K9"/>
+    <mergeCell ref="F11:G11"/>
+    <mergeCell ref="H11:J11"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="H12:J12"/>
+    <mergeCell ref="F33:G33"/>
+    <mergeCell ref="H33:J33"/>
+    <mergeCell ref="F35:G35"/>
+    <mergeCell ref="H35:J35"/>
+    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="H16:J16"/>
+    <mergeCell ref="F17:G17"/>
+    <mergeCell ref="H17:J17"/>
+    <mergeCell ref="D19:F19"/>
+    <mergeCell ref="G19:K19"/>
+    <mergeCell ref="F21:G21"/>
+    <mergeCell ref="H21:J21"/>
+    <mergeCell ref="F22:G22"/>
+    <mergeCell ref="H22:J22"/>
+    <mergeCell ref="F23:G23"/>
+    <mergeCell ref="H23:J23"/>
+    <mergeCell ref="F25:G25"/>
+    <mergeCell ref="H25:J25"/>
+    <mergeCell ref="F26:G26"/>
+    <mergeCell ref="H26:J26"/>
+    <mergeCell ref="F27:G27"/>
+    <mergeCell ref="H27:J27"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
+</worksheet>
 </file>
--- a/template-equivalent-tables.xlsx
+++ b/template-equivalent-tables.xlsx
@@ -13,9 +13,10 @@
   </bookViews>
   <sheets>
     <sheet name="Report" sheetId="1" r:id="rId1"/>
-    <sheet name="config" sheetId="2" r:id="rId2"/>
-    <sheet name="data" sheetId="3" r:id="rId3"/>
-    <sheet name="Report (2)" sheetId="4" r:id="rId4"/>
+    <sheet name="Report (3)" sheetId="5" r:id="rId2"/>
+    <sheet name="Report (4)" sheetId="6" r:id="rId3"/>
+    <sheet name="config" sheetId="2" r:id="rId4"/>
+    <sheet name="data" sheetId="3" r:id="rId5"/>
   </sheets>
   <calcPr calcId="162913" iterate="1"/>
   <extLst>
@@ -82,7 +83,32 @@
         </r>
       </text>
     </comment>
-    <comment ref="B4" authorId="0" shapeId="0">
+    <comment ref="B3" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>AdonisGM:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+0: Không có merge cell trong report
+1: Có merge cell trong report</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B5" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -106,7 +132,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C4" authorId="0" shapeId="0">
+    <comment ref="C5" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -130,7 +156,155 @@
         </r>
       </text>
     </comment>
-    <comment ref="D4" authorId="0" shapeId="0">
+    <comment ref="D5" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>AdonisGM:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Các cột thông tin của bảng,
+Nếu là bảng cuối cùng không điền tên cột vì sẽ lấy all
+Nếu có nhiều cột thì ngăn cách bằng dấu ",". VD: "ABC,EDO"</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B13" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>AdonisGM:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Toạ độ bắt đầu của bảng</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C13" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>AdonisGM:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Toạ độ kết thúc của bảng</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D13" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>AdonisGM:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Các cột thông tin của bảng,
+Nếu là bảng cuối cùng không điền tên cột vì sẽ lấy all
+Nếu có nhiều cột thì ngăn cách bằng dấu ",". VD: "ABC,EDO"</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B21" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>AdonisGM:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Toạ độ bắt đầu của bảng</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C21" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>AdonisGM:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Toạ độ kết thúc của bảng</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D21" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -161,7 +335,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1897" uniqueCount="175">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1938" uniqueCount="182">
   <si>
     <t>range_1</t>
   </si>
@@ -686,6 +860,27 @@
   </si>
   <si>
     <t>K16</t>
+  </si>
+  <si>
+    <t>&lt;#table.SHARE_FREE&gt;</t>
+  </si>
+  <si>
+    <t>&lt;#table.SHARE_BLOCK&gt;</t>
+  </si>
+  <si>
+    <t>sheet_0</t>
+  </si>
+  <si>
+    <t>sheet_1</t>
+  </si>
+  <si>
+    <t>sheet_2</t>
+  </si>
+  <si>
+    <t>isMultipleSheet</t>
+  </si>
+  <si>
+    <t>&lt;#table.SHARE_CODE&gt; - &lt;#table.SHARE_CODE&gt; - &lt;#table.SHARE_CODE&gt;</t>
   </si>
 </sst>
 </file>
@@ -768,7 +963,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="15">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -841,20 +1036,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="13">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -1000,11 +1183,20 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="88">
+  <cellXfs count="77">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1092,9 +1284,6 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="8" fillId="12" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="8" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1125,41 +1314,26 @@
     <xf numFmtId="49" fontId="7" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="7" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="12" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="8" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="8" fillId="12" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="8" fillId="12" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1186,6 +1360,15 @@
     <xf numFmtId="3" fontId="8" fillId="12" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="7" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1201,28 +1384,10 @@
     <xf numFmtId="3" fontId="8" fillId="12" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="8" fillId="12" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="8" fillId="12" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="3" fontId="8" fillId="12" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1568,10 +1733,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S29"/>
+  <dimension ref="A1:P26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AC17" sqref="AC17"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="U11" sqref="U11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.88671875" defaultRowHeight="15"/>
@@ -1579,75 +1744,72 @@
     <col min="2" max="3" width="3.88671875" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19">
+    <row r="1" spans="1:16">
       <c r="A1" s="39" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:19">
+    <row r="2" spans="1:16">
       <c r="A2" s="39"/>
     </row>
-    <row r="3" spans="1:19">
+    <row r="3" spans="1:16">
       <c r="A3" s="40" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:19">
+    <row r="5" spans="1:16">
       <c r="A5" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="64" t="s">
+      <c r="B5" s="58" t="s">
         <v>60</v>
       </c>
-      <c r="C5" s="64"/>
-      <c r="D5" s="64"/>
-      <c r="E5" s="64"/>
-      <c r="F5" s="64" t="s">
+      <c r="C5" s="58"/>
+      <c r="D5" s="58"/>
+      <c r="E5" s="58"/>
+      <c r="F5" s="58" t="s">
         <v>61</v>
       </c>
-      <c r="G5" s="64"/>
-      <c r="H5" s="64"/>
-      <c r="I5" s="64"/>
-      <c r="J5" s="64"/>
-      <c r="K5" s="64" t="s">
+      <c r="G5" s="58"/>
+      <c r="H5" s="58"/>
+      <c r="I5" s="58"/>
+      <c r="J5" s="58"/>
+      <c r="K5" s="58" t="s">
         <v>62</v>
       </c>
-      <c r="L5" s="64"/>
-      <c r="M5" s="64"/>
-      <c r="N5" s="64"/>
-      <c r="O5" s="64"/>
-      <c r="P5" s="64"/>
-    </row>
-    <row r="6" spans="1:19">
+      <c r="L5" s="58"/>
+      <c r="M5" s="58"/>
+      <c r="N5" s="58"/>
+      <c r="O5" s="58"/>
+      <c r="P5" s="58"/>
+    </row>
+    <row r="6" spans="1:16">
       <c r="A6" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="67" t="s">
+      <c r="B6" s="59" t="s">
         <v>73</v>
       </c>
-      <c r="C6" s="68"/>
-      <c r="D6" s="68"/>
-      <c r="E6" s="69"/>
-      <c r="F6" s="67" t="s">
+      <c r="C6" s="60"/>
+      <c r="D6" s="60"/>
+      <c r="E6" s="61"/>
+      <c r="F6" s="59" t="s">
         <v>74</v>
       </c>
-      <c r="G6" s="68"/>
-      <c r="H6" s="68"/>
-      <c r="I6" s="68"/>
-      <c r="J6" s="69"/>
-      <c r="K6" s="67" t="s">
+      <c r="G6" s="60"/>
+      <c r="H6" s="60"/>
+      <c r="I6" s="60"/>
+      <c r="J6" s="61"/>
+      <c r="K6" s="59" t="s">
         <v>75</v>
       </c>
-      <c r="L6" s="68"/>
-      <c r="M6" s="68"/>
-      <c r="N6" s="68"/>
-      <c r="O6" s="68"/>
-      <c r="P6" s="69"/>
-      <c r="Q6" s="58">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:19">
+      <c r="L6" s="60"/>
+      <c r="M6" s="60"/>
+      <c r="N6" s="60"/>
+      <c r="O6" s="60"/>
+      <c r="P6" s="61"/>
+    </row>
+    <row r="7" spans="1:16">
       <c r="A7" s="20"/>
       <c r="B7" s="21"/>
       <c r="C7" s="21"/>
@@ -1664,151 +1826,129 @@
       <c r="N7" s="23"/>
       <c r="O7" s="23"/>
       <c r="P7" s="24"/>
-      <c r="Q7" s="58">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:19">
+    </row>
+    <row r="8" spans="1:16">
       <c r="A8" s="25"/>
       <c r="B8" s="21"/>
       <c r="C8" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="D8" s="61" t="s">
+      <c r="D8" s="67" t="s">
         <v>63</v>
       </c>
-      <c r="E8" s="62"/>
-      <c r="F8" s="63"/>
-      <c r="G8" s="64" t="s">
+      <c r="E8" s="68"/>
+      <c r="F8" s="69"/>
+      <c r="G8" s="58" t="s">
         <v>64</v>
       </c>
-      <c r="H8" s="64"/>
-      <c r="I8" s="64"/>
-      <c r="J8" s="64"/>
-      <c r="K8" s="64"/>
+      <c r="H8" s="58"/>
+      <c r="I8" s="58"/>
+      <c r="J8" s="58"/>
+      <c r="K8" s="58"/>
       <c r="L8" s="23"/>
       <c r="M8" s="23"/>
       <c r="N8" s="23"/>
       <c r="O8" s="23"/>
       <c r="P8" s="26"/>
-      <c r="Q8" s="58">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:19">
+    </row>
+    <row r="9" spans="1:16">
       <c r="A9" s="25"/>
       <c r="B9" s="21"/>
       <c r="C9" s="27" t="s">
         <v>67</v>
       </c>
-      <c r="D9" s="71" t="s">
-        <v>69</v>
-      </c>
-      <c r="E9" s="72"/>
-      <c r="F9" s="73"/>
-      <c r="G9" s="74" t="s">
+      <c r="D9" s="63" t="s">
+        <v>181</v>
+      </c>
+      <c r="E9" s="64"/>
+      <c r="F9" s="65"/>
+      <c r="G9" s="66" t="s">
         <v>70</v>
       </c>
-      <c r="H9" s="74"/>
-      <c r="I9" s="74"/>
-      <c r="J9" s="74"/>
-      <c r="K9" s="74"/>
+      <c r="H9" s="66"/>
+      <c r="I9" s="66"/>
+      <c r="J9" s="66"/>
+      <c r="K9" s="66"/>
       <c r="L9" s="23"/>
       <c r="M9" s="23"/>
       <c r="N9" s="23"/>
       <c r="O9" s="23"/>
       <c r="P9" s="26"/>
-      <c r="Q9">
-        <v>1</v>
-      </c>
-      <c r="R9" s="60"/>
-    </row>
-    <row r="10" spans="1:19">
+    </row>
+    <row r="10" spans="1:16">
       <c r="A10" s="25"/>
       <c r="B10" s="21"/>
       <c r="C10" s="19"/>
-      <c r="D10" s="44"/>
-      <c r="E10" s="44"/>
-      <c r="F10" s="44"/>
-      <c r="G10" s="45"/>
-      <c r="H10" s="45"/>
-      <c r="I10" s="45"/>
-      <c r="J10" s="46"/>
+      <c r="D10" s="43"/>
+      <c r="E10" s="43"/>
+      <c r="F10" s="43"/>
+      <c r="G10" s="44"/>
+      <c r="H10" s="44"/>
+      <c r="I10" s="44"/>
+      <c r="J10" s="45"/>
       <c r="K10" s="24"/>
       <c r="L10" s="23"/>
       <c r="M10" s="23"/>
       <c r="N10" s="23"/>
       <c r="O10" s="23"/>
       <c r="P10" s="26"/>
-      <c r="Q10">
-        <v>1</v>
-      </c>
-      <c r="R10" s="60"/>
-    </row>
-    <row r="11" spans="1:19">
+    </row>
+    <row r="11" spans="1:16">
       <c r="A11" s="25"/>
       <c r="B11" s="21"/>
-      <c r="C11" s="49"/>
-      <c r="D11" s="42"/>
-      <c r="E11" s="51" t="s">
+      <c r="C11" s="48"/>
+      <c r="D11" s="41"/>
+      <c r="E11" s="50" t="s">
         <v>9</v>
       </c>
-      <c r="F11" s="75" t="s">
+      <c r="F11" s="70" t="s">
         <v>95</v>
       </c>
-      <c r="G11" s="75"/>
-      <c r="H11" s="76" t="s">
+      <c r="G11" s="70"/>
+      <c r="H11" s="71" t="s">
         <v>64</v>
       </c>
-      <c r="I11" s="76"/>
-      <c r="J11" s="76"/>
+      <c r="I11" s="71"/>
+      <c r="J11" s="71"/>
       <c r="K11" s="26"/>
       <c r="L11" s="23"/>
       <c r="M11" s="23"/>
       <c r="N11" s="23"/>
       <c r="O11" s="23"/>
       <c r="P11" s="26"/>
-      <c r="Q11">
-        <v>1</v>
-      </c>
-      <c r="R11" s="60"/>
-    </row>
-    <row r="12" spans="1:19">
+    </row>
+    <row r="12" spans="1:16">
       <c r="A12" s="25"/>
       <c r="B12" s="21"/>
-      <c r="C12" s="49"/>
-      <c r="D12" s="42"/>
+      <c r="C12" s="48"/>
+      <c r="D12" s="41"/>
       <c r="E12" s="38"/>
-      <c r="F12" s="71" t="s">
+      <c r="F12" s="63" t="s">
         <v>96</v>
       </c>
-      <c r="G12" s="73"/>
-      <c r="H12" s="77" t="s">
+      <c r="G12" s="65"/>
+      <c r="H12" s="72" t="s">
         <v>97</v>
       </c>
-      <c r="I12" s="78"/>
-      <c r="J12" s="79"/>
+      <c r="I12" s="73"/>
+      <c r="J12" s="74"/>
       <c r="K12" s="26"/>
       <c r="L12" s="23"/>
       <c r="M12" s="23"/>
       <c r="N12" s="23"/>
       <c r="O12" s="23"/>
       <c r="P12" s="26"/>
-      <c r="Q12">
-        <v>1</v>
-      </c>
-      <c r="S12" s="59"/>
-    </row>
-    <row r="13" spans="1:19">
+    </row>
+    <row r="13" spans="1:16">
       <c r="A13" s="25"/>
       <c r="B13" s="21"/>
-      <c r="C13" s="49"/>
-      <c r="D13" s="42"/>
-      <c r="E13" s="42"/>
-      <c r="F13" s="42"/>
-      <c r="G13" s="43"/>
-      <c r="H13" s="43"/>
-      <c r="I13" s="43"/>
+      <c r="C13" s="48"/>
+      <c r="D13" s="41"/>
+      <c r="E13" s="41"/>
+      <c r="F13" s="41"/>
+      <c r="G13" s="42"/>
+      <c r="H13" s="42"/>
+      <c r="I13" s="42"/>
       <c r="J13" s="22"/>
       <c r="K13" s="26"/>
       <c r="L13" s="23"/>
@@ -1816,75 +1956,63 @@
       <c r="N13" s="23"/>
       <c r="O13" s="23"/>
       <c r="P13" s="26"/>
-      <c r="Q13">
-        <v>1</v>
-      </c>
-      <c r="R13" s="60"/>
-    </row>
-    <row r="14" spans="1:19">
+    </row>
+    <row r="14" spans="1:16">
       <c r="A14" s="25"/>
       <c r="B14" s="21"/>
-      <c r="C14" s="49"/>
-      <c r="D14" s="42"/>
-      <c r="E14" s="51" t="s">
+      <c r="C14" s="48"/>
+      <c r="D14" s="41"/>
+      <c r="E14" s="50" t="s">
         <v>9</v>
       </c>
-      <c r="F14" s="75" t="s">
+      <c r="F14" s="70" t="s">
         <v>95</v>
       </c>
-      <c r="G14" s="75"/>
-      <c r="H14" s="76" t="s">
+      <c r="G14" s="70"/>
+      <c r="H14" s="71" t="s">
         <v>64</v>
       </c>
-      <c r="I14" s="76"/>
-      <c r="J14" s="76"/>
+      <c r="I14" s="71"/>
+      <c r="J14" s="71"/>
       <c r="K14" s="26"/>
       <c r="L14" s="23"/>
       <c r="M14" s="23"/>
       <c r="N14" s="23"/>
       <c r="O14" s="23"/>
       <c r="P14" s="26"/>
-      <c r="Q14">
-        <v>1</v>
-      </c>
-      <c r="R14" s="60"/>
-    </row>
-    <row r="15" spans="1:19">
+    </row>
+    <row r="15" spans="1:16">
       <c r="A15" s="25"/>
       <c r="B15" s="21"/>
-      <c r="C15" s="49"/>
-      <c r="D15" s="42"/>
+      <c r="C15" s="48"/>
+      <c r="D15" s="41"/>
       <c r="E15" s="38"/>
-      <c r="F15" s="71" t="s">
-        <v>96</v>
-      </c>
-      <c r="G15" s="73"/>
-      <c r="H15" s="77" t="s">
-        <v>97</v>
-      </c>
-      <c r="I15" s="78"/>
-      <c r="J15" s="79"/>
+      <c r="F15" s="63" t="s">
+        <v>175</v>
+      </c>
+      <c r="G15" s="65"/>
+      <c r="H15" s="72" t="s">
+        <v>176</v>
+      </c>
+      <c r="I15" s="73"/>
+      <c r="J15" s="74"/>
       <c r="K15" s="26"/>
       <c r="L15" s="23"/>
       <c r="M15" s="23"/>
       <c r="N15" s="23"/>
       <c r="O15" s="23"/>
       <c r="P15" s="26"/>
-      <c r="Q15">
-        <v>1</v>
-      </c>
-      <c r="S15" s="59"/>
-    </row>
-    <row r="16" spans="1:19">
+    </row>
+    <row r="16" spans="1:16">
       <c r="A16" s="25"/>
       <c r="B16" s="21"/>
-      <c r="C16" s="50"/>
-      <c r="D16" s="47"/>
-      <c r="E16" s="47"/>
-      <c r="F16" s="47"/>
-      <c r="G16" s="48"/>
-      <c r="H16" s="48"/>
-      <c r="I16" s="48"/>
+      <c r="C16" s="49"/>
+      <c r="D16" s="46"/>
+      <c r="E16" s="46"/>
+      <c r="F16" s="46"/>
+      <c r="G16" s="47"/>
+      <c r="H16" s="47"/>
+      <c r="I16" s="47"/>
       <c r="J16" s="34"/>
       <c r="K16" s="36"/>
       <c r="L16" s="23"/>
@@ -1892,12 +2020,8 @@
       <c r="N16" s="23"/>
       <c r="O16" s="23"/>
       <c r="P16" s="26"/>
-      <c r="Q16">
-        <v>1</v>
-      </c>
-      <c r="R16" s="60"/>
-    </row>
-    <row r="17" spans="1:19">
+    </row>
+    <row r="17" spans="1:16">
       <c r="A17" s="25"/>
       <c r="B17" s="21"/>
       <c r="C17" s="21"/>
@@ -1914,11 +2038,8 @@
       <c r="N17" s="23"/>
       <c r="O17" s="23"/>
       <c r="P17" s="26"/>
-      <c r="Q17" s="58">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:19">
+    </row>
+    <row r="18" spans="1:16">
       <c r="A18" s="25"/>
       <c r="B18" s="21"/>
       <c r="C18" s="29"/>
@@ -1927,25 +2048,22 @@
       <c r="F18" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="G18" s="64" t="s">
+      <c r="G18" s="58" t="s">
         <v>65</v>
       </c>
-      <c r="H18" s="64"/>
-      <c r="I18" s="64"/>
-      <c r="J18" s="64" t="s">
+      <c r="H18" s="58"/>
+      <c r="I18" s="58"/>
+      <c r="J18" s="58" t="s">
         <v>66</v>
       </c>
-      <c r="K18" s="64"/>
-      <c r="L18" s="64"/>
+      <c r="K18" s="58"/>
+      <c r="L18" s="58"/>
       <c r="M18" s="23"/>
       <c r="N18" s="23"/>
       <c r="O18" s="23"/>
       <c r="P18" s="26"/>
-      <c r="Q18" s="58">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:19">
+    </row>
+    <row r="19" spans="1:16">
       <c r="A19" s="25"/>
       <c r="B19" s="21"/>
       <c r="C19" s="30"/>
@@ -1954,85 +2072,73 @@
       <c r="F19" s="27" t="s">
         <v>68</v>
       </c>
-      <c r="G19" s="70" t="s">
+      <c r="G19" s="62" t="s">
         <v>71</v>
       </c>
-      <c r="H19" s="70"/>
-      <c r="I19" s="70"/>
-      <c r="J19" s="74" t="s">
+      <c r="H19" s="62"/>
+      <c r="I19" s="62"/>
+      <c r="J19" s="66" t="s">
         <v>72</v>
       </c>
-      <c r="K19" s="74"/>
-      <c r="L19" s="74"/>
+      <c r="K19" s="66"/>
+      <c r="L19" s="66"/>
       <c r="M19" s="22"/>
       <c r="N19" s="22"/>
       <c r="O19" s="22"/>
       <c r="P19" s="26"/>
-      <c r="Q19">
-        <v>1</v>
-      </c>
-      <c r="R19" s="60"/>
-    </row>
-    <row r="20" spans="1:19">
+    </row>
+    <row r="20" spans="1:16">
       <c r="A20" s="25"/>
       <c r="B20" s="21"/>
       <c r="C20" s="30"/>
       <c r="D20" s="22"/>
       <c r="E20" s="22"/>
-      <c r="F20" s="54"/>
-      <c r="G20" s="53"/>
-      <c r="H20" s="64" t="s">
+      <c r="F20" s="52"/>
+      <c r="G20" s="51"/>
+      <c r="H20" s="58" t="s">
         <v>168</v>
       </c>
-      <c r="I20" s="64"/>
-      <c r="J20" s="64" t="s">
+      <c r="I20" s="58"/>
+      <c r="J20" s="58" t="s">
         <v>66</v>
       </c>
-      <c r="K20" s="64"/>
-      <c r="L20" s="64"/>
+      <c r="K20" s="58"/>
+      <c r="L20" s="58"/>
       <c r="M20" s="22"/>
       <c r="N20" s="22"/>
       <c r="O20" s="22"/>
       <c r="P20" s="26"/>
-      <c r="Q20">
-        <v>1</v>
-      </c>
-      <c r="R20" s="60"/>
-    </row>
-    <row r="21" spans="1:19">
+    </row>
+    <row r="21" spans="1:16">
       <c r="A21" s="25"/>
       <c r="B21" s="21"/>
       <c r="C21" s="30"/>
       <c r="D21" s="22"/>
       <c r="E21" s="22"/>
       <c r="F21" s="55"/>
-      <c r="G21" s="34"/>
-      <c r="H21" s="80" t="s">
+      <c r="G21" s="56"/>
+      <c r="H21" s="75" t="s">
         <v>171</v>
       </c>
-      <c r="I21" s="81"/>
-      <c r="J21" s="74" t="s">
+      <c r="I21" s="76"/>
+      <c r="J21" s="66" t="s">
         <v>169</v>
       </c>
-      <c r="K21" s="74"/>
-      <c r="L21" s="74"/>
+      <c r="K21" s="66"/>
+      <c r="L21" s="66"/>
       <c r="M21" s="22"/>
       <c r="N21" s="22"/>
       <c r="O21" s="22"/>
       <c r="P21" s="26"/>
-      <c r="Q21">
-        <v>1</v>
-      </c>
-      <c r="S21" s="59"/>
-    </row>
-    <row r="22" spans="1:19">
+    </row>
+    <row r="22" spans="1:16">
       <c r="A22" s="31"/>
       <c r="B22" s="32"/>
       <c r="C22" s="33"/>
       <c r="D22" s="34"/>
       <c r="E22" s="34"/>
-      <c r="F22" s="35"/>
-      <c r="G22" s="35"/>
+      <c r="F22" s="57"/>
+      <c r="G22" s="57"/>
       <c r="H22" s="35"/>
       <c r="I22" s="35"/>
       <c r="J22" s="35"/>
@@ -2042,91 +2148,30 @@
       <c r="N22" s="34"/>
       <c r="O22" s="34"/>
       <c r="P22" s="36"/>
-      <c r="Q22" s="58">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:19">
-      <c r="A23" s="28"/>
-      <c r="B23" s="21"/>
-      <c r="C23" s="30"/>
-      <c r="D23" s="22"/>
-      <c r="E23" s="22"/>
-      <c r="F23" s="56"/>
-      <c r="G23" s="56"/>
-      <c r="H23" s="56"/>
-      <c r="I23" s="56"/>
-      <c r="J23" s="56"/>
-      <c r="K23" s="56"/>
-      <c r="L23" s="56"/>
-      <c r="M23" s="22"/>
-      <c r="N23" s="22"/>
-      <c r="O23" s="22"/>
-      <c r="P23" s="22"/>
-    </row>
-    <row r="24" spans="1:19">
-      <c r="A24" s="37" t="s">
-        <v>9</v>
-      </c>
-      <c r="B24" s="61" t="s">
-        <v>63</v>
-      </c>
-      <c r="C24" s="62"/>
-      <c r="D24" s="63"/>
-      <c r="E24" s="61" t="s">
-        <v>64</v>
-      </c>
-      <c r="F24" s="62"/>
-      <c r="G24" s="62"/>
-      <c r="H24" s="62"/>
-      <c r="I24" s="63"/>
-      <c r="J24" s="56"/>
-      <c r="K24" s="56"/>
-      <c r="L24" s="56"/>
-      <c r="M24" s="22"/>
-      <c r="N24" s="22"/>
-      <c r="O24" s="22"/>
-      <c r="P24" s="22"/>
-    </row>
-    <row r="25" spans="1:19">
-      <c r="A25" s="57"/>
-      <c r="B25" s="85"/>
-      <c r="C25" s="86"/>
-      <c r="D25" s="87"/>
-      <c r="E25" s="82"/>
-      <c r="F25" s="83"/>
-      <c r="G25" s="83"/>
-      <c r="H25" s="83"/>
-      <c r="I25" s="84"/>
-      <c r="J25" s="56"/>
-      <c r="K25" s="56"/>
-      <c r="L25" s="56"/>
-      <c r="M25" s="22"/>
-      <c r="N25" s="22"/>
-      <c r="O25" s="22"/>
-      <c r="P25" s="22"/>
-    </row>
-    <row r="26" spans="1:19">
-      <c r="A26" s="17"/>
-      <c r="B26" s="18"/>
-      <c r="C26" s="18"/>
-      <c r="D26" s="17"/>
-    </row>
-    <row r="27" spans="1:19">
-      <c r="A27" s="39" t="s">
+    </row>
+    <row r="23" spans="1:16">
+      <c r="A23" s="17"/>
+      <c r="B23" s="18"/>
+      <c r="C23" s="18"/>
+      <c r="D23" s="17"/>
+    </row>
+    <row r="24" spans="1:16">
+      <c r="A24" s="39" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="28" spans="1:19">
-      <c r="A28" s="39"/>
-    </row>
-    <row r="29" spans="1:19">
-      <c r="A29" s="39" t="s">
+    <row r="25" spans="1:16">
+      <c r="A25" s="39"/>
+    </row>
+    <row r="26" spans="1:16">
+      <c r="A26" s="39" t="s">
         <v>8</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="30">
+  <mergeCells count="26">
+    <mergeCell ref="H12:J12"/>
+    <mergeCell ref="F12:G12"/>
     <mergeCell ref="F14:G14"/>
     <mergeCell ref="H14:J14"/>
     <mergeCell ref="J21:L21"/>
@@ -2135,16 +2180,6 @@
     <mergeCell ref="H15:J15"/>
     <mergeCell ref="H20:I20"/>
     <mergeCell ref="J20:L20"/>
-    <mergeCell ref="G9:K9"/>
-    <mergeCell ref="G8:K8"/>
-    <mergeCell ref="F11:G11"/>
-    <mergeCell ref="H11:J11"/>
-    <mergeCell ref="H12:J12"/>
-    <mergeCell ref="F12:G12"/>
-    <mergeCell ref="B24:D24"/>
-    <mergeCell ref="E24:I24"/>
-    <mergeCell ref="E25:I25"/>
-    <mergeCell ref="B25:D25"/>
     <mergeCell ref="K5:P5"/>
     <mergeCell ref="K6:P6"/>
     <mergeCell ref="F6:J6"/>
@@ -2157,6 +2192,10 @@
     <mergeCell ref="B5:E5"/>
     <mergeCell ref="F5:J5"/>
     <mergeCell ref="D8:F8"/>
+    <mergeCell ref="G9:K9"/>
+    <mergeCell ref="G8:K8"/>
+    <mergeCell ref="F11:G11"/>
+    <mergeCell ref="H11:J11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
@@ -2164,11 +2203,953 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:P26"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="T11" sqref="T11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="3.88671875" defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="3" width="3.88671875" style="4"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16">
+      <c r="A1" s="39" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16">
+      <c r="A2" s="39"/>
+    </row>
+    <row r="3" spans="1:16">
+      <c r="A3" s="40" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16">
+      <c r="A5" s="37" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="58" t="s">
+        <v>60</v>
+      </c>
+      <c r="C5" s="58"/>
+      <c r="D5" s="58"/>
+      <c r="E5" s="58"/>
+      <c r="F5" s="58" t="s">
+        <v>61</v>
+      </c>
+      <c r="G5" s="58"/>
+      <c r="H5" s="58"/>
+      <c r="I5" s="58"/>
+      <c r="J5" s="58"/>
+      <c r="K5" s="58" t="s">
+        <v>62</v>
+      </c>
+      <c r="L5" s="58"/>
+      <c r="M5" s="58"/>
+      <c r="N5" s="58"/>
+      <c r="O5" s="58"/>
+      <c r="P5" s="58"/>
+    </row>
+    <row r="6" spans="1:16">
+      <c r="A6" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="59" t="s">
+        <v>73</v>
+      </c>
+      <c r="C6" s="60"/>
+      <c r="D6" s="60"/>
+      <c r="E6" s="61"/>
+      <c r="F6" s="59" t="s">
+        <v>74</v>
+      </c>
+      <c r="G6" s="60"/>
+      <c r="H6" s="60"/>
+      <c r="I6" s="60"/>
+      <c r="J6" s="61"/>
+      <c r="K6" s="59" t="s">
+        <v>75</v>
+      </c>
+      <c r="L6" s="60"/>
+      <c r="M6" s="60"/>
+      <c r="N6" s="60"/>
+      <c r="O6" s="60"/>
+      <c r="P6" s="61"/>
+    </row>
+    <row r="7" spans="1:16">
+      <c r="A7" s="20"/>
+      <c r="B7" s="21"/>
+      <c r="C7" s="21"/>
+      <c r="D7" s="21"/>
+      <c r="E7" s="22"/>
+      <c r="F7" s="22"/>
+      <c r="G7" s="22"/>
+      <c r="H7" s="22"/>
+      <c r="I7" s="22"/>
+      <c r="J7" s="22"/>
+      <c r="K7" s="23"/>
+      <c r="L7" s="23"/>
+      <c r="M7" s="23"/>
+      <c r="N7" s="23"/>
+      <c r="O7" s="23"/>
+      <c r="P7" s="24"/>
+    </row>
+    <row r="8" spans="1:16">
+      <c r="A8" s="25"/>
+      <c r="B8" s="21"/>
+      <c r="C8" s="37" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8" s="67" t="s">
+        <v>63</v>
+      </c>
+      <c r="E8" s="68"/>
+      <c r="F8" s="69"/>
+      <c r="G8" s="58" t="s">
+        <v>64</v>
+      </c>
+      <c r="H8" s="58"/>
+      <c r="I8" s="58"/>
+      <c r="J8" s="58"/>
+      <c r="K8" s="58"/>
+      <c r="L8" s="23"/>
+      <c r="M8" s="23"/>
+      <c r="N8" s="23"/>
+      <c r="O8" s="23"/>
+      <c r="P8" s="26"/>
+    </row>
+    <row r="9" spans="1:16">
+      <c r="A9" s="25"/>
+      <c r="B9" s="21"/>
+      <c r="C9" s="27" t="s">
+        <v>67</v>
+      </c>
+      <c r="D9" s="63" t="s">
+        <v>69</v>
+      </c>
+      <c r="E9" s="64"/>
+      <c r="F9" s="65"/>
+      <c r="G9" s="66" t="s">
+        <v>70</v>
+      </c>
+      <c r="H9" s="66"/>
+      <c r="I9" s="66"/>
+      <c r="J9" s="66"/>
+      <c r="K9" s="66"/>
+      <c r="L9" s="23"/>
+      <c r="M9" s="23"/>
+      <c r="N9" s="23"/>
+      <c r="O9" s="23"/>
+      <c r="P9" s="26"/>
+    </row>
+    <row r="10" spans="1:16">
+      <c r="A10" s="25"/>
+      <c r="B10" s="21"/>
+      <c r="C10" s="19"/>
+      <c r="D10" s="43"/>
+      <c r="E10" s="43"/>
+      <c r="F10" s="43"/>
+      <c r="G10" s="44"/>
+      <c r="H10" s="44"/>
+      <c r="I10" s="44"/>
+      <c r="J10" s="45"/>
+      <c r="K10" s="24"/>
+      <c r="L10" s="23"/>
+      <c r="M10" s="23"/>
+      <c r="N10" s="23"/>
+      <c r="O10" s="23"/>
+      <c r="P10" s="26"/>
+    </row>
+    <row r="11" spans="1:16">
+      <c r="A11" s="25"/>
+      <c r="B11" s="21"/>
+      <c r="C11" s="48"/>
+      <c r="D11" s="41"/>
+      <c r="E11" s="53" t="s">
+        <v>9</v>
+      </c>
+      <c r="F11" s="70" t="s">
+        <v>95</v>
+      </c>
+      <c r="G11" s="70"/>
+      <c r="H11" s="71" t="s">
+        <v>64</v>
+      </c>
+      <c r="I11" s="71"/>
+      <c r="J11" s="71"/>
+      <c r="K11" s="26"/>
+      <c r="L11" s="23"/>
+      <c r="M11" s="23"/>
+      <c r="N11" s="23"/>
+      <c r="O11" s="23"/>
+      <c r="P11" s="26"/>
+    </row>
+    <row r="12" spans="1:16">
+      <c r="A12" s="25"/>
+      <c r="B12" s="21"/>
+      <c r="C12" s="48"/>
+      <c r="D12" s="41"/>
+      <c r="E12" s="54"/>
+      <c r="F12" s="63" t="s">
+        <v>96</v>
+      </c>
+      <c r="G12" s="65"/>
+      <c r="H12" s="72" t="s">
+        <v>97</v>
+      </c>
+      <c r="I12" s="73"/>
+      <c r="J12" s="74"/>
+      <c r="K12" s="26"/>
+      <c r="L12" s="23"/>
+      <c r="M12" s="23"/>
+      <c r="N12" s="23"/>
+      <c r="O12" s="23"/>
+      <c r="P12" s="26"/>
+    </row>
+    <row r="13" spans="1:16">
+      <c r="A13" s="25"/>
+      <c r="B13" s="21"/>
+      <c r="C13" s="48"/>
+      <c r="D13" s="41"/>
+      <c r="E13" s="41"/>
+      <c r="F13" s="41"/>
+      <c r="G13" s="42"/>
+      <c r="H13" s="42"/>
+      <c r="I13" s="42"/>
+      <c r="J13" s="22"/>
+      <c r="K13" s="26"/>
+      <c r="L13" s="23"/>
+      <c r="M13" s="23"/>
+      <c r="N13" s="23"/>
+      <c r="O13" s="23"/>
+      <c r="P13" s="26"/>
+    </row>
+    <row r="14" spans="1:16">
+      <c r="A14" s="25"/>
+      <c r="B14" s="21"/>
+      <c r="C14" s="48"/>
+      <c r="D14" s="41"/>
+      <c r="E14" s="53" t="s">
+        <v>9</v>
+      </c>
+      <c r="F14" s="70" t="s">
+        <v>95</v>
+      </c>
+      <c r="G14" s="70"/>
+      <c r="H14" s="71" t="s">
+        <v>64</v>
+      </c>
+      <c r="I14" s="71"/>
+      <c r="J14" s="71"/>
+      <c r="K14" s="26"/>
+      <c r="L14" s="23"/>
+      <c r="M14" s="23"/>
+      <c r="N14" s="23"/>
+      <c r="O14" s="23"/>
+      <c r="P14" s="26"/>
+    </row>
+    <row r="15" spans="1:16">
+      <c r="A15" s="25"/>
+      <c r="B15" s="21"/>
+      <c r="C15" s="48"/>
+      <c r="D15" s="41"/>
+      <c r="E15" s="54"/>
+      <c r="F15" s="63" t="s">
+        <v>175</v>
+      </c>
+      <c r="G15" s="65"/>
+      <c r="H15" s="72" t="s">
+        <v>176</v>
+      </c>
+      <c r="I15" s="73"/>
+      <c r="J15" s="74"/>
+      <c r="K15" s="26"/>
+      <c r="L15" s="23"/>
+      <c r="M15" s="23"/>
+      <c r="N15" s="23"/>
+      <c r="O15" s="23"/>
+      <c r="P15" s="26"/>
+    </row>
+    <row r="16" spans="1:16">
+      <c r="A16" s="25"/>
+      <c r="B16" s="21"/>
+      <c r="C16" s="49"/>
+      <c r="D16" s="46"/>
+      <c r="E16" s="46"/>
+      <c r="F16" s="46"/>
+      <c r="G16" s="47"/>
+      <c r="H16" s="47"/>
+      <c r="I16" s="47"/>
+      <c r="J16" s="34"/>
+      <c r="K16" s="36"/>
+      <c r="L16" s="23"/>
+      <c r="M16" s="23"/>
+      <c r="N16" s="23"/>
+      <c r="O16" s="23"/>
+      <c r="P16" s="26"/>
+    </row>
+    <row r="17" spans="1:16">
+      <c r="A17" s="25"/>
+      <c r="B17" s="21"/>
+      <c r="C17" s="21"/>
+      <c r="D17" s="28"/>
+      <c r="E17" s="22"/>
+      <c r="F17" s="22"/>
+      <c r="G17" s="22"/>
+      <c r="H17" s="22"/>
+      <c r="I17" s="22"/>
+      <c r="J17" s="22"/>
+      <c r="K17" s="23"/>
+      <c r="L17" s="23"/>
+      <c r="M17" s="23"/>
+      <c r="N17" s="23"/>
+      <c r="O17" s="23"/>
+      <c r="P17" s="26"/>
+    </row>
+    <row r="18" spans="1:16">
+      <c r="A18" s="25"/>
+      <c r="B18" s="21"/>
+      <c r="C18" s="29"/>
+      <c r="D18" s="23"/>
+      <c r="E18" s="23"/>
+      <c r="F18" s="37" t="s">
+        <v>9</v>
+      </c>
+      <c r="G18" s="58" t="s">
+        <v>65</v>
+      </c>
+      <c r="H18" s="58"/>
+      <c r="I18" s="58"/>
+      <c r="J18" s="58" t="s">
+        <v>66</v>
+      </c>
+      <c r="K18" s="58"/>
+      <c r="L18" s="58"/>
+      <c r="M18" s="23"/>
+      <c r="N18" s="23"/>
+      <c r="O18" s="23"/>
+      <c r="P18" s="26"/>
+    </row>
+    <row r="19" spans="1:16">
+      <c r="A19" s="25"/>
+      <c r="B19" s="21"/>
+      <c r="C19" s="30"/>
+      <c r="D19" s="22"/>
+      <c r="E19" s="22"/>
+      <c r="F19" s="27" t="s">
+        <v>68</v>
+      </c>
+      <c r="G19" s="62" t="s">
+        <v>71</v>
+      </c>
+      <c r="H19" s="62"/>
+      <c r="I19" s="62"/>
+      <c r="J19" s="66" t="s">
+        <v>72</v>
+      </c>
+      <c r="K19" s="66"/>
+      <c r="L19" s="66"/>
+      <c r="M19" s="22"/>
+      <c r="N19" s="22"/>
+      <c r="O19" s="22"/>
+      <c r="P19" s="26"/>
+    </row>
+    <row r="20" spans="1:16">
+      <c r="A20" s="25"/>
+      <c r="B20" s="21"/>
+      <c r="C20" s="30"/>
+      <c r="D20" s="22"/>
+      <c r="E20" s="22"/>
+      <c r="F20" s="52"/>
+      <c r="G20" s="51"/>
+      <c r="H20" s="58" t="s">
+        <v>168</v>
+      </c>
+      <c r="I20" s="58"/>
+      <c r="J20" s="58" t="s">
+        <v>66</v>
+      </c>
+      <c r="K20" s="58"/>
+      <c r="L20" s="58"/>
+      <c r="M20" s="22"/>
+      <c r="N20" s="22"/>
+      <c r="O20" s="22"/>
+      <c r="P20" s="26"/>
+    </row>
+    <row r="21" spans="1:16">
+      <c r="A21" s="25"/>
+      <c r="B21" s="21"/>
+      <c r="C21" s="30"/>
+      <c r="D21" s="22"/>
+      <c r="E21" s="22"/>
+      <c r="F21" s="55"/>
+      <c r="G21" s="56"/>
+      <c r="H21" s="75" t="s">
+        <v>171</v>
+      </c>
+      <c r="I21" s="76"/>
+      <c r="J21" s="66" t="s">
+        <v>169</v>
+      </c>
+      <c r="K21" s="66"/>
+      <c r="L21" s="66"/>
+      <c r="M21" s="22"/>
+      <c r="N21" s="22"/>
+      <c r="O21" s="22"/>
+      <c r="P21" s="26"/>
+    </row>
+    <row r="22" spans="1:16">
+      <c r="A22" s="31"/>
+      <c r="B22" s="32"/>
+      <c r="C22" s="33"/>
+      <c r="D22" s="34"/>
+      <c r="E22" s="34"/>
+      <c r="F22" s="57"/>
+      <c r="G22" s="57"/>
+      <c r="H22" s="35"/>
+      <c r="I22" s="35"/>
+      <c r="J22" s="35"/>
+      <c r="K22" s="35"/>
+      <c r="L22" s="35"/>
+      <c r="M22" s="34"/>
+      <c r="N22" s="34"/>
+      <c r="O22" s="34"/>
+      <c r="P22" s="36"/>
+    </row>
+    <row r="23" spans="1:16">
+      <c r="A23" s="17"/>
+      <c r="B23" s="18"/>
+      <c r="C23" s="18"/>
+      <c r="D23" s="17"/>
+    </row>
+    <row r="24" spans="1:16">
+      <c r="A24" s="39" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16">
+      <c r="A25" s="39"/>
+    </row>
+    <row r="26" spans="1:16">
+      <c r="A26" s="39" t="s">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="26">
+    <mergeCell ref="H21:I21"/>
+    <mergeCell ref="J21:L21"/>
+    <mergeCell ref="G18:I18"/>
+    <mergeCell ref="J18:L18"/>
+    <mergeCell ref="G19:I19"/>
+    <mergeCell ref="J19:L19"/>
+    <mergeCell ref="H20:I20"/>
+    <mergeCell ref="J20:L20"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="H12:J12"/>
+    <mergeCell ref="F14:G14"/>
+    <mergeCell ref="H14:J14"/>
+    <mergeCell ref="F15:G15"/>
+    <mergeCell ref="H15:J15"/>
+    <mergeCell ref="D8:F8"/>
+    <mergeCell ref="G8:K8"/>
+    <mergeCell ref="D9:F9"/>
+    <mergeCell ref="G9:K9"/>
+    <mergeCell ref="F11:G11"/>
+    <mergeCell ref="H11:J11"/>
+    <mergeCell ref="B5:E5"/>
+    <mergeCell ref="F5:J5"/>
+    <mergeCell ref="K5:P5"/>
+    <mergeCell ref="B6:E6"/>
+    <mergeCell ref="F6:J6"/>
+    <mergeCell ref="K6:P6"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:P26"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="T11" sqref="T11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="3.88671875" defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="3" width="3.88671875" style="4"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16">
+      <c r="A1" s="39" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16">
+      <c r="A2" s="39"/>
+    </row>
+    <row r="3" spans="1:16">
+      <c r="A3" s="40" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16">
+      <c r="A5" s="37" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="58" t="s">
+        <v>60</v>
+      </c>
+      <c r="C5" s="58"/>
+      <c r="D5" s="58"/>
+      <c r="E5" s="58"/>
+      <c r="F5" s="58" t="s">
+        <v>61</v>
+      </c>
+      <c r="G5" s="58"/>
+      <c r="H5" s="58"/>
+      <c r="I5" s="58"/>
+      <c r="J5" s="58"/>
+      <c r="K5" s="58" t="s">
+        <v>62</v>
+      </c>
+      <c r="L5" s="58"/>
+      <c r="M5" s="58"/>
+      <c r="N5" s="58"/>
+      <c r="O5" s="58"/>
+      <c r="P5" s="58"/>
+    </row>
+    <row r="6" spans="1:16">
+      <c r="A6" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="59" t="s">
+        <v>73</v>
+      </c>
+      <c r="C6" s="60"/>
+      <c r="D6" s="60"/>
+      <c r="E6" s="61"/>
+      <c r="F6" s="59" t="s">
+        <v>74</v>
+      </c>
+      <c r="G6" s="60"/>
+      <c r="H6" s="60"/>
+      <c r="I6" s="60"/>
+      <c r="J6" s="61"/>
+      <c r="K6" s="59" t="s">
+        <v>75</v>
+      </c>
+      <c r="L6" s="60"/>
+      <c r="M6" s="60"/>
+      <c r="N6" s="60"/>
+      <c r="O6" s="60"/>
+      <c r="P6" s="61"/>
+    </row>
+    <row r="7" spans="1:16">
+      <c r="A7" s="20"/>
+      <c r="B7" s="21"/>
+      <c r="C7" s="21"/>
+      <c r="D7" s="21"/>
+      <c r="E7" s="22"/>
+      <c r="F7" s="22"/>
+      <c r="G7" s="22"/>
+      <c r="H7" s="22"/>
+      <c r="I7" s="22"/>
+      <c r="J7" s="22"/>
+      <c r="K7" s="23"/>
+      <c r="L7" s="23"/>
+      <c r="M7" s="23"/>
+      <c r="N7" s="23"/>
+      <c r="O7" s="23"/>
+      <c r="P7" s="24"/>
+    </row>
+    <row r="8" spans="1:16">
+      <c r="A8" s="25"/>
+      <c r="B8" s="21"/>
+      <c r="C8" s="37" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8" s="67" t="s">
+        <v>63</v>
+      </c>
+      <c r="E8" s="68"/>
+      <c r="F8" s="69"/>
+      <c r="G8" s="58" t="s">
+        <v>64</v>
+      </c>
+      <c r="H8" s="58"/>
+      <c r="I8" s="58"/>
+      <c r="J8" s="58"/>
+      <c r="K8" s="58"/>
+      <c r="L8" s="23"/>
+      <c r="M8" s="23"/>
+      <c r="N8" s="23"/>
+      <c r="O8" s="23"/>
+      <c r="P8" s="26"/>
+    </row>
+    <row r="9" spans="1:16">
+      <c r="A9" s="25"/>
+      <c r="B9" s="21"/>
+      <c r="C9" s="27" t="s">
+        <v>67</v>
+      </c>
+      <c r="D9" s="63" t="s">
+        <v>69</v>
+      </c>
+      <c r="E9" s="64"/>
+      <c r="F9" s="65"/>
+      <c r="G9" s="66" t="s">
+        <v>70</v>
+      </c>
+      <c r="H9" s="66"/>
+      <c r="I9" s="66"/>
+      <c r="J9" s="66"/>
+      <c r="K9" s="66"/>
+      <c r="L9" s="23"/>
+      <c r="M9" s="23"/>
+      <c r="N9" s="23"/>
+      <c r="O9" s="23"/>
+      <c r="P9" s="26"/>
+    </row>
+    <row r="10" spans="1:16">
+      <c r="A10" s="25"/>
+      <c r="B10" s="21"/>
+      <c r="C10" s="19"/>
+      <c r="D10" s="43"/>
+      <c r="E10" s="43"/>
+      <c r="F10" s="43"/>
+      <c r="G10" s="44"/>
+      <c r="H10" s="44"/>
+      <c r="I10" s="44"/>
+      <c r="J10" s="45"/>
+      <c r="K10" s="24"/>
+      <c r="L10" s="23"/>
+      <c r="M10" s="23"/>
+      <c r="N10" s="23"/>
+      <c r="O10" s="23"/>
+      <c r="P10" s="26"/>
+    </row>
+    <row r="11" spans="1:16">
+      <c r="A11" s="25"/>
+      <c r="B11" s="21"/>
+      <c r="C11" s="48"/>
+      <c r="D11" s="41"/>
+      <c r="E11" s="53" t="s">
+        <v>9</v>
+      </c>
+      <c r="F11" s="70" t="s">
+        <v>95</v>
+      </c>
+      <c r="G11" s="70"/>
+      <c r="H11" s="71" t="s">
+        <v>64</v>
+      </c>
+      <c r="I11" s="71"/>
+      <c r="J11" s="71"/>
+      <c r="K11" s="26"/>
+      <c r="L11" s="23"/>
+      <c r="M11" s="23"/>
+      <c r="N11" s="23"/>
+      <c r="O11" s="23"/>
+      <c r="P11" s="26"/>
+    </row>
+    <row r="12" spans="1:16">
+      <c r="A12" s="25"/>
+      <c r="B12" s="21"/>
+      <c r="C12" s="48"/>
+      <c r="D12" s="41"/>
+      <c r="E12" s="54"/>
+      <c r="F12" s="63" t="s">
+        <v>96</v>
+      </c>
+      <c r="G12" s="65"/>
+      <c r="H12" s="72" t="s">
+        <v>97</v>
+      </c>
+      <c r="I12" s="73"/>
+      <c r="J12" s="74"/>
+      <c r="K12" s="26"/>
+      <c r="L12" s="23"/>
+      <c r="M12" s="23"/>
+      <c r="N12" s="23"/>
+      <c r="O12" s="23"/>
+      <c r="P12" s="26"/>
+    </row>
+    <row r="13" spans="1:16">
+      <c r="A13" s="25"/>
+      <c r="B13" s="21"/>
+      <c r="C13" s="48"/>
+      <c r="D13" s="41"/>
+      <c r="E13" s="41"/>
+      <c r="F13" s="41"/>
+      <c r="G13" s="42"/>
+      <c r="H13" s="42"/>
+      <c r="I13" s="42"/>
+      <c r="J13" s="22"/>
+      <c r="K13" s="26"/>
+      <c r="L13" s="23"/>
+      <c r="M13" s="23"/>
+      <c r="N13" s="23"/>
+      <c r="O13" s="23"/>
+      <c r="P13" s="26"/>
+    </row>
+    <row r="14" spans="1:16">
+      <c r="A14" s="25"/>
+      <c r="B14" s="21"/>
+      <c r="C14" s="48"/>
+      <c r="D14" s="41"/>
+      <c r="E14" s="53" t="s">
+        <v>9</v>
+      </c>
+      <c r="F14" s="70" t="s">
+        <v>95</v>
+      </c>
+      <c r="G14" s="70"/>
+      <c r="H14" s="71" t="s">
+        <v>64</v>
+      </c>
+      <c r="I14" s="71"/>
+      <c r="J14" s="71"/>
+      <c r="K14" s="26"/>
+      <c r="L14" s="23"/>
+      <c r="M14" s="23"/>
+      <c r="N14" s="23"/>
+      <c r="O14" s="23"/>
+      <c r="P14" s="26"/>
+    </row>
+    <row r="15" spans="1:16">
+      <c r="A15" s="25"/>
+      <c r="B15" s="21"/>
+      <c r="C15" s="48"/>
+      <c r="D15" s="41"/>
+      <c r="E15" s="54"/>
+      <c r="F15" s="63" t="s">
+        <v>175</v>
+      </c>
+      <c r="G15" s="65"/>
+      <c r="H15" s="72" t="s">
+        <v>176</v>
+      </c>
+      <c r="I15" s="73"/>
+      <c r="J15" s="74"/>
+      <c r="K15" s="26"/>
+      <c r="L15" s="23"/>
+      <c r="M15" s="23"/>
+      <c r="N15" s="23"/>
+      <c r="O15" s="23"/>
+      <c r="P15" s="26"/>
+    </row>
+    <row r="16" spans="1:16">
+      <c r="A16" s="25"/>
+      <c r="B16" s="21"/>
+      <c r="C16" s="49"/>
+      <c r="D16" s="46"/>
+      <c r="E16" s="46"/>
+      <c r="F16" s="46"/>
+      <c r="G16" s="47"/>
+      <c r="H16" s="47"/>
+      <c r="I16" s="47"/>
+      <c r="J16" s="34"/>
+      <c r="K16" s="36"/>
+      <c r="L16" s="23"/>
+      <c r="M16" s="23"/>
+      <c r="N16" s="23"/>
+      <c r="O16" s="23"/>
+      <c r="P16" s="26"/>
+    </row>
+    <row r="17" spans="1:16">
+      <c r="A17" s="25"/>
+      <c r="B17" s="21"/>
+      <c r="C17" s="21"/>
+      <c r="D17" s="28"/>
+      <c r="E17" s="22"/>
+      <c r="F17" s="22"/>
+      <c r="G17" s="22"/>
+      <c r="H17" s="22"/>
+      <c r="I17" s="22"/>
+      <c r="J17" s="22"/>
+      <c r="K17" s="23"/>
+      <c r="L17" s="23"/>
+      <c r="M17" s="23"/>
+      <c r="N17" s="23"/>
+      <c r="O17" s="23"/>
+      <c r="P17" s="26"/>
+    </row>
+    <row r="18" spans="1:16">
+      <c r="A18" s="25"/>
+      <c r="B18" s="21"/>
+      <c r="C18" s="29"/>
+      <c r="D18" s="23"/>
+      <c r="E18" s="23"/>
+      <c r="F18" s="37" t="s">
+        <v>9</v>
+      </c>
+      <c r="G18" s="58" t="s">
+        <v>65</v>
+      </c>
+      <c r="H18" s="58"/>
+      <c r="I18" s="58"/>
+      <c r="J18" s="58" t="s">
+        <v>66</v>
+      </c>
+      <c r="K18" s="58"/>
+      <c r="L18" s="58"/>
+      <c r="M18" s="23"/>
+      <c r="N18" s="23"/>
+      <c r="O18" s="23"/>
+      <c r="P18" s="26"/>
+    </row>
+    <row r="19" spans="1:16">
+      <c r="A19" s="25"/>
+      <c r="B19" s="21"/>
+      <c r="C19" s="30"/>
+      <c r="D19" s="22"/>
+      <c r="E19" s="22"/>
+      <c r="F19" s="27" t="s">
+        <v>68</v>
+      </c>
+      <c r="G19" s="62" t="s">
+        <v>71</v>
+      </c>
+      <c r="H19" s="62"/>
+      <c r="I19" s="62"/>
+      <c r="J19" s="66" t="s">
+        <v>72</v>
+      </c>
+      <c r="K19" s="66"/>
+      <c r="L19" s="66"/>
+      <c r="M19" s="22"/>
+      <c r="N19" s="22"/>
+      <c r="O19" s="22"/>
+      <c r="P19" s="26"/>
+    </row>
+    <row r="20" spans="1:16">
+      <c r="A20" s="25"/>
+      <c r="B20" s="21"/>
+      <c r="C20" s="30"/>
+      <c r="D20" s="22"/>
+      <c r="E20" s="22"/>
+      <c r="F20" s="52"/>
+      <c r="G20" s="51"/>
+      <c r="H20" s="58" t="s">
+        <v>168</v>
+      </c>
+      <c r="I20" s="58"/>
+      <c r="J20" s="58" t="s">
+        <v>66</v>
+      </c>
+      <c r="K20" s="58"/>
+      <c r="L20" s="58"/>
+      <c r="M20" s="22"/>
+      <c r="N20" s="22"/>
+      <c r="O20" s="22"/>
+      <c r="P20" s="26"/>
+    </row>
+    <row r="21" spans="1:16">
+      <c r="A21" s="25"/>
+      <c r="B21" s="21"/>
+      <c r="C21" s="30"/>
+      <c r="D21" s="22"/>
+      <c r="E21" s="22"/>
+      <c r="F21" s="55"/>
+      <c r="G21" s="56"/>
+      <c r="H21" s="75" t="s">
+        <v>171</v>
+      </c>
+      <c r="I21" s="76"/>
+      <c r="J21" s="66" t="s">
+        <v>169</v>
+      </c>
+      <c r="K21" s="66"/>
+      <c r="L21" s="66"/>
+      <c r="M21" s="22"/>
+      <c r="N21" s="22"/>
+      <c r="O21" s="22"/>
+      <c r="P21" s="26"/>
+    </row>
+    <row r="22" spans="1:16">
+      <c r="A22" s="31"/>
+      <c r="B22" s="32"/>
+      <c r="C22" s="33"/>
+      <c r="D22" s="34"/>
+      <c r="E22" s="34"/>
+      <c r="F22" s="57"/>
+      <c r="G22" s="57"/>
+      <c r="H22" s="35"/>
+      <c r="I22" s="35"/>
+      <c r="J22" s="35"/>
+      <c r="K22" s="35"/>
+      <c r="L22" s="35"/>
+      <c r="M22" s="34"/>
+      <c r="N22" s="34"/>
+      <c r="O22" s="34"/>
+      <c r="P22" s="36"/>
+    </row>
+    <row r="23" spans="1:16">
+      <c r="A23" s="17"/>
+      <c r="B23" s="18"/>
+      <c r="C23" s="18"/>
+      <c r="D23" s="17"/>
+    </row>
+    <row r="24" spans="1:16">
+      <c r="A24" s="39" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16">
+      <c r="A25" s="39"/>
+    </row>
+    <row r="26" spans="1:16">
+      <c r="A26" s="39" t="s">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="26">
+    <mergeCell ref="H21:I21"/>
+    <mergeCell ref="J21:L21"/>
+    <mergeCell ref="G18:I18"/>
+    <mergeCell ref="J18:L18"/>
+    <mergeCell ref="G19:I19"/>
+    <mergeCell ref="J19:L19"/>
+    <mergeCell ref="H20:I20"/>
+    <mergeCell ref="J20:L20"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="H12:J12"/>
+    <mergeCell ref="F14:G14"/>
+    <mergeCell ref="H14:J14"/>
+    <mergeCell ref="F15:G15"/>
+    <mergeCell ref="H15:J15"/>
+    <mergeCell ref="D8:F8"/>
+    <mergeCell ref="G8:K8"/>
+    <mergeCell ref="D9:F9"/>
+    <mergeCell ref="G9:K9"/>
+    <mergeCell ref="F11:G11"/>
+    <mergeCell ref="H11:J11"/>
+    <mergeCell ref="B5:E5"/>
+    <mergeCell ref="F5:J5"/>
+    <mergeCell ref="K5:P5"/>
+    <mergeCell ref="B6:E6"/>
+    <mergeCell ref="F6:J6"/>
+    <mergeCell ref="K6:P6"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:E27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+      <selection activeCell="N6" sqref="N6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="15.75"/>
@@ -2190,7 +3171,7 @@
         <v>5</v>
       </c>
       <c r="B1" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -2198,68 +3179,64 @@
         <v>4</v>
       </c>
       <c r="B2" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="B4" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="3" t="s">
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="B3" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D5" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="E5" s="3" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E5" s="1"/>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="3" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>76</v>
+        <v>10</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>92</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="E6" s="1"/>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="3" t="s">
-        <v>94</v>
+        <v>0</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="D7" s="1"/>
+        <v>174</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>20</v>
+      </c>
       <c r="E7" s="1" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -2267,52 +3244,278 @@
         <v>94</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>99</v>
+        <v>77</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D8" s="1"/>
       <c r="E8" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="3" t="s">
-        <v>0</v>
+        <v>94</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>167</v>
+        <v>99</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>16</v>
-      </c>
+        <v>100</v>
+      </c>
+      <c r="D9" s="1"/>
       <c r="E9" s="1" t="s">
-        <v>93</v>
+        <v>102</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="3" t="s">
-        <v>94</v>
+        <v>0</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
+      <c r="D10" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>93</v>
+      </c>
     </row>
     <row r="11" spans="1:5">
-      <c r="A11" s="3"/>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
+      <c r="A11" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>170</v>
+      </c>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E14" s="1"/>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E22" s="1"/>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="D24" s="1"/>
+      <c r="E24" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="D25" s="1"/>
+      <c r="E25" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="D27" s="1"/>
+      <c r="E27" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -2322,12 +3525,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S153"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="N4" sqref="N4"/>
+      <selection activeCell="L1" sqref="L1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1"/>
@@ -9111,2139 +10314,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q208"/>
-  <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="R5" sqref="R5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="3.88671875" defaultRowHeight="15"/>
-  <cols>
-    <col min="2" max="3" width="3.88671875" style="4"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:17">
-      <c r="A1" s="39" t="s">
-        <v>7</v>
-      </c>
-      <c r="Q1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:17">
-      <c r="A2" s="39"/>
-      <c r="Q2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
-      <c r="A3" s="40" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
-      <c r="Q4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
-      <c r="A5" s="37" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5" s="64" t="s">
-        <v>60</v>
-      </c>
-      <c r="C5" s="64"/>
-      <c r="D5" s="64"/>
-      <c r="E5" s="64"/>
-      <c r="F5" s="64" t="s">
-        <v>61</v>
-      </c>
-      <c r="G5" s="64"/>
-      <c r="H5" s="64"/>
-      <c r="I5" s="64"/>
-      <c r="J5" s="64"/>
-      <c r="K5" s="64" t="s">
-        <v>62</v>
-      </c>
-      <c r="L5" s="64"/>
-      <c r="M5" s="64"/>
-      <c r="N5" s="64"/>
-      <c r="O5" s="64"/>
-      <c r="P5" s="64"/>
-      <c r="Q5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
-      <c r="A6" s="19" t="s">
-        <v>11</v>
-      </c>
-      <c r="B6" s="67" t="s">
-        <v>73</v>
-      </c>
-      <c r="C6" s="68"/>
-      <c r="D6" s="68"/>
-      <c r="E6" s="69"/>
-      <c r="F6" s="67" t="s">
-        <v>74</v>
-      </c>
-      <c r="G6" s="68"/>
-      <c r="H6" s="68"/>
-      <c r="I6" s="68"/>
-      <c r="J6" s="69"/>
-      <c r="K6" s="67" t="s">
-        <v>75</v>
-      </c>
-      <c r="L6" s="68"/>
-      <c r="M6" s="68"/>
-      <c r="N6" s="68"/>
-      <c r="O6" s="68"/>
-      <c r="P6" s="69"/>
-      <c r="Q6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
-      <c r="A7" s="20"/>
-      <c r="B7" s="21"/>
-      <c r="C7" s="21"/>
-      <c r="D7" s="21"/>
-      <c r="E7" s="22"/>
-      <c r="F7" s="22"/>
-      <c r="G7" s="22"/>
-      <c r="H7" s="22"/>
-      <c r="I7" s="22"/>
-      <c r="J7" s="22"/>
-      <c r="K7" s="23"/>
-      <c r="L7" s="23"/>
-      <c r="M7" s="23"/>
-      <c r="N7" s="23"/>
-      <c r="O7" s="23"/>
-      <c r="P7" s="24"/>
-      <c r="Q7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
-      <c r="A8" s="25"/>
-      <c r="B8" s="21"/>
-      <c r="C8" s="37" t="s">
-        <v>9</v>
-      </c>
-      <c r="D8" s="61" t="s">
-        <v>63</v>
-      </c>
-      <c r="E8" s="62"/>
-      <c r="F8" s="63"/>
-      <c r="G8" s="64" t="s">
-        <v>64</v>
-      </c>
-      <c r="H8" s="64"/>
-      <c r="I8" s="64"/>
-      <c r="J8" s="64"/>
-      <c r="K8" s="64"/>
-      <c r="L8" s="23"/>
-      <c r="M8" s="23"/>
-      <c r="N8" s="23"/>
-      <c r="O8" s="23"/>
-      <c r="P8" s="26"/>
-      <c r="Q8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
-      <c r="A9" s="25"/>
-      <c r="B9" s="21"/>
-      <c r="C9" s="27" t="s">
-        <v>67</v>
-      </c>
-      <c r="D9" s="71" t="s">
-        <v>69</v>
-      </c>
-      <c r="E9" s="72"/>
-      <c r="F9" s="73"/>
-      <c r="G9" s="74" t="s">
-        <v>70</v>
-      </c>
-      <c r="H9" s="74"/>
-      <c r="I9" s="74"/>
-      <c r="J9" s="74"/>
-      <c r="K9" s="74"/>
-      <c r="L9" s="23"/>
-      <c r="M9" s="23"/>
-      <c r="N9" s="23"/>
-      <c r="O9" s="23"/>
-      <c r="P9" s="26"/>
-      <c r="Q9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
-      <c r="A10" s="25"/>
-      <c r="B10" s="21"/>
-      <c r="C10" s="19"/>
-      <c r="D10" s="44"/>
-      <c r="E10" s="44"/>
-      <c r="F10" s="44"/>
-      <c r="G10" s="45"/>
-      <c r="H10" s="45"/>
-      <c r="I10" s="45"/>
-      <c r="J10" s="46"/>
-      <c r="K10" s="24"/>
-      <c r="L10" s="23"/>
-      <c r="M10" s="23"/>
-      <c r="N10" s="23"/>
-      <c r="O10" s="23"/>
-      <c r="P10" s="26"/>
-      <c r="Q10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
-      <c r="A11" s="25"/>
-      <c r="B11" s="21"/>
-      <c r="C11" s="49"/>
-      <c r="D11" s="42"/>
-      <c r="E11" s="52" t="s">
-        <v>9</v>
-      </c>
-      <c r="F11" s="75" t="s">
-        <v>95</v>
-      </c>
-      <c r="G11" s="75"/>
-      <c r="H11" s="76" t="s">
-        <v>64</v>
-      </c>
-      <c r="I11" s="76"/>
-      <c r="J11" s="76"/>
-      <c r="K11" s="26"/>
-      <c r="L11" s="23"/>
-      <c r="M11" s="23"/>
-      <c r="N11" s="23"/>
-      <c r="O11" s="23"/>
-      <c r="P11" s="26"/>
-      <c r="Q11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
-      <c r="A12" s="25"/>
-      <c r="B12" s="21"/>
-      <c r="C12" s="49"/>
-      <c r="D12" s="42"/>
-      <c r="E12" s="41"/>
-      <c r="F12" s="71" t="s">
-        <v>96</v>
-      </c>
-      <c r="G12" s="73"/>
-      <c r="H12" s="77" t="s">
-        <v>97</v>
-      </c>
-      <c r="I12" s="78"/>
-      <c r="J12" s="79"/>
-      <c r="K12" s="26"/>
-      <c r="L12" s="23"/>
-      <c r="M12" s="23"/>
-      <c r="N12" s="23"/>
-      <c r="O12" s="23"/>
-      <c r="P12" s="26"/>
-      <c r="Q12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
-      <c r="A13" s="25"/>
-      <c r="B13" s="21"/>
-      <c r="C13" s="49"/>
-      <c r="D13" s="42"/>
-      <c r="E13" s="41"/>
-      <c r="F13" s="71" t="s">
-        <v>96</v>
-      </c>
-      <c r="G13" s="73"/>
-      <c r="H13" s="77" t="s">
-        <v>97</v>
-      </c>
-      <c r="I13" s="78"/>
-      <c r="J13" s="79"/>
-      <c r="K13" s="26"/>
-      <c r="L13" s="23"/>
-      <c r="M13" s="23"/>
-      <c r="N13" s="23"/>
-      <c r="O13" s="23"/>
-      <c r="P13" s="26"/>
-      <c r="Q13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
-      <c r="A14" s="25"/>
-      <c r="B14" s="21"/>
-      <c r="C14" s="49"/>
-      <c r="D14" s="42"/>
-      <c r="E14" s="42"/>
-      <c r="F14" s="42"/>
-      <c r="G14" s="43"/>
-      <c r="H14" s="43"/>
-      <c r="I14" s="43"/>
-      <c r="J14" s="22"/>
-      <c r="K14" s="26"/>
-      <c r="L14" s="23"/>
-      <c r="M14" s="23"/>
-      <c r="N14" s="23"/>
-      <c r="O14" s="23"/>
-      <c r="P14" s="26"/>
-      <c r="Q14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
-      <c r="A15" s="25"/>
-      <c r="B15" s="21"/>
-      <c r="C15" s="49"/>
-      <c r="D15" s="42"/>
-      <c r="E15" s="52" t="s">
-        <v>9</v>
-      </c>
-      <c r="F15" s="75" t="s">
-        <v>95</v>
-      </c>
-      <c r="G15" s="75"/>
-      <c r="H15" s="76" t="s">
-        <v>64</v>
-      </c>
-      <c r="I15" s="76"/>
-      <c r="J15" s="76"/>
-      <c r="K15" s="26"/>
-      <c r="L15" s="23"/>
-      <c r="M15" s="23"/>
-      <c r="N15" s="23"/>
-      <c r="O15" s="23"/>
-      <c r="P15" s="26"/>
-      <c r="Q15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
-      <c r="A16" s="25"/>
-      <c r="B16" s="21"/>
-      <c r="C16" s="49"/>
-      <c r="D16" s="42"/>
-      <c r="E16" s="41"/>
-      <c r="F16" s="71" t="s">
-        <v>96</v>
-      </c>
-      <c r="G16" s="73"/>
-      <c r="H16" s="77" t="s">
-        <v>97</v>
-      </c>
-      <c r="I16" s="78"/>
-      <c r="J16" s="79"/>
-      <c r="K16" s="26"/>
-      <c r="L16" s="23"/>
-      <c r="M16" s="23"/>
-      <c r="N16" s="23"/>
-      <c r="O16" s="23"/>
-      <c r="P16" s="26"/>
-      <c r="Q16">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
-      <c r="A17" s="25"/>
-      <c r="B17" s="21"/>
-      <c r="C17" s="49"/>
-      <c r="D17" s="42"/>
-      <c r="E17" s="41"/>
-      <c r="F17" s="71" t="s">
-        <v>96</v>
-      </c>
-      <c r="G17" s="73"/>
-      <c r="H17" s="77" t="s">
-        <v>97</v>
-      </c>
-      <c r="I17" s="78"/>
-      <c r="J17" s="79"/>
-      <c r="K17" s="26"/>
-      <c r="L17" s="23"/>
-      <c r="M17" s="23"/>
-      <c r="N17" s="23"/>
-      <c r="O17" s="23"/>
-      <c r="P17" s="26"/>
-      <c r="Q17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
-      <c r="A18" s="25"/>
-      <c r="B18" s="21"/>
-      <c r="C18" s="50"/>
-      <c r="D18" s="47"/>
-      <c r="E18" s="47"/>
-      <c r="F18" s="47"/>
-      <c r="G18" s="48"/>
-      <c r="H18" s="48"/>
-      <c r="I18" s="48"/>
-      <c r="J18" s="34"/>
-      <c r="K18" s="36"/>
-      <c r="L18" s="23"/>
-      <c r="M18" s="23"/>
-      <c r="N18" s="23"/>
-      <c r="O18" s="23"/>
-      <c r="P18" s="26"/>
-      <c r="Q18">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
-      <c r="A19" s="25"/>
-      <c r="B19" s="21"/>
-      <c r="C19" s="27" t="s">
-        <v>67</v>
-      </c>
-      <c r="D19" s="71" t="s">
-        <v>69</v>
-      </c>
-      <c r="E19" s="72"/>
-      <c r="F19" s="73"/>
-      <c r="G19" s="74" t="s">
-        <v>70</v>
-      </c>
-      <c r="H19" s="74"/>
-      <c r="I19" s="74"/>
-      <c r="J19" s="74"/>
-      <c r="K19" s="74"/>
-      <c r="L19" s="23"/>
-      <c r="M19" s="23"/>
-      <c r="N19" s="23"/>
-      <c r="O19" s="23"/>
-      <c r="P19" s="26"/>
-      <c r="Q19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
-      <c r="A20" s="25"/>
-      <c r="B20" s="21"/>
-      <c r="C20" s="19"/>
-      <c r="D20" s="44"/>
-      <c r="E20" s="44"/>
-      <c r="F20" s="44"/>
-      <c r="G20" s="45"/>
-      <c r="H20" s="45"/>
-      <c r="I20" s="45"/>
-      <c r="J20" s="46"/>
-      <c r="K20" s="24"/>
-      <c r="L20" s="23"/>
-      <c r="M20" s="23"/>
-      <c r="N20" s="23"/>
-      <c r="O20" s="23"/>
-      <c r="P20" s="26"/>
-      <c r="Q20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
-      <c r="A21" s="25"/>
-      <c r="B21" s="21"/>
-      <c r="C21" s="49"/>
-      <c r="D21" s="42"/>
-      <c r="E21" s="52" t="s">
-        <v>9</v>
-      </c>
-      <c r="F21" s="75" t="s">
-        <v>95</v>
-      </c>
-      <c r="G21" s="75"/>
-      <c r="H21" s="76" t="s">
-        <v>64</v>
-      </c>
-      <c r="I21" s="76"/>
-      <c r="J21" s="76"/>
-      <c r="K21" s="26"/>
-      <c r="L21" s="23"/>
-      <c r="M21" s="23"/>
-      <c r="N21" s="23"/>
-      <c r="O21" s="23"/>
-      <c r="P21" s="26"/>
-      <c r="Q21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
-      <c r="A22" s="25"/>
-      <c r="B22" s="21"/>
-      <c r="C22" s="49"/>
-      <c r="D22" s="42"/>
-      <c r="E22" s="41"/>
-      <c r="F22" s="71" t="s">
-        <v>96</v>
-      </c>
-      <c r="G22" s="73"/>
-      <c r="H22" s="77" t="s">
-        <v>97</v>
-      </c>
-      <c r="I22" s="78"/>
-      <c r="J22" s="79"/>
-      <c r="K22" s="26"/>
-      <c r="L22" s="23"/>
-      <c r="M22" s="23"/>
-      <c r="N22" s="23"/>
-      <c r="O22" s="23"/>
-      <c r="P22" s="26"/>
-      <c r="Q22">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
-      <c r="A23" s="25"/>
-      <c r="B23" s="21"/>
-      <c r="C23" s="49"/>
-      <c r="D23" s="42"/>
-      <c r="E23" s="41"/>
-      <c r="F23" s="71" t="s">
-        <v>96</v>
-      </c>
-      <c r="G23" s="73"/>
-      <c r="H23" s="77" t="s">
-        <v>97</v>
-      </c>
-      <c r="I23" s="78"/>
-      <c r="J23" s="79"/>
-      <c r="K23" s="26"/>
-      <c r="L23" s="23"/>
-      <c r="M23" s="23"/>
-      <c r="N23" s="23"/>
-      <c r="O23" s="23"/>
-      <c r="P23" s="26"/>
-      <c r="Q23">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
-      <c r="A24" s="25"/>
-      <c r="B24" s="21"/>
-      <c r="C24" s="49"/>
-      <c r="D24" s="42"/>
-      <c r="E24" s="42"/>
-      <c r="F24" s="42"/>
-      <c r="G24" s="43"/>
-      <c r="H24" s="43"/>
-      <c r="I24" s="43"/>
-      <c r="J24" s="22"/>
-      <c r="K24" s="26"/>
-      <c r="L24" s="23"/>
-      <c r="M24" s="23"/>
-      <c r="N24" s="23"/>
-      <c r="O24" s="23"/>
-      <c r="P24" s="26"/>
-      <c r="Q24">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
-      <c r="A25" s="25"/>
-      <c r="B25" s="21"/>
-      <c r="C25" s="49"/>
-      <c r="D25" s="42"/>
-      <c r="E25" s="52" t="s">
-        <v>9</v>
-      </c>
-      <c r="F25" s="75" t="s">
-        <v>95</v>
-      </c>
-      <c r="G25" s="75"/>
-      <c r="H25" s="76" t="s">
-        <v>64</v>
-      </c>
-      <c r="I25" s="76"/>
-      <c r="J25" s="76"/>
-      <c r="K25" s="26"/>
-      <c r="L25" s="23"/>
-      <c r="M25" s="23"/>
-      <c r="N25" s="23"/>
-      <c r="O25" s="23"/>
-      <c r="P25" s="26"/>
-      <c r="Q25">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:17">
-      <c r="A26" s="25"/>
-      <c r="B26" s="21"/>
-      <c r="C26" s="49"/>
-      <c r="D26" s="42"/>
-      <c r="E26" s="41"/>
-      <c r="F26" s="71" t="s">
-        <v>96</v>
-      </c>
-      <c r="G26" s="73"/>
-      <c r="H26" s="77" t="s">
-        <v>97</v>
-      </c>
-      <c r="I26" s="78"/>
-      <c r="J26" s="79"/>
-      <c r="K26" s="26"/>
-      <c r="L26" s="23"/>
-      <c r="M26" s="23"/>
-      <c r="N26" s="23"/>
-      <c r="O26" s="23"/>
-      <c r="P26" s="26"/>
-      <c r="Q26">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:17">
-      <c r="A27" s="25"/>
-      <c r="B27" s="21"/>
-      <c r="C27" s="49"/>
-      <c r="D27" s="42"/>
-      <c r="E27" s="41"/>
-      <c r="F27" s="71" t="s">
-        <v>96</v>
-      </c>
-      <c r="G27" s="73"/>
-      <c r="H27" s="77" t="s">
-        <v>97</v>
-      </c>
-      <c r="I27" s="78"/>
-      <c r="J27" s="79"/>
-      <c r="K27" s="26"/>
-      <c r="L27" s="23"/>
-      <c r="M27" s="23"/>
-      <c r="N27" s="23"/>
-      <c r="O27" s="23"/>
-      <c r="P27" s="26"/>
-      <c r="Q27">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:17">
-      <c r="A28" s="25"/>
-      <c r="B28" s="21"/>
-      <c r="C28" s="50"/>
-      <c r="D28" s="47"/>
-      <c r="E28" s="47"/>
-      <c r="F28" s="47"/>
-      <c r="G28" s="48"/>
-      <c r="H28" s="48"/>
-      <c r="I28" s="48"/>
-      <c r="J28" s="34"/>
-      <c r="K28" s="36"/>
-      <c r="L28" s="23"/>
-      <c r="M28" s="23"/>
-      <c r="N28" s="23"/>
-      <c r="O28" s="23"/>
-      <c r="P28" s="26"/>
-      <c r="Q28">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:17">
-      <c r="A29" s="25"/>
-      <c r="B29" s="21"/>
-      <c r="C29" s="27" t="s">
-        <v>67</v>
-      </c>
-      <c r="D29" s="71" t="s">
-        <v>69</v>
-      </c>
-      <c r="E29" s="72"/>
-      <c r="F29" s="73"/>
-      <c r="G29" s="74" t="s">
-        <v>70</v>
-      </c>
-      <c r="H29" s="74"/>
-      <c r="I29" s="74"/>
-      <c r="J29" s="74"/>
-      <c r="K29" s="74"/>
-      <c r="L29" s="23"/>
-      <c r="M29" s="23"/>
-      <c r="N29" s="23"/>
-      <c r="O29" s="23"/>
-      <c r="P29" s="26"/>
-      <c r="Q29">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:17">
-      <c r="A30" s="25"/>
-      <c r="B30" s="21"/>
-      <c r="C30" s="19"/>
-      <c r="D30" s="44"/>
-      <c r="E30" s="44"/>
-      <c r="F30" s="44"/>
-      <c r="G30" s="45"/>
-      <c r="H30" s="45"/>
-      <c r="I30" s="45"/>
-      <c r="J30" s="46"/>
-      <c r="K30" s="24"/>
-      <c r="L30" s="23"/>
-      <c r="M30" s="23"/>
-      <c r="N30" s="23"/>
-      <c r="O30" s="23"/>
-      <c r="P30" s="26"/>
-      <c r="Q30">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:17">
-      <c r="A31" s="25"/>
-      <c r="B31" s="21"/>
-      <c r="C31" s="49"/>
-      <c r="D31" s="42"/>
-      <c r="E31" s="52" t="s">
-        <v>9</v>
-      </c>
-      <c r="F31" s="75" t="s">
-        <v>95</v>
-      </c>
-      <c r="G31" s="75"/>
-      <c r="H31" s="76" t="s">
-        <v>64</v>
-      </c>
-      <c r="I31" s="76"/>
-      <c r="J31" s="76"/>
-      <c r="K31" s="26"/>
-      <c r="L31" s="23"/>
-      <c r="M31" s="23"/>
-      <c r="N31" s="23"/>
-      <c r="O31" s="23"/>
-      <c r="P31" s="26"/>
-      <c r="Q31">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="1:17">
-      <c r="A32" s="25"/>
-      <c r="B32" s="21"/>
-      <c r="C32" s="49"/>
-      <c r="D32" s="42"/>
-      <c r="E32" s="41"/>
-      <c r="F32" s="71" t="s">
-        <v>96</v>
-      </c>
-      <c r="G32" s="73"/>
-      <c r="H32" s="77" t="s">
-        <v>97</v>
-      </c>
-      <c r="I32" s="78"/>
-      <c r="J32" s="79"/>
-      <c r="K32" s="26"/>
-      <c r="L32" s="23"/>
-      <c r="M32" s="23"/>
-      <c r="N32" s="23"/>
-      <c r="O32" s="23"/>
-      <c r="P32" s="26"/>
-      <c r="Q32">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" spans="1:17">
-      <c r="A33" s="25"/>
-      <c r="B33" s="21"/>
-      <c r="C33" s="49"/>
-      <c r="D33" s="42"/>
-      <c r="E33" s="41"/>
-      <c r="F33" s="71" t="s">
-        <v>96</v>
-      </c>
-      <c r="G33" s="73"/>
-      <c r="H33" s="77" t="s">
-        <v>97</v>
-      </c>
-      <c r="I33" s="78"/>
-      <c r="J33" s="79"/>
-      <c r="K33" s="26"/>
-      <c r="L33" s="23"/>
-      <c r="M33" s="23"/>
-      <c r="N33" s="23"/>
-      <c r="O33" s="23"/>
-      <c r="P33" s="26"/>
-      <c r="Q33">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" spans="1:17">
-      <c r="A34" s="25"/>
-      <c r="B34" s="21"/>
-      <c r="C34" s="49"/>
-      <c r="D34" s="42"/>
-      <c r="E34" s="42"/>
-      <c r="F34" s="42"/>
-      <c r="G34" s="43"/>
-      <c r="H34" s="43"/>
-      <c r="I34" s="43"/>
-      <c r="J34" s="22"/>
-      <c r="K34" s="26"/>
-      <c r="L34" s="23"/>
-      <c r="M34" s="23"/>
-      <c r="N34" s="23"/>
-      <c r="O34" s="23"/>
-      <c r="P34" s="26"/>
-      <c r="Q34">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35" spans="1:17">
-      <c r="A35" s="25"/>
-      <c r="B35" s="21"/>
-      <c r="C35" s="49"/>
-      <c r="D35" s="42"/>
-      <c r="E35" s="52" t="s">
-        <v>9</v>
-      </c>
-      <c r="F35" s="75" t="s">
-        <v>95</v>
-      </c>
-      <c r="G35" s="75"/>
-      <c r="H35" s="76" t="s">
-        <v>64</v>
-      </c>
-      <c r="I35" s="76"/>
-      <c r="J35" s="76"/>
-      <c r="K35" s="26"/>
-      <c r="L35" s="23"/>
-      <c r="M35" s="23"/>
-      <c r="N35" s="23"/>
-      <c r="O35" s="23"/>
-      <c r="P35" s="26"/>
-      <c r="Q35">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36" spans="1:17">
-      <c r="A36" s="25"/>
-      <c r="B36" s="21"/>
-      <c r="C36" s="49"/>
-      <c r="D36" s="42"/>
-      <c r="E36" s="41"/>
-      <c r="F36" s="71" t="s">
-        <v>96</v>
-      </c>
-      <c r="G36" s="73"/>
-      <c r="H36" s="77" t="s">
-        <v>97</v>
-      </c>
-      <c r="I36" s="78"/>
-      <c r="J36" s="79"/>
-      <c r="K36" s="26"/>
-      <c r="L36" s="23"/>
-      <c r="M36" s="23"/>
-      <c r="N36" s="23"/>
-      <c r="O36" s="23"/>
-      <c r="P36" s="26"/>
-      <c r="Q36">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37" spans="1:17">
-      <c r="A37" s="25"/>
-      <c r="B37" s="21"/>
-      <c r="C37" s="49"/>
-      <c r="D37" s="42"/>
-      <c r="E37" s="41"/>
-      <c r="F37" s="71" t="s">
-        <v>96</v>
-      </c>
-      <c r="G37" s="73"/>
-      <c r="H37" s="77" t="s">
-        <v>97</v>
-      </c>
-      <c r="I37" s="78"/>
-      <c r="J37" s="79"/>
-      <c r="K37" s="26"/>
-      <c r="L37" s="23"/>
-      <c r="M37" s="23"/>
-      <c r="N37" s="23"/>
-      <c r="O37" s="23"/>
-      <c r="P37" s="26"/>
-      <c r="Q37">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="38" spans="1:17">
-      <c r="A38" s="25"/>
-      <c r="B38" s="21"/>
-      <c r="C38" s="50"/>
-      <c r="D38" s="47"/>
-      <c r="E38" s="47"/>
-      <c r="F38" s="47"/>
-      <c r="G38" s="48"/>
-      <c r="H38" s="48"/>
-      <c r="I38" s="48"/>
-      <c r="J38" s="34"/>
-      <c r="K38" s="36"/>
-      <c r="L38" s="23"/>
-      <c r="M38" s="23"/>
-      <c r="N38" s="23"/>
-      <c r="O38" s="23"/>
-      <c r="P38" s="26"/>
-      <c r="Q38">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="39" spans="1:17">
-      <c r="A39" s="25"/>
-      <c r="B39" s="21"/>
-      <c r="C39" s="21"/>
-      <c r="D39" s="28"/>
-      <c r="E39" s="22"/>
-      <c r="F39" s="22"/>
-      <c r="G39" s="22"/>
-      <c r="H39" s="22"/>
-      <c r="I39" s="22"/>
-      <c r="J39" s="22"/>
-      <c r="K39" s="23"/>
-      <c r="L39" s="23"/>
-      <c r="M39" s="23"/>
-      <c r="N39" s="23"/>
-      <c r="O39" s="23"/>
-      <c r="P39" s="26"/>
-      <c r="Q39">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="40" spans="1:17">
-      <c r="A40" s="25"/>
-      <c r="B40" s="21"/>
-      <c r="C40" s="29"/>
-      <c r="D40" s="23"/>
-      <c r="E40" s="23"/>
-      <c r="F40" s="37" t="s">
-        <v>9</v>
-      </c>
-      <c r="G40" s="64" t="s">
-        <v>65</v>
-      </c>
-      <c r="H40" s="64"/>
-      <c r="I40" s="64"/>
-      <c r="J40" s="64" t="s">
-        <v>66</v>
-      </c>
-      <c r="K40" s="64"/>
-      <c r="L40" s="64"/>
-      <c r="M40" s="23"/>
-      <c r="N40" s="23"/>
-      <c r="O40" s="23"/>
-      <c r="P40" s="26"/>
-      <c r="Q40">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="41" spans="1:17">
-      <c r="A41" s="25"/>
-      <c r="B41" s="21"/>
-      <c r="C41" s="30"/>
-      <c r="D41" s="22"/>
-      <c r="E41" s="22"/>
-      <c r="F41" s="27" t="s">
-        <v>68</v>
-      </c>
-      <c r="G41" s="70" t="s">
-        <v>71</v>
-      </c>
-      <c r="H41" s="70"/>
-      <c r="I41" s="70"/>
-      <c r="J41" s="74" t="s">
-        <v>72</v>
-      </c>
-      <c r="K41" s="74"/>
-      <c r="L41" s="74"/>
-      <c r="M41" s="22"/>
-      <c r="N41" s="22"/>
-      <c r="O41" s="22"/>
-      <c r="P41" s="26"/>
-      <c r="Q41">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="42" spans="1:17">
-      <c r="A42" s="25"/>
-      <c r="B42" s="21"/>
-      <c r="C42" s="30"/>
-      <c r="D42" s="22"/>
-      <c r="E42" s="22"/>
-      <c r="F42" s="54"/>
-      <c r="G42" s="53"/>
-      <c r="H42" s="64" t="s">
-        <v>168</v>
-      </c>
-      <c r="I42" s="64"/>
-      <c r="J42" s="64" t="s">
-        <v>66</v>
-      </c>
-      <c r="K42" s="64"/>
-      <c r="L42" s="64"/>
-      <c r="M42" s="22"/>
-      <c r="N42" s="22"/>
-      <c r="O42" s="22"/>
-      <c r="P42" s="26"/>
-      <c r="Q42">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="43" spans="1:17">
-      <c r="A43" s="25"/>
-      <c r="B43" s="21"/>
-      <c r="C43" s="30"/>
-      <c r="D43" s="22"/>
-      <c r="E43" s="22"/>
-      <c r="F43" s="55"/>
-      <c r="G43" s="34"/>
-      <c r="H43" s="80" t="s">
-        <v>171</v>
-      </c>
-      <c r="I43" s="81"/>
-      <c r="J43" s="74" t="s">
-        <v>169</v>
-      </c>
-      <c r="K43" s="74"/>
-      <c r="L43" s="74"/>
-      <c r="M43" s="22"/>
-      <c r="N43" s="22"/>
-      <c r="O43" s="22"/>
-      <c r="P43" s="26"/>
-      <c r="Q43">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="44" spans="1:17">
-      <c r="A44" s="25"/>
-      <c r="B44" s="21"/>
-      <c r="C44" s="30"/>
-      <c r="D44" s="22"/>
-      <c r="E44" s="22"/>
-      <c r="F44" s="55"/>
-      <c r="G44" s="34"/>
-      <c r="H44" s="80" t="s">
-        <v>171</v>
-      </c>
-      <c r="I44" s="81"/>
-      <c r="J44" s="74" t="s">
-        <v>169</v>
-      </c>
-      <c r="K44" s="74"/>
-      <c r="L44" s="74"/>
-      <c r="M44" s="22"/>
-      <c r="N44" s="22"/>
-      <c r="O44" s="22"/>
-      <c r="P44" s="26"/>
-      <c r="Q44">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="45" spans="1:17">
-      <c r="A45" s="25"/>
-      <c r="B45" s="21"/>
-      <c r="C45" s="30"/>
-      <c r="D45" s="22"/>
-      <c r="E45" s="22"/>
-      <c r="F45" s="55"/>
-      <c r="G45" s="34"/>
-      <c r="H45" s="80" t="s">
-        <v>171</v>
-      </c>
-      <c r="I45" s="81"/>
-      <c r="J45" s="74" t="s">
-        <v>169</v>
-      </c>
-      <c r="K45" s="74"/>
-      <c r="L45" s="74"/>
-      <c r="M45" s="22"/>
-      <c r="N45" s="22"/>
-      <c r="O45" s="22"/>
-      <c r="P45" s="26"/>
-      <c r="Q45">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="46" spans="1:17">
-      <c r="A46" s="25"/>
-      <c r="B46" s="21"/>
-      <c r="C46" s="30"/>
-      <c r="D46" s="22"/>
-      <c r="E46" s="22"/>
-      <c r="F46" s="27" t="s">
-        <v>68</v>
-      </c>
-      <c r="G46" s="70" t="s">
-        <v>71</v>
-      </c>
-      <c r="H46" s="70"/>
-      <c r="I46" s="70"/>
-      <c r="J46" s="74" t="s">
-        <v>72</v>
-      </c>
-      <c r="K46" s="74"/>
-      <c r="L46" s="74"/>
-      <c r="M46" s="22"/>
-      <c r="N46" s="22"/>
-      <c r="O46" s="22"/>
-      <c r="P46" s="26"/>
-      <c r="Q46">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="47" spans="1:17">
-      <c r="A47" s="25"/>
-      <c r="B47" s="21"/>
-      <c r="C47" s="30"/>
-      <c r="D47" s="22"/>
-      <c r="E47" s="22"/>
-      <c r="F47" s="54"/>
-      <c r="G47" s="53"/>
-      <c r="H47" s="64" t="s">
-        <v>168</v>
-      </c>
-      <c r="I47" s="64"/>
-      <c r="J47" s="64" t="s">
-        <v>66</v>
-      </c>
-      <c r="K47" s="64"/>
-      <c r="L47" s="64"/>
-      <c r="M47" s="22"/>
-      <c r="N47" s="22"/>
-      <c r="O47" s="22"/>
-      <c r="P47" s="26"/>
-      <c r="Q47">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="48" spans="1:17">
-      <c r="A48" s="25"/>
-      <c r="B48" s="21"/>
-      <c r="C48" s="30"/>
-      <c r="D48" s="22"/>
-      <c r="E48" s="22"/>
-      <c r="F48" s="55"/>
-      <c r="G48" s="34"/>
-      <c r="H48" s="80" t="s">
-        <v>171</v>
-      </c>
-      <c r="I48" s="81"/>
-      <c r="J48" s="74" t="s">
-        <v>169</v>
-      </c>
-      <c r="K48" s="74"/>
-      <c r="L48" s="74"/>
-      <c r="M48" s="22"/>
-      <c r="N48" s="22"/>
-      <c r="O48" s="22"/>
-      <c r="P48" s="26"/>
-      <c r="Q48">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="49" spans="1:17">
-      <c r="A49" s="25"/>
-      <c r="B49" s="21"/>
-      <c r="C49" s="30"/>
-      <c r="D49" s="22"/>
-      <c r="E49" s="22"/>
-      <c r="F49" s="55"/>
-      <c r="G49" s="34"/>
-      <c r="H49" s="80" t="s">
-        <v>171</v>
-      </c>
-      <c r="I49" s="81"/>
-      <c r="J49" s="74" t="s">
-        <v>169</v>
-      </c>
-      <c r="K49" s="74"/>
-      <c r="L49" s="74"/>
-      <c r="M49" s="22"/>
-      <c r="N49" s="22"/>
-      <c r="O49" s="22"/>
-      <c r="P49" s="26"/>
-      <c r="Q49">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="50" spans="1:17">
-      <c r="A50" s="25"/>
-      <c r="B50" s="21"/>
-      <c r="C50" s="30"/>
-      <c r="D50" s="22"/>
-      <c r="E50" s="22"/>
-      <c r="F50" s="55"/>
-      <c r="G50" s="34"/>
-      <c r="H50" s="80" t="s">
-        <v>171</v>
-      </c>
-      <c r="I50" s="81"/>
-      <c r="J50" s="74" t="s">
-        <v>169</v>
-      </c>
-      <c r="K50" s="74"/>
-      <c r="L50" s="74"/>
-      <c r="M50" s="22"/>
-      <c r="N50" s="22"/>
-      <c r="O50" s="22"/>
-      <c r="P50" s="26"/>
-      <c r="Q50">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="51" spans="1:17">
-      <c r="A51" s="31"/>
-      <c r="B51" s="32"/>
-      <c r="C51" s="33"/>
-      <c r="D51" s="34"/>
-      <c r="E51" s="34"/>
-      <c r="F51" s="35"/>
-      <c r="G51" s="35"/>
-      <c r="H51" s="35"/>
-      <c r="I51" s="35"/>
-      <c r="J51" s="35"/>
-      <c r="K51" s="35"/>
-      <c r="L51" s="35"/>
-      <c r="M51" s="34"/>
-      <c r="N51" s="34"/>
-      <c r="O51" s="34"/>
-      <c r="P51" s="36"/>
-      <c r="Q51">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="52" spans="1:17">
-      <c r="A52" s="28"/>
-      <c r="B52" s="21"/>
-      <c r="C52" s="30"/>
-      <c r="D52" s="22"/>
-      <c r="E52" s="22"/>
-      <c r="F52" s="56"/>
-      <c r="G52" s="56"/>
-      <c r="H52" s="56"/>
-      <c r="I52" s="56"/>
-      <c r="J52" s="56"/>
-      <c r="K52" s="56"/>
-      <c r="L52" s="56"/>
-      <c r="M52" s="22"/>
-      <c r="N52" s="22"/>
-      <c r="O52" s="22"/>
-      <c r="P52" s="22"/>
-      <c r="Q52">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="53" spans="1:17">
-      <c r="A53" s="37" t="s">
-        <v>9</v>
-      </c>
-      <c r="B53" s="61" t="s">
-        <v>63</v>
-      </c>
-      <c r="C53" s="62"/>
-      <c r="D53" s="63"/>
-      <c r="E53" s="64" t="s">
-        <v>64</v>
-      </c>
-      <c r="F53" s="64"/>
-      <c r="G53" s="64"/>
-      <c r="H53" s="64"/>
-      <c r="I53" s="64"/>
-      <c r="J53" s="56"/>
-      <c r="K53" s="56"/>
-      <c r="L53" s="56"/>
-      <c r="M53" s="22"/>
-      <c r="N53" s="22"/>
-      <c r="O53" s="22"/>
-      <c r="P53" s="22"/>
-      <c r="Q53">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="54" spans="1:17">
-      <c r="A54" s="57"/>
-      <c r="B54" s="66"/>
-      <c r="C54" s="66"/>
-      <c r="D54" s="66"/>
-      <c r="E54" s="65"/>
-      <c r="F54" s="65"/>
-      <c r="G54" s="65"/>
-      <c r="H54" s="65"/>
-      <c r="I54" s="65"/>
-      <c r="J54" s="56"/>
-      <c r="K54" s="56"/>
-      <c r="L54" s="56"/>
-      <c r="M54" s="22"/>
-      <c r="N54" s="22"/>
-      <c r="O54" s="22"/>
-      <c r="P54" s="22"/>
-      <c r="Q54">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="55" spans="1:17">
-      <c r="A55" s="17"/>
-      <c r="B55" s="18"/>
-      <c r="C55" s="18"/>
-      <c r="D55" s="17"/>
-      <c r="Q55">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="56" spans="1:17">
-      <c r="A56" s="39" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q56">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="57" spans="1:17">
-      <c r="A57" s="39"/>
-      <c r="Q57">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="58" spans="1:17">
-      <c r="A58" s="39" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q58">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="59" spans="1:17">
-      <c r="Q59">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="60" spans="1:17">
-      <c r="Q60">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="61" spans="1:17">
-      <c r="Q61">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="62" spans="1:17">
-      <c r="Q62">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="63" spans="1:17">
-      <c r="Q63">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="64" spans="1:17">
-      <c r="Q64">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="65" spans="17:17">
-      <c r="Q65">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="66" spans="17:17">
-      <c r="Q66">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="67" spans="17:17">
-      <c r="Q67">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="68" spans="17:17">
-      <c r="Q68">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="69" spans="17:17">
-      <c r="Q69">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="70" spans="17:17">
-      <c r="Q70">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="71" spans="17:17">
-      <c r="Q71">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="72" spans="17:17">
-      <c r="Q72">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="73" spans="17:17">
-      <c r="Q73">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="74" spans="17:17">
-      <c r="Q74">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="75" spans="17:17">
-      <c r="Q75">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="76" spans="17:17">
-      <c r="Q76">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="77" spans="17:17">
-      <c r="Q77">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="78" spans="17:17">
-      <c r="Q78">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="79" spans="17:17">
-      <c r="Q79">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="80" spans="17:17">
-      <c r="Q80">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="81" spans="17:17">
-      <c r="Q81">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="82" spans="17:17">
-      <c r="Q82">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="83" spans="17:17">
-      <c r="Q83">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="84" spans="17:17">
-      <c r="Q84">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="85" spans="17:17">
-      <c r="Q85">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="86" spans="17:17">
-      <c r="Q86">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="87" spans="17:17">
-      <c r="Q87">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="88" spans="17:17">
-      <c r="Q88">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="89" spans="17:17">
-      <c r="Q89">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="90" spans="17:17">
-      <c r="Q90">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="91" spans="17:17">
-      <c r="Q91">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="92" spans="17:17">
-      <c r="Q92">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="93" spans="17:17">
-      <c r="Q93">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="94" spans="17:17">
-      <c r="Q94">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="95" spans="17:17">
-      <c r="Q95">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="96" spans="17:17">
-      <c r="Q96">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="97" spans="17:17">
-      <c r="Q97">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="98" spans="17:17">
-      <c r="Q98">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="99" spans="17:17">
-      <c r="Q99">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="100" spans="17:17">
-      <c r="Q100">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="101" spans="17:17">
-      <c r="Q101">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="102" spans="17:17">
-      <c r="Q102">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="103" spans="17:17">
-      <c r="Q103">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="104" spans="17:17">
-      <c r="Q104">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="105" spans="17:17">
-      <c r="Q105">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="106" spans="17:17">
-      <c r="Q106">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="107" spans="17:17">
-      <c r="Q107">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="108" spans="17:17">
-      <c r="Q108">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="109" spans="17:17">
-      <c r="Q109">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="110" spans="17:17">
-      <c r="Q110">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="111" spans="17:17">
-      <c r="Q111">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="112" spans="17:17">
-      <c r="Q112">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="113" spans="17:17">
-      <c r="Q113">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="114" spans="17:17">
-      <c r="Q114">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="115" spans="17:17">
-      <c r="Q115">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="116" spans="17:17">
-      <c r="Q116">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="117" spans="17:17">
-      <c r="Q117">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="118" spans="17:17">
-      <c r="Q118">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="119" spans="17:17">
-      <c r="Q119">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="120" spans="17:17">
-      <c r="Q120">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="121" spans="17:17">
-      <c r="Q121">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="122" spans="17:17">
-      <c r="Q122">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="123" spans="17:17">
-      <c r="Q123">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="124" spans="17:17">
-      <c r="Q124">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="125" spans="17:17">
-      <c r="Q125">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="126" spans="17:17">
-      <c r="Q126">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="127" spans="17:17">
-      <c r="Q127">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="128" spans="17:17">
-      <c r="Q128">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="129" spans="17:17">
-      <c r="Q129">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="130" spans="17:17">
-      <c r="Q130">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="131" spans="17:17">
-      <c r="Q131">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="132" spans="17:17">
-      <c r="Q132">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="133" spans="17:17">
-      <c r="Q133">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="134" spans="17:17">
-      <c r="Q134">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="135" spans="17:17">
-      <c r="Q135">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="136" spans="17:17">
-      <c r="Q136">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="137" spans="17:17">
-      <c r="Q137">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="138" spans="17:17">
-      <c r="Q138">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="139" spans="17:17">
-      <c r="Q139">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="140" spans="17:17">
-      <c r="Q140">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="141" spans="17:17">
-      <c r="Q141">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="142" spans="17:17">
-      <c r="Q142">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="143" spans="17:17">
-      <c r="Q143">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="144" spans="17:17">
-      <c r="Q144">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="145" spans="17:17">
-      <c r="Q145">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="146" spans="17:17">
-      <c r="Q146">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="147" spans="17:17">
-      <c r="Q147">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="148" spans="17:17">
-      <c r="Q148">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="149" spans="17:17">
-      <c r="Q149">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="150" spans="17:17">
-      <c r="Q150">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="151" spans="17:17">
-      <c r="Q151">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="152" spans="17:17">
-      <c r="Q152">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="153" spans="17:17">
-      <c r="Q153">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="154" spans="17:17">
-      <c r="Q154">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="155" spans="17:17">
-      <c r="Q155">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="156" spans="17:17">
-      <c r="Q156">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="157" spans="17:17">
-      <c r="Q157">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="158" spans="17:17">
-      <c r="Q158">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="159" spans="17:17">
-      <c r="Q159">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="160" spans="17:17">
-      <c r="Q160">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="161" spans="17:17">
-      <c r="Q161">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="162" spans="17:17">
-      <c r="Q162">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="163" spans="17:17">
-      <c r="Q163">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="164" spans="17:17">
-      <c r="Q164">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="165" spans="17:17">
-      <c r="Q165">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="166" spans="17:17">
-      <c r="Q166">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="167" spans="17:17">
-      <c r="Q167">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="168" spans="17:17">
-      <c r="Q168">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="169" spans="17:17">
-      <c r="Q169">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="170" spans="17:17">
-      <c r="Q170">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="171" spans="17:17">
-      <c r="Q171">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="172" spans="17:17">
-      <c r="Q172">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="173" spans="17:17">
-      <c r="Q173">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="174" spans="17:17">
-      <c r="Q174">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="175" spans="17:17">
-      <c r="Q175">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="176" spans="17:17">
-      <c r="Q176">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="177" spans="17:17">
-      <c r="Q177">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="178" spans="17:17">
-      <c r="Q178">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="179" spans="17:17">
-      <c r="Q179">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="180" spans="17:17">
-      <c r="Q180">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="181" spans="17:17">
-      <c r="Q181">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="182" spans="17:17">
-      <c r="Q182">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="183" spans="17:17">
-      <c r="Q183">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="184" spans="17:17">
-      <c r="Q184">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="185" spans="17:17">
-      <c r="Q185">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="186" spans="17:17">
-      <c r="Q186">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="187" spans="17:17">
-      <c r="Q187">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="188" spans="17:17">
-      <c r="Q188">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="189" spans="17:17">
-      <c r="Q189">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="190" spans="17:17">
-      <c r="Q190">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="191" spans="17:17">
-      <c r="Q191">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="192" spans="17:17">
-      <c r="Q192">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="193" spans="17:17">
-      <c r="Q193">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="194" spans="17:17">
-      <c r="Q194">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="195" spans="17:17">
-      <c r="Q195">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="196" spans="17:17">
-      <c r="Q196">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="197" spans="17:17">
-      <c r="Q197">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="198" spans="17:17">
-      <c r="Q198">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="199" spans="17:17">
-      <c r="Q199">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="200" spans="17:17">
-      <c r="Q200">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="201" spans="17:17">
-      <c r="Q201">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="202" spans="17:17">
-      <c r="Q202">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="203" spans="17:17">
-      <c r="Q203">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="204" spans="17:17">
-      <c r="Q204">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="205" spans="17:17">
-      <c r="Q205">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="206" spans="17:17">
-      <c r="Q206">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="207" spans="17:17">
-      <c r="Q207">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="208" spans="17:17">
-      <c r="Q208">
-        <v>1</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="76">
-    <mergeCell ref="B5:E5"/>
-    <mergeCell ref="F5:J5"/>
-    <mergeCell ref="K5:P5"/>
-    <mergeCell ref="B6:E6"/>
-    <mergeCell ref="F6:J6"/>
-    <mergeCell ref="K6:P6"/>
-    <mergeCell ref="F37:G37"/>
-    <mergeCell ref="H37:J37"/>
-    <mergeCell ref="D8:F8"/>
-    <mergeCell ref="G8:K8"/>
-    <mergeCell ref="D29:F29"/>
-    <mergeCell ref="G29:K29"/>
-    <mergeCell ref="F31:G31"/>
-    <mergeCell ref="H31:J31"/>
-    <mergeCell ref="F13:G13"/>
-    <mergeCell ref="H13:J13"/>
-    <mergeCell ref="F15:G15"/>
-    <mergeCell ref="H15:J15"/>
-    <mergeCell ref="F32:G32"/>
-    <mergeCell ref="H32:J32"/>
-    <mergeCell ref="F36:G36"/>
-    <mergeCell ref="H36:J36"/>
-    <mergeCell ref="J40:L40"/>
-    <mergeCell ref="G46:I46"/>
-    <mergeCell ref="J46:L46"/>
-    <mergeCell ref="H47:I47"/>
-    <mergeCell ref="J47:L47"/>
-    <mergeCell ref="G41:I41"/>
-    <mergeCell ref="J41:L41"/>
-    <mergeCell ref="H42:I42"/>
-    <mergeCell ref="J42:L42"/>
-    <mergeCell ref="J45:L45"/>
-    <mergeCell ref="J43:L43"/>
-    <mergeCell ref="J44:L44"/>
-    <mergeCell ref="B53:D53"/>
-    <mergeCell ref="E53:I53"/>
-    <mergeCell ref="B54:D54"/>
-    <mergeCell ref="E54:I54"/>
-    <mergeCell ref="G40:I40"/>
-    <mergeCell ref="H45:I45"/>
-    <mergeCell ref="H43:I43"/>
-    <mergeCell ref="H44:I44"/>
-    <mergeCell ref="H48:I48"/>
-    <mergeCell ref="J48:L48"/>
-    <mergeCell ref="H49:I49"/>
-    <mergeCell ref="J49:L49"/>
-    <mergeCell ref="H50:I50"/>
-    <mergeCell ref="J50:L50"/>
-    <mergeCell ref="D9:F9"/>
-    <mergeCell ref="G9:K9"/>
-    <mergeCell ref="F11:G11"/>
-    <mergeCell ref="H11:J11"/>
-    <mergeCell ref="F12:G12"/>
-    <mergeCell ref="H12:J12"/>
-    <mergeCell ref="F33:G33"/>
-    <mergeCell ref="H33:J33"/>
-    <mergeCell ref="F35:G35"/>
-    <mergeCell ref="H35:J35"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="H16:J16"/>
-    <mergeCell ref="F17:G17"/>
-    <mergeCell ref="H17:J17"/>
-    <mergeCell ref="D19:F19"/>
-    <mergeCell ref="G19:K19"/>
-    <mergeCell ref="F21:G21"/>
-    <mergeCell ref="H21:J21"/>
-    <mergeCell ref="F22:G22"/>
-    <mergeCell ref="H22:J22"/>
-    <mergeCell ref="F23:G23"/>
-    <mergeCell ref="H23:J23"/>
-    <mergeCell ref="F25:G25"/>
-    <mergeCell ref="H25:J25"/>
-    <mergeCell ref="F26:G26"/>
-    <mergeCell ref="H26:J26"/>
-    <mergeCell ref="F27:G27"/>
-    <mergeCell ref="H27:J27"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
-</worksheet>
 </file>